--- a/2023/indonesia_liga-1_2023-2024.xlsx
+++ b/2023/indonesia_liga-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V126"/>
+  <dimension ref="A1:V130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,14 +2973,14 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>1.6</v>
+        <v>2.97</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.58</v>
+        <v>2.09</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>21/07/2023 09:58</t>
+          <t>21/07/2023 09:54</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>4</v>
+        <v>3.28</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>4.19</v>
+        <v>3.44</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>21/07/2023 09:59</t>
+          <t>21/07/2023 09:54</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>4.64</v>
+        <v>2.22</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>5.33</v>
+        <v>3.47</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>21/07/2023 09:59</t>
+          <t>21/07/2023 09:54</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-ps-barito-putera/vTGPHl5K/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-psis-semarang/Qme89QC0/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>2.97</v>
+        <v>1.6</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.09</v>
+        <v>1.58</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>21/07/2023 09:54</t>
+          <t>21/07/2023 09:58</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.28</v>
+        <v>4</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.44</v>
+        <v>4.19</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>21/07/2023 09:54</t>
+          <t>21/07/2023 09:59</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.22</v>
+        <v>4.64</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.47</v>
+        <v>5.33</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>21/07/2023 09:54</t>
+          <t>21/07/2023 09:59</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-psis-semarang/Qme89QC0/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-ps-barito-putera/vTGPHl5K/</t>
         </is>
       </c>
     </row>
@@ -3149,19 +3149,19 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>2.7</v>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>4.79</v>
+        <v>2.53</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>21/07/2023 13:59</t>
+          <t>21/07/2023 13:57</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.28</v>
+        <v>3.13</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.86</v>
+        <v>3.69</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>21/07/2023 13:58</t>
+          <t>21/07/2023 13:57</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.35</v>
+        <v>2.44</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>1.69</v>
+        <v>2.55</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>21/07/2023 13:54</t>
+          <t>21/07/2023 13:57</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/arema-fc-bali-united/za2eCSSs/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persik-kediri/YkGTG8KQ/</t>
         </is>
       </c>
     </row>
@@ -3241,19 +3241,19 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Bali United</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>3</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Persik Kediri</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>2.7</v>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.53</v>
+        <v>4.79</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>21/07/2023 13:57</t>
+          <t>21/07/2023 13:59</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.13</v>
+        <v>3.28</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.69</v>
+        <v>3.86</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>21/07/2023 13:57</t>
+          <t>21/07/2023 13:58</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.55</v>
+        <v>1.69</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>21/07/2023 13:57</t>
+          <t>21/07/2023 13:54</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persik-kediri/YkGTG8KQ/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/arema-fc-bali-united/za2eCSSs/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.32</v>
+        <v>1.65</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.79</v>
+        <v>1.61</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.26</v>
+        <v>3.8</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.5</v>
+        <v>4.15</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>30/07/2023 09:58</t>
+          <t>30/07/2023 09:55</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.75</v>
+        <v>4.48</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.42</v>
+        <v>5.06</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>30/07/2023 09:55</t>
+          <t>30/07/2023 09:51</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-pss-sleman/pCUpNqs0/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-arema-fc/tvOgLNBC/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.65</v>
+        <v>2.32</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.61</v>
+        <v>2.79</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.8</v>
+        <v>3.26</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,32 +4384,32 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>4.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
+          <t>30/07/2023 09:58</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>28/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
           <t>30/07/2023 09:55</t>
         </is>
       </c>
-      <c r="R43" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>28/07/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T43" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>30/07/2023 09:51</t>
-        </is>
-      </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-arema-fc/tvOgLNBC/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-pss-sleman/pCUpNqs0/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>2.01</v>
+        <v>2.35</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.94</v>
+        <v>3.19</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>09/08/2023 13:50</t>
+          <t>09/08/2023 13:59</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.52</v>
+        <v>3.53</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,32 +6132,32 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.12</v>
+        <v>3.24</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
+          <t>09/08/2023 13:55</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>08/08/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
           <t>09/08/2023 13:59</t>
         </is>
       </c>
-      <c r="R62" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>08/08/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T62" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>09/08/2023 13:59</t>
-        </is>
-      </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-borneo/roc2JMcM/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-madura-united/Q9n7ItDS/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>2.35</v>
+        <v>2.01</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,39 +6208,39 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>3.19</v>
+        <v>1.94</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
+          <t>09/08/2023 13:50</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>08/08/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
           <t>09/08/2023 13:59</t>
         </is>
       </c>
-      <c r="N63" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="O63" t="inlineStr">
+      <c r="R63" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="S63" t="inlineStr">
         <is>
           <t>08/08/2023 02:12</t>
         </is>
       </c>
-      <c r="P63" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>09/08/2023 13:55</t>
-        </is>
-      </c>
-      <c r="R63" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>08/08/2023 02:12</t>
-        </is>
-      </c>
       <c r="T63" t="n">
-        <v>2.3</v>
+        <v>4.49</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-madura-united/Q9n7ItDS/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-borneo/roc2JMcM/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Persib Bandung</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>1.77</v>
+        <v>2.17</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.6</v>
+        <v>2.12</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>13/08/2023 09:58</t>
+          <t>13/08/2023 09:56</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.99</v>
+        <v>3.32</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>4.39</v>
+        <v>3.46</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>13/08/2023 09:58</t>
+          <t>13/08/2023 09:56</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>3.63</v>
+        <v>3.03</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>4.94</v>
+        <v>3.37</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>13/08/2023 09:58</t>
+          <t>13/08/2023 09:56</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-ps-barito-putera/UeYWY1c9/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-fc-bhayangkara/zZYSZsr3/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Persib Bandung</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>2.17</v>
+        <v>1.77</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.12</v>
+        <v>1.6</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>13/08/2023 09:56</t>
+          <t>13/08/2023 09:58</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.32</v>
+        <v>3.99</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.46</v>
+        <v>4.39</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>13/08/2023 09:56</t>
+          <t>13/08/2023 09:58</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.03</v>
+        <v>3.63</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>3.37</v>
+        <v>4.94</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>13/08/2023 09:56</t>
+          <t>13/08/2023 09:58</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-fc-bhayangkara/zZYSZsr3/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-ps-barito-putera/UeYWY1c9/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G69" t="n">
+        <v>3</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Persikabo 1973</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
         <v>2</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Persija Jakarta</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
       <c r="J69" t="n">
-        <v>2.89</v>
+        <v>1.47</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,48 +6760,48 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.28</v>
+        <v>1.37</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
+          <t>13/08/2023 13:52</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>12/08/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
           <t>13/08/2023 13:54</t>
         </is>
       </c>
-      <c r="N69" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="O69" t="inlineStr">
+      <c r="R69" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="S69" t="inlineStr">
         <is>
           <t>12/08/2023 02:12</t>
         </is>
       </c>
-      <c r="P69" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="Q69" t="inlineStr">
+      <c r="T69" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="U69" t="inlineStr">
         <is>
           <t>13/08/2023 13:54</t>
         </is>
       </c>
-      <c r="R69" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>12/08/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T69" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>13/08/2023 13:54</t>
-        </is>
-      </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/madura-united-persija-jakarta/raxyYLCF/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persikabo-1973/drzPzOSd/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>1.47</v>
+        <v>2.89</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.37</v>
+        <v>2.28</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>13/08/2023 13:52</t>
+          <t>13/08/2023 13:54</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>4.25</v>
+        <v>3.14</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>4.85</v>
+        <v>3.06</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         </is>
       </c>
       <c r="R70" t="n">
-        <v>5.72</v>
+        <v>2.29</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>8.210000000000001</v>
+        <v>3.43</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persikabo-1973/drzPzOSd/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/madura-united-persija-jakarta/raxyYLCF/</t>
         </is>
       </c>
     </row>
@@ -12046,6 +12046,374 @@
       <c r="V126" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-persita/j9aB9uVj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45205.41666666666</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Persikabo 1973</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>2</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Persis Solo</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>2</v>
+      </c>
+      <c r="J127" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>04/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>06/10/2023 09:56</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>04/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>06/10/2023 09:58</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>04/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>06/10/2023 09:56</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persis-solo/OE3fW2x4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45205.41666666666</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>RANS Nusantara</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>2</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>PSIS Semarang</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>04/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>06/10/2023 09:52</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>04/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>06/10/2023 09:52</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>04/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T128" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>06/10/2023 09:52</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-psis-semarang/j15nYO7i/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45205.58333333334</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Arema FC</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Borneo</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>05/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>06/10/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>05/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>06/10/2023 13:57</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>05/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>06/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/arema-fc-borneo/Ui4jXrNc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45205.58333333334</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Dewa United</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>3</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>PSS Sleman</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>05/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>06/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>05/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>06/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>05/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T130" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>06/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-pss-sleman/xI7bVMiA/</t>
         </is>
       </c>
     </row>

--- a/2023/indonesia_liga-1_2023-2024.xlsx
+++ b/2023/indonesia_liga-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V130"/>
+  <dimension ref="A1:V131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12417,6 +12417,98 @@
         </is>
       </c>
     </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45206.41666666666</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Persebaya</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>2</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Persib Bandung</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>3</v>
+      </c>
+      <c r="J131" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>05/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>07/10/2023 09:10</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>05/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>07/10/2023 09:10</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>05/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="T131" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>07/10/2023 09:04</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persebaya-persib-bandung/Ktc3Ut7G/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/indonesia_liga-1_2023-2024.xlsx
+++ b/2023/indonesia_liga-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V131"/>
+  <dimension ref="A1:V132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>PSM Makassar</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Persib Bandung</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>1.95</v>
+        <v>1.58</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.25</v>
+        <v>1.49</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>22/07/2023 13:42</t>
+          <t>22/07/2023 13:54</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.42</v>
+        <v>3.88</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.34</v>
+        <v>4.41</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>22/07/2023 13:36</t>
+          <t>22/07/2023 13:56</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>3.36</v>
+        <v>4.61</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.18</v>
+        <v>6.3</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>22/07/2023 13:42</t>
+          <t>22/07/2023 13:54</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/psm-makassar-persib-bandung/viaC8pS6/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-persikabo-1973/hzc0Bnrl/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>PSM Makassar</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>Persib Bandung</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>1.58</v>
+        <v>1.95</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.49</v>
+        <v>2.25</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>22/07/2023 13:54</t>
+          <t>22/07/2023 13:42</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.88</v>
+        <v>3.42</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>4.41</v>
+        <v>3.34</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>22/07/2023 13:56</t>
+          <t>22/07/2023 13:36</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>4.61</v>
+        <v>3.36</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>6.3</v>
+        <v>3.18</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>22/07/2023 13:54</t>
+          <t>22/07/2023 13:42</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-persikabo-1973/hzc0Bnrl/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/psm-makassar-persib-bandung/viaC8pS6/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.65</v>
+        <v>2.32</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.61</v>
+        <v>2.79</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.8</v>
+        <v>3.26</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,32 +4292,32 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>4.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
+          <t>30/07/2023 09:58</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>28/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
           <t>30/07/2023 09:55</t>
         </is>
       </c>
-      <c r="R42" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>28/07/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T42" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>30/07/2023 09:51</t>
-        </is>
-      </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-arema-fc/tvOgLNBC/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-pss-sleman/pCUpNqs0/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.32</v>
+        <v>1.65</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.79</v>
+        <v>1.61</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.26</v>
+        <v>3.8</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.5</v>
+        <v>4.15</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>30/07/2023 09:58</t>
+          <t>30/07/2023 09:55</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.75</v>
+        <v>4.48</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.42</v>
+        <v>5.06</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>30/07/2023 09:55</t>
+          <t>30/07/2023 09:51</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-pss-sleman/pCUpNqs0/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-arema-fc/tvOgLNBC/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Persebaya</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.12</v>
+        <v>1.62</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.34</v>
+        <v>1.67</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>30/07/2023 13:51</t>
+          <t>30/07/2023 13:52</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.31</v>
+        <v>3.93</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.44</v>
+        <v>3.9</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>30/07/2023 13:51</t>
+          <t>30/07/2023 13:52</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.13</v>
+        <v>4.54</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.94</v>
+        <v>4.97</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>30/07/2023 13:51</t>
+          <t>30/07/2023 13:52</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-madura-united/z1NcKsRI/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persebaya/2mPkM3d6/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Persebaya</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>1.62</v>
+        <v>2.12</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.67</v>
+        <v>2.34</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>30/07/2023 13:52</t>
+          <t>30/07/2023 13:51</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.93</v>
+        <v>3.31</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.9</v>
+        <v>3.44</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>30/07/2023 13:52</t>
+          <t>30/07/2023 13:51</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>4.54</v>
+        <v>3.13</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>4.97</v>
+        <v>2.94</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>30/07/2023 13:52</t>
+          <t>30/07/2023 13:51</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persebaya/2mPkM3d6/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-madura-united/z1NcKsRI/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Persib Bandung</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1.96</v>
+        <v>2.42</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.96</v>
+        <v>2.2</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>02/09/2023 09:57</t>
+          <t>02/09/2023 09:51</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.33</v>
+        <v>3.25</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.19</v>
+        <v>3.16</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>02/09/2023 09:57</t>
+          <t>02/09/2023 09:51</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>3.44</v>
+        <v>2.7</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>4.27</v>
+        <v>3.5</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>02/09/2023 09:57</t>
+          <t>02/09/2023 09:51</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persib-bandung/vTdwxS9I/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persik-kediri/d47Yx8fC/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,14 +9045,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Persib Bandung</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>2.42</v>
+        <v>1.96</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.2</v>
+        <v>1.96</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>02/09/2023 09:51</t>
+          <t>02/09/2023 09:57</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.25</v>
+        <v>3.33</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.16</v>
+        <v>3.19</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>02/09/2023 09:51</t>
+          <t>02/09/2023 09:57</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.7</v>
+        <v>3.44</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>3.5</v>
+        <v>4.27</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>02/09/2023 09:51</t>
+          <t>02/09/2023 09:57</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persik-kediri/d47Yx8fC/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persib-bandung/vTdwxS9I/</t>
         </is>
       </c>
     </row>
@@ -12506,6 +12506,98 @@
       <c r="V131" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/indonesia/liga-1/persebaya-persib-bandung/Ktc3Ut7G/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45206.58333333334</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Persija Jakarta</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Barito Putera</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:57</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:57</t>
+        </is>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-ps-barito-putera/d6KWCEyq/</t>
         </is>
       </c>
     </row>

--- a/2023/indonesia_liga-1_2023-2024.xlsx
+++ b/2023/indonesia_liga-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V132"/>
+  <dimension ref="A1:V133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12601,6 +12601,98 @@
         </is>
       </c>
     </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45207.41666666666</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>PSM Makassar</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Madura United</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>2</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>06/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>08/10/2023 09:55</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>06/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>08/10/2023 09:58</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>06/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>08/10/2023 09:55</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/psm-makassar-madura-united/4WNvBh6e/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/indonesia_liga-1_2023-2024.xlsx
+++ b/2023/indonesia_liga-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V133"/>
+  <dimension ref="A1:V135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.34</v>
+        <v>1.32</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4.55</v>
+        <v>1.75</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>09/07/2023 13:59</t>
+          <t>09/07/2023 13:54</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.3</v>
+        <v>5.37</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.38</v>
+        <v>3.97</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>09/07/2023 13:59</t>
+          <t>09/07/2023 13:54</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>1.99</v>
+        <v>6.1</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1.85</v>
+        <v>4.29</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>09/07/2023 13:59</t>
+          <t>09/07/2023 13:54</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persija-jakarta/SWyo6i68/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-rans-nusantara/6Nzk5BLE/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1.32</v>
+        <v>3.34</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.75</v>
+        <v>4.55</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>09/07/2023 13:54</t>
+          <t>09/07/2023 13:59</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>5.37</v>
+        <v>3.3</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.97</v>
+        <v>3.38</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>09/07/2023 13:54</t>
+          <t>09/07/2023 13:59</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>6.1</v>
+        <v>1.99</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>4.29</v>
+        <v>1.85</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>09/07/2023 13:54</t>
+          <t>09/07/2023 13:59</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-rans-nusantara/6Nzk5BLE/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persija-jakarta/SWyo6i68/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>PSM Makassar</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.73</v>
+        <v>1.56</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3.53</v>
+        <v>1.86</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>14/07/2023 09:53</t>
+          <t>14/07/2023 09:58</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.49</v>
+        <v>4.07</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.33</v>
+        <v>3.27</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>14/07/2023 09:53</t>
+          <t>14/07/2023 09:57</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>1.86</v>
+        <v>4.9</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.11</v>
+        <v>3.05</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>14/07/2023 09:53</t>
+          <t>14/07/2023 09:58</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-psm-makassar/QPjj3kjR/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-pss-sleman/nZin4VzL/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>PSM Makassar</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1.56</v>
+        <v>3.73</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,48 +2252,48 @@
         </is>
       </c>
       <c r="L20" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>14/07/2023 09:53</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>12/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>14/07/2023 09:53</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
         <v>1.86</v>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>14/07/2023 09:58</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="O20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>12/07/2023 22:12</t>
         </is>
       </c>
-      <c r="P20" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>14/07/2023 09:57</t>
-        </is>
-      </c>
-      <c r="R20" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>12/07/2023 22:12</t>
-        </is>
-      </c>
       <c r="T20" t="n">
-        <v>3.05</v>
+        <v>2.11</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>14/07/2023 09:58</t>
+          <t>14/07/2023 09:53</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-pss-sleman/nZin4VzL/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-psm-makassar/QPjj3kjR/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>PSM Makassar</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>Persib Bandung</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>1.58</v>
+        <v>1.95</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.49</v>
+        <v>2.25</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>22/07/2023 13:54</t>
+          <t>22/07/2023 13:42</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.88</v>
+        <v>3.42</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>4.41</v>
+        <v>3.34</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>22/07/2023 13:56</t>
+          <t>22/07/2023 13:36</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>4.61</v>
+        <v>3.36</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>6.3</v>
+        <v>3.18</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>22/07/2023 13:54</t>
+          <t>22/07/2023 13:42</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-persikabo-1973/hzc0Bnrl/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/psm-makassar-persib-bandung/viaC8pS6/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>PSM Makassar</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Persib Bandung</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>1.95</v>
+        <v>1.58</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.25</v>
+        <v>1.49</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>22/07/2023 13:42</t>
+          <t>22/07/2023 13:54</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.42</v>
+        <v>3.88</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.34</v>
+        <v>4.41</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>22/07/2023 13:36</t>
+          <t>22/07/2023 13:56</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.36</v>
+        <v>4.61</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.18</v>
+        <v>6.3</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>22/07/2023 13:42</t>
+          <t>22/07/2023 13:54</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/psm-makassar-persib-bandung/viaC8pS6/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-persikabo-1973/hzc0Bnrl/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.32</v>
+        <v>1.65</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.79</v>
+        <v>1.61</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.26</v>
+        <v>3.8</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.5</v>
+        <v>4.15</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>30/07/2023 09:58</t>
+          <t>30/07/2023 09:55</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.75</v>
+        <v>4.48</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.42</v>
+        <v>5.06</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>30/07/2023 09:55</t>
+          <t>30/07/2023 09:51</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-pss-sleman/pCUpNqs0/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-arema-fc/tvOgLNBC/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.65</v>
+        <v>2.32</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.61</v>
+        <v>2.79</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.8</v>
+        <v>3.26</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,32 +4384,32 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>4.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
+          <t>30/07/2023 09:58</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>28/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
           <t>30/07/2023 09:55</t>
         </is>
       </c>
-      <c r="R43" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>28/07/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T43" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>30/07/2023 09:51</t>
-        </is>
-      </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-arema-fc/tvOgLNBC/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-pss-sleman/pCUpNqs0/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Persebaya</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>1.62</v>
+        <v>2.12</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.67</v>
+        <v>2.34</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>30/07/2023 13:52</t>
+          <t>30/07/2023 13:51</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.93</v>
+        <v>3.31</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.9</v>
+        <v>3.44</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>30/07/2023 13:52</t>
+          <t>30/07/2023 13:51</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.54</v>
+        <v>3.13</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.97</v>
+        <v>2.94</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>30/07/2023 13:52</t>
+          <t>30/07/2023 13:51</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persebaya/2mPkM3d6/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-madura-united/z1NcKsRI/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Persebaya</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.12</v>
+        <v>1.62</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.34</v>
+        <v>1.67</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>30/07/2023 13:51</t>
+          <t>30/07/2023 13:52</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.31</v>
+        <v>3.93</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.44</v>
+        <v>3.9</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>30/07/2023 13:51</t>
+          <t>30/07/2023 13:52</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.13</v>
+        <v>4.54</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.94</v>
+        <v>4.97</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>30/07/2023 13:51</t>
+          <t>30/07/2023 13:52</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-madura-united/z1NcKsRI/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persebaya/2mPkM3d6/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Persib Bandung</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>2.17</v>
+        <v>1.77</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.12</v>
+        <v>1.6</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>13/08/2023 09:56</t>
+          <t>13/08/2023 09:58</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.32</v>
+        <v>3.99</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.46</v>
+        <v>4.39</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>13/08/2023 09:56</t>
+          <t>13/08/2023 09:58</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>3.03</v>
+        <v>3.63</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>3.37</v>
+        <v>4.94</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>13/08/2023 09:56</t>
+          <t>13/08/2023 09:58</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-fc-bhayangkara/zZYSZsr3/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-ps-barito-putera/UeYWY1c9/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Persib Bandung</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>1.77</v>
+        <v>2.17</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.6</v>
+        <v>2.12</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>13/08/2023 09:58</t>
+          <t>13/08/2023 09:56</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.99</v>
+        <v>3.32</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4.39</v>
+        <v>3.46</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>13/08/2023 09:58</t>
+          <t>13/08/2023 09:56</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.63</v>
+        <v>3.03</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.94</v>
+        <v>3.37</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>13/08/2023 09:58</t>
+          <t>13/08/2023 09:56</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-ps-barito-putera/UeYWY1c9/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-fc-bhayangkara/zZYSZsr3/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>2.79</v>
+        <v>2.38</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,11 +7404,11 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.94</v>
+        <v>2.33</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>19/08/2023 09:55</t>
+          <t>19/08/2023 09:51</t>
         </is>
       </c>
       <c r="N76" t="n">
@@ -7420,7 +7420,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.38</v>
+        <v>3.29</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.32</v>
+        <v>2.71</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>2.37</v>
+        <v>3.08</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-madura-united/zcDBRJkq/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-dewa-united/AF5OOHZ1/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J77" t="n">
-        <v>2.38</v>
+        <v>2.79</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,11 +7496,11 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.33</v>
+        <v>2.94</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>19/08/2023 09:51</t>
+          <t>19/08/2023 09:55</t>
         </is>
       </c>
       <c r="N77" t="n">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.29</v>
+        <v>3.38</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.71</v>
+        <v>2.32</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.08</v>
+        <v>2.37</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-dewa-united/AF5OOHZ1/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-madura-united/zcDBRJkq/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.62</v>
+        <v>2.11</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.97</v>
+        <v>1.7</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>19/08/2023 13:58</t>
+          <t>19/08/2023 13:59</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.33</v>
+        <v>3.34</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>19/08/2023 13:56</t>
+          <t>19/08/2023 13:59</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.38</v>
+        <v>3.14</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.32</v>
+        <v>4.91</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>19/08/2023 13:58</t>
+          <t>19/08/2023 13:59</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-bali-united/bynJpadL/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-persik-kediri/KpmFousF/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>2.11</v>
+        <v>2.62</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.7</v>
+        <v>2.97</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>19/08/2023 13:59</t>
+          <t>19/08/2023 13:58</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.34</v>
+        <v>3.33</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>19/08/2023 13:59</t>
+          <t>19/08/2023 13:56</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.14</v>
+        <v>2.38</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>4.91</v>
+        <v>2.32</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>19/08/2023 13:59</t>
+          <t>19/08/2023 13:58</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-persik-kediri/KpmFousF/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-bali-united/bynJpadL/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>3.11</v>
+        <v>1.85</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.6</v>
+        <v>1.64</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.17</v>
+        <v>3.73</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.11</v>
+        <v>3.9</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.15</v>
+        <v>3.51</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.84</v>
+        <v>5.27</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persija-jakarta/IuV1xy41/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persita/l6QcwHle/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1.85</v>
+        <v>3.11</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.64</v>
+        <v>2.6</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.73</v>
+        <v>3.17</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.9</v>
+        <v>3.11</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.51</v>
+        <v>2.15</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>5.27</v>
+        <v>2.84</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persita/l6QcwHle/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persija-jakarta/IuV1xy41/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>PSM Makassar</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>3.26</v>
+        <v>1.79</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.98</v>
+        <v>1.81</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>03/09/2023 13:52</t>
+          <t>03/09/2023 13:59</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.14</v>
+        <v>3.65</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.13</v>
+        <v>3.73</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>03/09/2023 13:52</t>
+          <t>03/09/2023 13:59</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>2.14</v>
+        <v>3.83</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>2.48</v>
+        <v>4.19</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>03/09/2023 13:52</t>
+          <t>03/09/2023 13:53</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-psm-makassar/6ZlPaV1P/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-persis-solo/8ryiekAt/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>PSM Makassar</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>1.79</v>
+        <v>3.26</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.81</v>
+        <v>2.98</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>03/09/2023 13:59</t>
+          <t>03/09/2023 13:52</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.65</v>
+        <v>3.14</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.73</v>
+        <v>3.13</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>03/09/2023 13:59</t>
+          <t>03/09/2023 13:52</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>3.83</v>
+        <v>2.14</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>4.19</v>
+        <v>2.48</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>03/09/2023 13:53</t>
+          <t>03/09/2023 13:52</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-persis-solo/8ryiekAt/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-psm-makassar/6ZlPaV1P/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="I101" t="n">
         <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>1.95</v>
+        <v>1.56</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>15/09/2023 13:59</t>
+          <t>15/09/2023 13:58</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.36</v>
+        <v>4.45</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.62</v>
+        <v>3.65</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>15/09/2023 13:59</t>
+          <t>15/09/2023 13:58</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>3.41</v>
+        <v>4.38</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>4.68</v>
+        <v>4.71</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-fc-bhayangkara/d4T3hmfa/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-rans-nusantara/zeS7i795/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="I102" t="n">
         <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>1.56</v>
+        <v>1.95</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,48 +9796,48 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
+          <t>15/09/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>14/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>15/09/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>14/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
           <t>15/09/2023 13:58</t>
         </is>
       </c>
-      <c r="N102" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>14/09/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P102" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q102" t="inlineStr">
-        <is>
-          <t>15/09/2023 13:58</t>
-        </is>
-      </c>
-      <c r="R102" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>14/09/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T102" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="U102" t="inlineStr">
-        <is>
-          <t>15/09/2023 13:58</t>
-        </is>
-      </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-rans-nusantara/zeS7i795/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-fc-bhayangkara/d4T3hmfa/</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -10241,14 +10241,14 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J107" t="n">
-        <v>1.56</v>
+        <v>2.82</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.5</v>
+        <v>3.07</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>17/09/2023 13:53</t>
+          <t>17/09/2023 13:52</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>4.05</v>
+        <v>3.09</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>4.47</v>
+        <v>2.94</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>17/09/2023 13:53</t>
+          <t>17/09/2023 13:52</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>4.92</v>
+        <v>2.37</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>6.08</v>
+        <v>2.55</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>17/09/2023 13:53</t>
+          <t>17/09/2023 13:52</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-pss-sleman/4AjV88vt/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-persija-jakarta/r1kZ7Sgn/</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -10333,14 +10333,14 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>2.82</v>
+        <v>1.56</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>3.07</v>
+        <v>1.5</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>17/09/2023 13:52</t>
+          <t>17/09/2023 13:53</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.09</v>
+        <v>4.05</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>2.94</v>
+        <v>4.47</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>17/09/2023 13:52</t>
+          <t>17/09/2023 13:53</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>2.37</v>
+        <v>4.92</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>2.55</v>
+        <v>6.08</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>17/09/2023 13:52</t>
+          <t>17/09/2023 13:53</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-persija-jakarta/r1kZ7Sgn/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-pss-sleman/4AjV88vt/</t>
         </is>
       </c>
     </row>
@@ -12690,6 +12690,190 @@
       <c r="V133" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/indonesia/liga-1/psm-makassar-madura-united/4WNvBh6e/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45207.58333333334</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>FC Bhayangkara</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>1</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Bali United</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>2</v>
+      </c>
+      <c r="J134" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>07/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:51</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>07/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:26</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>07/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T134" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:51</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-bali-united/neDqACL1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45207.58333333334</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Persita</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>2</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Persik Kediri</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>2</v>
+      </c>
+      <c r="J135" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>07/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:53</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>07/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:53</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>07/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:53</t>
+        </is>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-persik-kediri/QuPzCYjk/</t>
         </is>
       </c>
     </row>

--- a/2023/indonesia_liga-1_2023-2024.xlsx
+++ b/2023/indonesia_liga-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V135"/>
+  <dimension ref="A1:V137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Persebaya</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1.51</v>
+        <v>2.28</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.61</v>
+        <v>2.23</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>4.07</v>
+        <v>3.27</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>4.32</v>
+        <v>3.53</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>04/08/2023 09:45</t>
+          <t>04/08/2023 09:57</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>5.42</v>
+        <v>2.81</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.92</v>
+        <v>3.07</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persebaya-persikabo-1973/d8JF9oUc/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persis-solo/IN7O7PbA/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Persebaya</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>2.28</v>
+        <v>1.51</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.23</v>
+        <v>1.61</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.27</v>
+        <v>4.07</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,32 +5028,32 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.53</v>
+        <v>4.32</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
+          <t>04/08/2023 09:45</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>02/08/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
           <t>04/08/2023 09:57</t>
         </is>
       </c>
-      <c r="R50" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>02/08/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T50" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>04/08/2023 09:57</t>
-        </is>
-      </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persis-solo/IN7O7PbA/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persebaya-persikabo-1973/d8JF9oUc/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,11 +12081,11 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
         <v>2.54</v>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>3.74</v>
+        <v>3.07</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>06/10/2023 09:56</t>
+          <t>06/10/2023 09:52</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.24</v>
+        <v>3.19</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.73</v>
+        <v>3.19</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>06/10/2023 09:58</t>
+          <t>06/10/2023 09:52</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>1.92</v>
+        <v>2.39</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>06/10/2023 09:56</t>
+          <t>06/10/2023 09:52</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persis-solo/OE3fW2x4/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-psis-semarang/j15nYO7i/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,11 +12173,11 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J128" t="n">
         <v>2.54</v>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>3.07</v>
+        <v>3.74</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>06/10/2023 09:52</t>
+          <t>06/10/2023 09:56</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.19</v>
+        <v>3.24</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.19</v>
+        <v>3.73</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>06/10/2023 09:52</t>
+          <t>06/10/2023 09:58</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>2.39</v>
+        <v>1.92</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>06/10/2023 09:52</t>
+          <t>06/10/2023 09:56</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-psis-semarang/j15nYO7i/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persis-solo/OE3fW2x4/</t>
         </is>
       </c>
     </row>
@@ -12874,6 +12874,190 @@
       <c r="V135" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-persik-kediri/QuPzCYjk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45219.41666666666</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Bali United</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>3</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Persebaya</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>18/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>20/10/2023 09:57</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>18/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>20/10/2023 09:57</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>18/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>20/10/2023 09:57</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-persebaya/jP3ZWZSE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45219.41666666666</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Persikabo 1973</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>2</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>PSIS Semarang</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>3</v>
+      </c>
+      <c r="J137" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>18/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>20/10/2023 09:49</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>18/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>20/10/2023 09:49</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>18/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>20/10/2023 09:49</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-psis-semarang/CY4VXFD8/</t>
         </is>
       </c>
     </row>

--- a/2023/indonesia_liga-1_2023-2024.xlsx
+++ b/2023/indonesia_liga-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V137"/>
+  <dimension ref="A1:V138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.32</v>
+        <v>3.34</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.75</v>
+        <v>4.55</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>09/07/2023 13:54</t>
+          <t>09/07/2023 13:59</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>5.37</v>
+        <v>3.3</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.97</v>
+        <v>3.38</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>09/07/2023 13:54</t>
+          <t>09/07/2023 13:59</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>6.1</v>
+        <v>1.99</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>4.29</v>
+        <v>1.85</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>09/07/2023 13:54</t>
+          <t>09/07/2023 13:59</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-rans-nusantara/6Nzk5BLE/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persija-jakarta/SWyo6i68/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.34</v>
+        <v>1.32</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4.55</v>
+        <v>1.75</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>09/07/2023 13:59</t>
+          <t>09/07/2023 13:54</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.3</v>
+        <v>5.37</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.38</v>
+        <v>3.97</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>09/07/2023 13:59</t>
+          <t>09/07/2023 13:54</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>1.99</v>
+        <v>6.1</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>1.85</v>
+        <v>4.29</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>09/07/2023 13:59</t>
+          <t>09/07/2023 13:54</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persija-jakarta/SWyo6i68/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-rans-nusantara/6Nzk5BLE/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>PSM Makassar</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.56</v>
+        <v>3.73</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,48 +2160,48 @@
         </is>
       </c>
       <c r="L19" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>14/07/2023 09:53</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>12/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>14/07/2023 09:53</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
         <v>1.86</v>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>14/07/2023 09:58</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="O19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>12/07/2023 22:12</t>
         </is>
       </c>
-      <c r="P19" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>14/07/2023 09:57</t>
-        </is>
-      </c>
-      <c r="R19" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>12/07/2023 22:12</t>
-        </is>
-      </c>
       <c r="T19" t="n">
-        <v>3.05</v>
+        <v>2.11</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>14/07/2023 09:58</t>
+          <t>14/07/2023 09:53</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-pss-sleman/nZin4VzL/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-psm-makassar/QPjj3kjR/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>PSM Makassar</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.73</v>
+        <v>1.56</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3.53</v>
+        <v>1.86</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>14/07/2023 09:53</t>
+          <t>14/07/2023 09:58</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.49</v>
+        <v>4.07</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.33</v>
+        <v>3.27</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>14/07/2023 09:53</t>
+          <t>14/07/2023 09:57</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>1.86</v>
+        <v>4.9</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.11</v>
+        <v>3.05</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>14/07/2023 09:53</t>
+          <t>14/07/2023 09:58</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-psm-makassar/QPjj3kjR/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-pss-sleman/nZin4VzL/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>PSM Makassar</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Persib Bandung</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>1.95</v>
+        <v>1.58</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.25</v>
+        <v>1.49</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>22/07/2023 13:42</t>
+          <t>22/07/2023 13:54</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.42</v>
+        <v>3.88</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.34</v>
+        <v>4.41</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>22/07/2023 13:36</t>
+          <t>22/07/2023 13:56</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>3.36</v>
+        <v>4.61</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.18</v>
+        <v>6.3</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>22/07/2023 13:42</t>
+          <t>22/07/2023 13:54</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/psm-makassar-persib-bandung/viaC8pS6/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-persikabo-1973/hzc0Bnrl/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>PSM Makassar</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>Persib Bandung</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>1.58</v>
+        <v>1.95</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.49</v>
+        <v>2.25</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>22/07/2023 13:54</t>
+          <t>22/07/2023 13:42</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.88</v>
+        <v>3.42</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>4.41</v>
+        <v>3.34</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>22/07/2023 13:56</t>
+          <t>22/07/2023 13:36</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>4.61</v>
+        <v>3.36</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>6.3</v>
+        <v>3.18</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>22/07/2023 13:54</t>
+          <t>22/07/2023 13:42</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-persikabo-1973/hzc0Bnrl/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/psm-makassar-persib-bandung/viaC8pS6/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.65</v>
+        <v>2.32</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.61</v>
+        <v>2.79</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.8</v>
+        <v>3.26</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,32 +4292,32 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>4.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
+          <t>30/07/2023 09:58</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>28/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
           <t>30/07/2023 09:55</t>
         </is>
       </c>
-      <c r="R42" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>28/07/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T42" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>30/07/2023 09:51</t>
-        </is>
-      </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-arema-fc/tvOgLNBC/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-pss-sleman/pCUpNqs0/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.32</v>
+        <v>1.65</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.79</v>
+        <v>1.61</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.26</v>
+        <v>3.8</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.5</v>
+        <v>4.15</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>30/07/2023 09:58</t>
+          <t>30/07/2023 09:55</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.75</v>
+        <v>4.48</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.42</v>
+        <v>5.06</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>30/07/2023 09:55</t>
+          <t>30/07/2023 09:51</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-pss-sleman/pCUpNqs0/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-arema-fc/tvOgLNBC/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Persebaya</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.12</v>
+        <v>1.62</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.34</v>
+        <v>1.67</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>30/07/2023 13:51</t>
+          <t>30/07/2023 13:52</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.31</v>
+        <v>3.93</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.44</v>
+        <v>3.9</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>30/07/2023 13:51</t>
+          <t>30/07/2023 13:52</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.13</v>
+        <v>4.54</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.94</v>
+        <v>4.97</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>30/07/2023 13:51</t>
+          <t>30/07/2023 13:52</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-madura-united/z1NcKsRI/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persebaya/2mPkM3d6/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Persebaya</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>1.62</v>
+        <v>2.12</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.67</v>
+        <v>2.34</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>30/07/2023 13:52</t>
+          <t>30/07/2023 13:51</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.93</v>
+        <v>3.31</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.9</v>
+        <v>3.44</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>30/07/2023 13:52</t>
+          <t>30/07/2023 13:51</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>4.54</v>
+        <v>3.13</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>4.97</v>
+        <v>2.94</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>30/07/2023 13:52</t>
+          <t>30/07/2023 13:51</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persebaya/2mPkM3d6/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-madura-united/z1NcKsRI/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Persebaya</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>2.28</v>
+        <v>1.51</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.23</v>
+        <v>1.61</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.27</v>
+        <v>4.07</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,32 +4936,32 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.53</v>
+        <v>4.32</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
+          <t>04/08/2023 09:45</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>02/08/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
           <t>04/08/2023 09:57</t>
         </is>
       </c>
-      <c r="R49" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>02/08/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T49" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>04/08/2023 09:57</t>
-        </is>
-      </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persis-solo/IN7O7PbA/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persebaya-persikabo-1973/d8JF9oUc/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Persebaya</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1.51</v>
+        <v>2.28</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.61</v>
+        <v>2.23</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>4.07</v>
+        <v>3.27</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>4.32</v>
+        <v>3.53</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>04/08/2023 09:45</t>
+          <t>04/08/2023 09:57</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>5.42</v>
+        <v>2.81</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.92</v>
+        <v>3.07</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persebaya-persikabo-1973/d8JF9oUc/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persis-solo/IN7O7PbA/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>3.91</v>
+        <v>1.39</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3.19</v>
+        <v>1.52</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>04/08/2023 13:55</t>
+          <t>04/08/2023 13:56</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.52</v>
+        <v>4.98</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>2.99</v>
+        <v>4.68</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>04/08/2023 13:50</t>
+          <t>04/08/2023 13:56</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>1.81</v>
+        <v>5.82</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.44</v>
+        <v>5.33</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>04/08/2023 13:55</t>
+          <t>04/08/2023 13:56</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-persija-jakarta/zaIJ85q4/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-rans-nusantara/WQBS6qEG/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,14 +5181,14 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>1.39</v>
+        <v>3.91</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.52</v>
+        <v>3.19</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>04/08/2023 13:56</t>
+          <t>04/08/2023 13:55</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>4.98</v>
+        <v>3.52</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>4.68</v>
+        <v>2.99</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>04/08/2023 13:56</t>
+          <t>04/08/2023 13:50</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>5.82</v>
+        <v>1.81</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>5.33</v>
+        <v>2.44</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>04/08/2023 13:56</t>
+          <t>04/08/2023 13:55</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-rans-nusantara/WQBS6qEG/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-persija-jakarta/zaIJ85q4/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Persib Bandung</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>1.77</v>
+        <v>2.17</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.6</v>
+        <v>2.12</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>13/08/2023 09:58</t>
+          <t>13/08/2023 09:56</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.99</v>
+        <v>3.32</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>4.39</v>
+        <v>3.46</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>13/08/2023 09:58</t>
+          <t>13/08/2023 09:56</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>3.63</v>
+        <v>3.03</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>4.94</v>
+        <v>3.37</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>13/08/2023 09:58</t>
+          <t>13/08/2023 09:56</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-ps-barito-putera/UeYWY1c9/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-fc-bhayangkara/zZYSZsr3/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Persib Bandung</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>2.17</v>
+        <v>1.77</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.12</v>
+        <v>1.6</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>13/08/2023 09:56</t>
+          <t>13/08/2023 09:58</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.32</v>
+        <v>3.99</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.46</v>
+        <v>4.39</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>13/08/2023 09:56</t>
+          <t>13/08/2023 09:58</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.03</v>
+        <v>3.63</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>3.37</v>
+        <v>4.94</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>13/08/2023 09:56</t>
+          <t>13/08/2023 09:58</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-fc-bhayangkara/zZYSZsr3/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-ps-barito-putera/UeYWY1c9/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J76" t="n">
-        <v>2.38</v>
+        <v>2.79</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,11 +7404,11 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.33</v>
+        <v>2.94</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>19/08/2023 09:51</t>
+          <t>19/08/2023 09:55</t>
         </is>
       </c>
       <c r="N76" t="n">
@@ -7420,7 +7420,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.29</v>
+        <v>3.38</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.71</v>
+        <v>2.32</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.08</v>
+        <v>2.37</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-dewa-united/AF5OOHZ1/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-madura-united/zcDBRJkq/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.79</v>
+        <v>2.38</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,11 +7496,11 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.94</v>
+        <v>2.33</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>19/08/2023 09:55</t>
+          <t>19/08/2023 09:51</t>
         </is>
       </c>
       <c r="N77" t="n">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.38</v>
+        <v>3.29</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.32</v>
+        <v>2.71</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.37</v>
+        <v>3.08</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-madura-united/zcDBRJkq/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-dewa-united/AF5OOHZ1/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>2.11</v>
+        <v>2.62</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.7</v>
+        <v>2.97</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>19/08/2023 13:59</t>
+          <t>19/08/2023 13:58</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.34</v>
+        <v>3.33</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>19/08/2023 13:59</t>
+          <t>19/08/2023 13:56</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.14</v>
+        <v>2.38</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>4.91</v>
+        <v>2.32</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>19/08/2023 13:59</t>
+          <t>19/08/2023 13:58</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-persik-kediri/KpmFousF/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-bali-united/bynJpadL/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2.62</v>
+        <v>2.11</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.97</v>
+        <v>1.7</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>19/08/2023 13:58</t>
+          <t>19/08/2023 13:59</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.33</v>
+        <v>3.34</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>19/08/2023 13:56</t>
+          <t>19/08/2023 13:59</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.38</v>
+        <v>3.14</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.32</v>
+        <v>4.91</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>19/08/2023 13:58</t>
+          <t>19/08/2023 13:59</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-bali-united/bynJpadL/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-persik-kediri/KpmFousF/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1.85</v>
+        <v>3.11</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.64</v>
+        <v>2.6</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.73</v>
+        <v>3.17</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.9</v>
+        <v>3.11</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>3.51</v>
+        <v>2.15</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>5.27</v>
+        <v>2.84</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persita/l6QcwHle/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persija-jakarta/IuV1xy41/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>3.11</v>
+        <v>1.85</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.6</v>
+        <v>1.64</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.17</v>
+        <v>3.73</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.11</v>
+        <v>3.9</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.15</v>
+        <v>3.51</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.84</v>
+        <v>5.27</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persija-jakarta/IuV1xy41/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persita/l6QcwHle/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>PSM Makassar</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>1.79</v>
+        <v>3.26</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1.81</v>
+        <v>2.98</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>03/09/2023 13:59</t>
+          <t>03/09/2023 13:52</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.65</v>
+        <v>3.14</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.73</v>
+        <v>3.13</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>03/09/2023 13:59</t>
+          <t>03/09/2023 13:52</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.83</v>
+        <v>2.14</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>4.19</v>
+        <v>2.48</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>03/09/2023 13:53</t>
+          <t>03/09/2023 13:52</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-persis-solo/8ryiekAt/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-psm-makassar/6ZlPaV1P/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>PSM Makassar</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>3.26</v>
+        <v>1.79</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.98</v>
+        <v>1.81</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>03/09/2023 13:52</t>
+          <t>03/09/2023 13:59</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.14</v>
+        <v>3.65</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.13</v>
+        <v>3.73</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>03/09/2023 13:52</t>
+          <t>03/09/2023 13:59</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>2.14</v>
+        <v>3.83</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>2.48</v>
+        <v>4.19</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>03/09/2023 13:52</t>
+          <t>03/09/2023 13:53</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-psm-makassar/6ZlPaV1P/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-persis-solo/8ryiekAt/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="I101" t="n">
         <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>1.56</v>
+        <v>1.95</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,48 +9704,48 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
+          <t>15/09/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>14/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>15/09/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>14/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
           <t>15/09/2023 13:58</t>
         </is>
       </c>
-      <c r="N101" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>14/09/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P101" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q101" t="inlineStr">
-        <is>
-          <t>15/09/2023 13:58</t>
-        </is>
-      </c>
-      <c r="R101" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t>14/09/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T101" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="U101" t="inlineStr">
-        <is>
-          <t>15/09/2023 13:58</t>
-        </is>
-      </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-rans-nusantara/zeS7i795/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-fc-bhayangkara/d4T3hmfa/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="I102" t="n">
         <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>1.95</v>
+        <v>1.56</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>15/09/2023 13:59</t>
+          <t>15/09/2023 13:58</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.36</v>
+        <v>4.45</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.62</v>
+        <v>3.65</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>15/09/2023 13:59</t>
+          <t>15/09/2023 13:58</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>3.41</v>
+        <v>4.38</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,7 +9828,7 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>4.68</v>
+        <v>4.71</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-fc-bhayangkara/d4T3hmfa/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-rans-nusantara/zeS7i795/</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -10241,14 +10241,14 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>2.82</v>
+        <v>1.56</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>3.07</v>
+        <v>1.5</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>17/09/2023 13:52</t>
+          <t>17/09/2023 13:53</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.09</v>
+        <v>4.05</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>2.94</v>
+        <v>4.47</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>17/09/2023 13:52</t>
+          <t>17/09/2023 13:53</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>2.37</v>
+        <v>4.92</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.55</v>
+        <v>6.08</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>17/09/2023 13:52</t>
+          <t>17/09/2023 13:53</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-persija-jakarta/r1kZ7Sgn/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-pss-sleman/4AjV88vt/</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -10333,14 +10333,14 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J108" t="n">
-        <v>1.56</v>
+        <v>2.82</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1.5</v>
+        <v>3.07</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>17/09/2023 13:53</t>
+          <t>17/09/2023 13:52</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>4.05</v>
+        <v>3.09</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>4.47</v>
+        <v>2.94</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>17/09/2023 13:53</t>
+          <t>17/09/2023 13:52</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>4.92</v>
+        <v>2.37</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>6.08</v>
+        <v>2.55</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>17/09/2023 13:53</t>
+          <t>17/09/2023 13:52</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-pss-sleman/4AjV88vt/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-persija-jakarta/r1kZ7Sgn/</t>
         </is>
       </c>
     </row>
@@ -12257,22 +12257,22 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I129" t="n">
         <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>3.87</v>
+        <v>1.74</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,15 +12280,15 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>3.69</v>
+        <v>1.56</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>06/10/2023 13:57</t>
+          <t>06/10/2023 13:43</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>3.45</v>
+        <v>3.56</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -12296,15 +12296,15 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>3.36</v>
+        <v>4.04</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>06/10/2023 13:57</t>
+          <t>06/10/2023 13:43</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>1.81</v>
+        <v>4.07</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -12312,16 +12312,16 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>2.04</v>
+        <v>5.98</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>06/10/2023 13:58</t>
+          <t>06/10/2023 13:43</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/arema-fc-borneo/Ui4jXrNc/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-pss-sleman/xI7bVMiA/</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12349,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="I130" t="n">
         <v>1</v>
       </c>
       <c r="J130" t="n">
-        <v>1.74</v>
+        <v>3.87</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,15 +12372,15 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>1.56</v>
+        <v>3.69</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>06/10/2023 13:43</t>
+          <t>06/10/2023 13:57</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.56</v>
+        <v>3.45</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>4.04</v>
+        <v>3.36</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>06/10/2023 13:43</t>
+          <t>06/10/2023 13:57</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>4.07</v>
+        <v>1.81</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>5.98</v>
+        <v>2.04</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>06/10/2023 13:43</t>
+          <t>06/10/2023 13:58</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-pss-sleman/xI7bVMiA/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/arema-fc-borneo/Ui4jXrNc/</t>
         </is>
       </c>
     </row>
@@ -13058,6 +13058,98 @@
       <c r="V137" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-psis-semarang/CY4VXFD8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45219.58333333334</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>PSM Makassar</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>3</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Arema FC</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>20/10/2023 13:30</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>20/10/2023 13:30</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T138" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>20/10/2023 13:30</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/psm-makassar-arema-fc/bVGm9Wz8/</t>
         </is>
       </c>
     </row>

--- a/2023/indonesia_liga-1_2023-2024.xlsx
+++ b/2023/indonesia_liga-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V138"/>
+  <dimension ref="A1:V141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>PSM Makassar</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.73</v>
+        <v>1.56</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3.53</v>
+        <v>1.86</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>14/07/2023 09:53</t>
+          <t>14/07/2023 09:58</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.49</v>
+        <v>4.07</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.33</v>
+        <v>3.27</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>14/07/2023 09:53</t>
+          <t>14/07/2023 09:57</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>1.86</v>
+        <v>4.9</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.11</v>
+        <v>3.05</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>14/07/2023 09:53</t>
+          <t>14/07/2023 09:58</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-psm-makassar/QPjj3kjR/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-pss-sleman/nZin4VzL/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>PSM Makassar</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1.56</v>
+        <v>3.73</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,48 +2252,48 @@
         </is>
       </c>
       <c r="L20" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>14/07/2023 09:53</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>12/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>14/07/2023 09:53</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
         <v>1.86</v>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>14/07/2023 09:58</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="O20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>12/07/2023 22:12</t>
         </is>
       </c>
-      <c r="P20" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>14/07/2023 09:57</t>
-        </is>
-      </c>
-      <c r="R20" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>12/07/2023 22:12</t>
-        </is>
-      </c>
       <c r="T20" t="n">
-        <v>3.05</v>
+        <v>2.11</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>14/07/2023 09:58</t>
+          <t>14/07/2023 09:53</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-pss-sleman/nZin4VzL/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-psm-makassar/QPjj3kjR/</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,14 +2973,14 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>2.97</v>
+        <v>1.6</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.09</v>
+        <v>1.58</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>21/07/2023 09:54</t>
+          <t>21/07/2023 09:58</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.28</v>
+        <v>4</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.44</v>
+        <v>4.19</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>21/07/2023 09:54</t>
+          <t>21/07/2023 09:59</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.22</v>
+        <v>4.64</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>3.47</v>
+        <v>5.33</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>21/07/2023 09:54</t>
+          <t>21/07/2023 09:59</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-psis-semarang/Qme89QC0/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-ps-barito-putera/vTGPHl5K/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>1.6</v>
+        <v>2.97</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.58</v>
+        <v>2.09</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>21/07/2023 09:58</t>
+          <t>21/07/2023 09:54</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>4</v>
+        <v>3.28</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4.19</v>
+        <v>3.44</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>21/07/2023 09:59</t>
+          <t>21/07/2023 09:54</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.64</v>
+        <v>2.22</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>5.33</v>
+        <v>3.47</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>21/07/2023 09:59</t>
+          <t>21/07/2023 09:54</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-ps-barito-putera/vTGPHl5K/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-psis-semarang/Qme89QC0/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>2.69</v>
+        <v>2.25</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.35</v>
+        <v>4.33</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.32</v>
+        <v>3.15</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.96</v>
+        <v>3.55</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.34</v>
+        <v>2.94</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2.63</v>
+        <v>1.83</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/psis-semarang-borneo/ENj2V7ZJ/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persita/hEk6URlQ/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>2.25</v>
+        <v>2.69</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>4.33</v>
+        <v>2.35</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.15</v>
+        <v>3.32</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.55</v>
+        <v>3.96</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.94</v>
+        <v>2.34</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>1.83</v>
+        <v>2.63</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persita/hEk6URlQ/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/psis-semarang-borneo/ENj2V7ZJ/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Persebaya</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>1.62</v>
+        <v>2.12</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.67</v>
+        <v>2.34</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>30/07/2023 13:52</t>
+          <t>30/07/2023 13:51</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.93</v>
+        <v>3.31</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.9</v>
+        <v>3.44</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>30/07/2023 13:52</t>
+          <t>30/07/2023 13:51</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.54</v>
+        <v>3.13</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.97</v>
+        <v>2.94</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>30/07/2023 13:52</t>
+          <t>30/07/2023 13:51</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persebaya/2mPkM3d6/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-madura-united/z1NcKsRI/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Persebaya</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.12</v>
+        <v>1.62</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.34</v>
+        <v>1.67</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>30/07/2023 13:51</t>
+          <t>30/07/2023 13:52</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.31</v>
+        <v>3.93</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.44</v>
+        <v>3.9</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>30/07/2023 13:51</t>
+          <t>30/07/2023 13:52</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.13</v>
+        <v>4.54</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.94</v>
+        <v>4.97</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>30/07/2023 13:51</t>
+          <t>30/07/2023 13:52</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-madura-united/z1NcKsRI/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persebaya/2mPkM3d6/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Persebaya</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1.51</v>
+        <v>2.28</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.61</v>
+        <v>2.23</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>4.07</v>
+        <v>3.27</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>4.32</v>
+        <v>3.53</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>04/08/2023 09:45</t>
+          <t>04/08/2023 09:57</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>5.42</v>
+        <v>2.81</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.92</v>
+        <v>3.07</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persebaya-persikabo-1973/d8JF9oUc/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persis-solo/IN7O7PbA/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Persebaya</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>2.28</v>
+        <v>1.51</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.23</v>
+        <v>1.61</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.27</v>
+        <v>4.07</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,32 +5028,32 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.53</v>
+        <v>4.32</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
+          <t>04/08/2023 09:45</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>02/08/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
           <t>04/08/2023 09:57</t>
         </is>
       </c>
-      <c r="R50" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>02/08/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T50" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>04/08/2023 09:57</t>
-        </is>
-      </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persis-solo/IN7O7PbA/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persebaya-persikabo-1973/d8JF9oUc/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>1.39</v>
+        <v>3.91</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.52</v>
+        <v>3.19</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>04/08/2023 13:56</t>
+          <t>04/08/2023 13:55</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>4.98</v>
+        <v>3.52</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>4.68</v>
+        <v>2.99</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>04/08/2023 13:56</t>
+          <t>04/08/2023 13:50</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>5.82</v>
+        <v>1.81</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>5.33</v>
+        <v>2.44</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>04/08/2023 13:56</t>
+          <t>04/08/2023 13:55</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-rans-nusantara/WQBS6qEG/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-persija-jakarta/zaIJ85q4/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,14 +5181,14 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>3.91</v>
+        <v>1.39</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3.19</v>
+        <v>1.52</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>04/08/2023 13:55</t>
+          <t>04/08/2023 13:56</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.52</v>
+        <v>4.98</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>2.99</v>
+        <v>4.68</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>04/08/2023 13:50</t>
+          <t>04/08/2023 13:56</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>1.81</v>
+        <v>5.82</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.44</v>
+        <v>5.33</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>04/08/2023 13:55</t>
+          <t>04/08/2023 13:56</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-persija-jakarta/zaIJ85q4/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-rans-nusantara/WQBS6qEG/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Persebaya</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J57" t="n">
-        <v>2.15</v>
+        <v>2.04</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>08/08/2023 09:59</t>
+          <t>08/08/2023 09:56</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.42</v>
+        <v>3.37</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.48</v>
+        <v>3.35</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>08/08/2023 09:51</t>
+          <t>08/08/2023 09:56</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3</v>
+        <v>3.29</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>2.99</v>
+        <v>3.13</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>08/08/2023 09:59</t>
+          <t>08/08/2023 09:56</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-persebaya/021sOpqi/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-pss-sleman/E55oN4bc/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Persebaya</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
         <v>2</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PSS Sleman</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>06/08/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>08/08/2023 09:59</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>06/08/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>08/08/2023 09:51</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
         <v>3</v>
       </c>
-      <c r="J58" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="K58" t="inlineStr">
+      <c r="S58" t="inlineStr">
         <is>
           <t>06/08/2023 22:12</t>
         </is>
       </c>
-      <c r="L58" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>08/08/2023 09:56</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>06/08/2023 22:12</t>
-        </is>
-      </c>
-      <c r="P58" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>08/08/2023 09:56</t>
-        </is>
-      </c>
-      <c r="R58" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>06/08/2023 22:12</t>
-        </is>
-      </c>
       <c r="T58" t="n">
-        <v>3.13</v>
+        <v>2.99</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>08/08/2023 09:56</t>
+          <t>08/08/2023 09:59</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-pss-sleman/E55oN4bc/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-persebaya/021sOpqi/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,14 +5917,14 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.49</v>
+        <v>3.71</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.55</v>
+        <v>3.44</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>09/08/2023 09:57</t>
+          <t>09/08/2023 09:59</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.16</v>
+        <v>4.45</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.36</v>
+        <v>4.07</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>09/08/2023 09:59</t>
+          <t>09/08/2023 09:58</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-dewa-united/zLgfLrT9/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/psis-semarang-arema-fc/4fbbK2rG/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,14 +6009,14 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.92</v>
+        <v>2.09</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.71</v>
+        <v>3.49</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,32 +6040,32 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.44</v>
+        <v>3.55</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
+          <t>09/08/2023 09:57</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>07/08/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
           <t>09/08/2023 09:59</t>
         </is>
       </c>
-      <c r="R61" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>07/08/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T61" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>09/08/2023 09:58</t>
-        </is>
-      </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/psis-semarang-arema-fc/4fbbK2rG/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-dewa-united/zLgfLrT9/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>2.35</v>
+        <v>2.01</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,39 +6116,39 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>3.19</v>
+        <v>1.94</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
+          <t>09/08/2023 13:50</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>08/08/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
           <t>09/08/2023 13:59</t>
         </is>
       </c>
-      <c r="N62" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="O62" t="inlineStr">
+      <c r="R62" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="S62" t="inlineStr">
         <is>
           <t>08/08/2023 02:12</t>
         </is>
       </c>
-      <c r="P62" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>09/08/2023 13:55</t>
-        </is>
-      </c>
-      <c r="R62" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>08/08/2023 02:12</t>
-        </is>
-      </c>
       <c r="T62" t="n">
-        <v>2.3</v>
+        <v>4.49</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-madura-united/Q9n7ItDS/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-borneo/roc2JMcM/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>2.01</v>
+        <v>2.35</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.94</v>
+        <v>3.19</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>09/08/2023 13:50</t>
+          <t>09/08/2023 13:59</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.52</v>
+        <v>3.53</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,32 +6224,32 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.12</v>
+        <v>3.24</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
+          <t>09/08/2023 13:55</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>08/08/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
           <t>09/08/2023 13:59</t>
         </is>
       </c>
-      <c r="R63" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>08/08/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T63" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>09/08/2023 13:59</t>
-        </is>
-      </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-borneo/roc2JMcM/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-madura-united/Q9n7ItDS/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>2.79</v>
+        <v>2.38</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,11 +7404,11 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.94</v>
+        <v>2.33</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>19/08/2023 09:55</t>
+          <t>19/08/2023 09:51</t>
         </is>
       </c>
       <c r="N76" t="n">
@@ -7420,7 +7420,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.38</v>
+        <v>3.29</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.32</v>
+        <v>2.71</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>2.37</v>
+        <v>3.08</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-madura-united/zcDBRJkq/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-dewa-united/AF5OOHZ1/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J77" t="n">
-        <v>2.38</v>
+        <v>2.79</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,11 +7496,11 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.33</v>
+        <v>2.94</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>19/08/2023 09:51</t>
+          <t>19/08/2023 09:55</t>
         </is>
       </c>
       <c r="N77" t="n">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.29</v>
+        <v>3.38</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.71</v>
+        <v>2.32</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.08</v>
+        <v>2.37</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-dewa-united/AF5OOHZ1/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-madura-united/zcDBRJkq/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.62</v>
+        <v>2.11</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.97</v>
+        <v>1.7</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>19/08/2023 13:58</t>
+          <t>19/08/2023 13:59</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.33</v>
+        <v>3.34</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>19/08/2023 13:56</t>
+          <t>19/08/2023 13:59</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.38</v>
+        <v>3.14</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.32</v>
+        <v>4.91</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>19/08/2023 13:58</t>
+          <t>19/08/2023 13:59</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-bali-united/bynJpadL/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-persik-kediri/KpmFousF/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>2.11</v>
+        <v>2.62</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.7</v>
+        <v>2.97</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>19/08/2023 13:59</t>
+          <t>19/08/2023 13:58</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.34</v>
+        <v>3.33</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>19/08/2023 13:59</t>
+          <t>19/08/2023 13:56</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.14</v>
+        <v>2.38</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>4.91</v>
+        <v>2.32</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>19/08/2023 13:59</t>
+          <t>19/08/2023 13:58</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-persik-kediri/KpmFousF/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-bali-united/bynJpadL/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Persib Bandung</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>2.42</v>
+        <v>1.96</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.2</v>
+        <v>1.96</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>02/09/2023 09:51</t>
+          <t>02/09/2023 09:57</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.25</v>
+        <v>3.33</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.16</v>
+        <v>3.19</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>02/09/2023 09:51</t>
+          <t>02/09/2023 09:57</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2.7</v>
+        <v>3.44</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>3.5</v>
+        <v>4.27</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>02/09/2023 09:51</t>
+          <t>02/09/2023 09:57</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persik-kediri/d47Yx8fC/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persib-bandung/vTdwxS9I/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,14 +9045,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Persib Bandung</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1.96</v>
+        <v>2.42</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.96</v>
+        <v>2.2</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>02/09/2023 09:57</t>
+          <t>02/09/2023 09:51</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.33</v>
+        <v>3.25</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.19</v>
+        <v>3.16</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>02/09/2023 09:57</t>
+          <t>02/09/2023 09:51</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>3.44</v>
+        <v>2.7</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>4.27</v>
+        <v>3.5</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>02/09/2023 09:57</t>
+          <t>02/09/2023 09:51</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persib-bandung/vTdwxS9I/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persik-kediri/d47Yx8fC/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="I101" t="n">
         <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>1.95</v>
+        <v>1.56</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>15/09/2023 13:59</t>
+          <t>15/09/2023 13:58</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.36</v>
+        <v>4.45</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.62</v>
+        <v>3.65</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>15/09/2023 13:59</t>
+          <t>15/09/2023 13:58</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>3.41</v>
+        <v>4.38</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>4.68</v>
+        <v>4.71</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-fc-bhayangkara/d4T3hmfa/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-rans-nusantara/zeS7i795/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="I102" t="n">
         <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>1.56</v>
+        <v>1.95</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,48 +9796,48 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
+          <t>15/09/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>14/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>15/09/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>14/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
           <t>15/09/2023 13:58</t>
         </is>
       </c>
-      <c r="N102" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>14/09/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P102" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q102" t="inlineStr">
-        <is>
-          <t>15/09/2023 13:58</t>
-        </is>
-      </c>
-      <c r="R102" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>14/09/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T102" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="U102" t="inlineStr">
-        <is>
-          <t>15/09/2023 13:58</t>
-        </is>
-      </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-rans-nusantara/zeS7i795/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-fc-bhayangkara/d4T3hmfa/</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -10241,14 +10241,14 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J107" t="n">
-        <v>1.56</v>
+        <v>2.82</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.5</v>
+        <v>3.07</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>17/09/2023 13:53</t>
+          <t>17/09/2023 13:52</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>4.05</v>
+        <v>3.09</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>4.47</v>
+        <v>2.94</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>17/09/2023 13:53</t>
+          <t>17/09/2023 13:52</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>4.92</v>
+        <v>2.37</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>6.08</v>
+        <v>2.55</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>17/09/2023 13:53</t>
+          <t>17/09/2023 13:52</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-pss-sleman/4AjV88vt/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-persija-jakarta/r1kZ7Sgn/</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -10333,14 +10333,14 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>2.82</v>
+        <v>1.56</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>3.07</v>
+        <v>1.5</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>17/09/2023 13:52</t>
+          <t>17/09/2023 13:53</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.09</v>
+        <v>4.05</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>2.94</v>
+        <v>4.47</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>17/09/2023 13:52</t>
+          <t>17/09/2023 13:53</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>2.37</v>
+        <v>4.92</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>2.55</v>
+        <v>6.08</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>17/09/2023 13:52</t>
+          <t>17/09/2023 13:53</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-persija-jakarta/r1kZ7Sgn/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-pss-sleman/4AjV88vt/</t>
         </is>
       </c>
     </row>
@@ -12257,22 +12257,22 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="I129" t="n">
         <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>1.74</v>
+        <v>3.87</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,15 +12280,15 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1.56</v>
+        <v>3.69</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>06/10/2023 13:43</t>
+          <t>06/10/2023 13:57</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>3.56</v>
+        <v>3.45</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -12296,15 +12296,15 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>4.04</v>
+        <v>3.36</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>06/10/2023 13:43</t>
+          <t>06/10/2023 13:57</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>4.07</v>
+        <v>1.81</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -12312,16 +12312,16 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>5.98</v>
+        <v>2.04</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>06/10/2023 13:43</t>
+          <t>06/10/2023 13:58</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-pss-sleman/xI7bVMiA/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/arema-fc-borneo/Ui4jXrNc/</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12349,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I130" t="n">
         <v>1</v>
       </c>
       <c r="J130" t="n">
-        <v>3.87</v>
+        <v>1.74</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,15 +12372,15 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>3.69</v>
+        <v>1.56</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>06/10/2023 13:57</t>
+          <t>06/10/2023 13:43</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.45</v>
+        <v>3.56</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.36</v>
+        <v>4.04</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>06/10/2023 13:57</t>
+          <t>06/10/2023 13:43</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>1.81</v>
+        <v>4.07</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>2.04</v>
+        <v>5.98</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>06/10/2023 13:58</t>
+          <t>06/10/2023 13:43</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/arema-fc-borneo/Ui4jXrNc/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-pss-sleman/xI7bVMiA/</t>
         </is>
       </c>
     </row>
@@ -13150,6 +13150,282 @@
       <c r="V138" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/indonesia/liga-1/psm-makassar-arema-fc/bVGm9Wz8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45220.41666666666</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>FC Bhayangkara</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Barito Putera</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>19/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>21/10/2023 09:59</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>19/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>21/10/2023 09:57</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>19/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T139" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>21/10/2023 09:59</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-ps-barito-putera/80bvWgrL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45220.41666666666</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>PSS Sleman</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>2</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Persik Kediri</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>2</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>19/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>21/10/2023 09:59</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>19/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P140" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>21/10/2023 09:59</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>19/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>21/10/2023 09:55</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-persik-kediri/nicrVDcR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45220.58333333334</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Borneo</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Persib Bandung</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:53</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:53</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T141" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:53</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persib-bandung/4WqAQX5r/</t>
         </is>
       </c>
     </row>

--- a/2023/indonesia_liga-1_2023-2024.xlsx
+++ b/2023/indonesia_liga-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V141"/>
+  <dimension ref="A1:V142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Persib Bandung</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,14 +4721,14 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>2.14</v>
+        <v>1.96</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.65</v>
+        <v>2.22</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>03/08/2023 13:51</t>
+          <t>03/08/2023 13:58</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.31</v>
+        <v>3.61</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>4.02</v>
+        <v>3.61</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>03/08/2023 13:51</t>
+          <t>03/08/2023 13:58</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.11</v>
+        <v>3.17</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>4.94</v>
+        <v>3.04</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>03/08/2023 13:51</t>
+          <t>03/08/2023 13:58</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-fc-bhayangkara/lrG7B7ao/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-bali-united/SYEBAREi/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Persib Bandung</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,14 +4813,14 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1.96</v>
+        <v>2.14</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.22</v>
+        <v>1.65</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>03/08/2023 13:58</t>
+          <t>03/08/2023 13:51</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.61</v>
+        <v>3.31</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.61</v>
+        <v>4.02</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>03/08/2023 13:58</t>
+          <t>03/08/2023 13:51</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.17</v>
+        <v>3.11</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.04</v>
+        <v>4.94</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>03/08/2023 13:58</t>
+          <t>03/08/2023 13:51</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-bali-united/SYEBAREi/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-fc-bhayangkara/lrG7B7ao/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,11 +12081,11 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J127" t="n">
         <v>2.54</v>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>3.07</v>
+        <v>3.74</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>06/10/2023 09:52</t>
+          <t>06/10/2023 09:56</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.19</v>
+        <v>3.24</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.19</v>
+        <v>3.73</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>06/10/2023 09:52</t>
+          <t>06/10/2023 09:58</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>2.39</v>
+        <v>1.92</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>06/10/2023 09:52</t>
+          <t>06/10/2023 09:56</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-psis-semarang/j15nYO7i/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persis-solo/OE3fW2x4/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,11 +12173,11 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
         <v>2.54</v>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>3.74</v>
+        <v>3.07</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>06/10/2023 09:56</t>
+          <t>06/10/2023 09:52</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.24</v>
+        <v>3.19</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.73</v>
+        <v>3.19</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>06/10/2023 09:58</t>
+          <t>06/10/2023 09:52</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>1.92</v>
+        <v>2.39</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>06/10/2023 09:56</t>
+          <t>06/10/2023 09:52</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persis-solo/OE3fW2x4/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-psis-semarang/j15nYO7i/</t>
         </is>
       </c>
     </row>
@@ -13177,22 +13177,22 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J139" t="n">
-        <v>2.53</v>
+        <v>2.52</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         </is>
       </c>
       <c r="L139" t="n">
-        <v>2.9</v>
+        <v>2.28</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.21</v>
+        <v>3.09</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
@@ -13216,15 +13216,15 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.22</v>
+        <v>3.29</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>21/10/2023 09:57</t>
+          <t>21/10/2023 09:59</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>2.53</v>
+        <v>2.63</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
@@ -13232,16 +13232,16 @@
         </is>
       </c>
       <c r="T139" t="n">
-        <v>2.49</v>
+        <v>3.17</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>21/10/2023 09:59</t>
+          <t>21/10/2023 09:55</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-ps-barito-putera/80bvWgrL/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-persik-kediri/nicrVDcR/</t>
         </is>
       </c>
     </row>
@@ -13269,22 +13269,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="I140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>2.52</v>
+        <v>2.53</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>2.28</v>
+        <v>2.9</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.09</v>
+        <v>3.21</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,32 +13308,32 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.29</v>
+        <v>3.22</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
+          <t>21/10/2023 09:57</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>19/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
           <t>21/10/2023 09:59</t>
         </is>
       </c>
-      <c r="R140" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="S140" t="inlineStr">
-        <is>
-          <t>19/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="T140" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="U140" t="inlineStr">
-        <is>
-          <t>21/10/2023 09:55</t>
-        </is>
-      </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-persik-kediri/nicrVDcR/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-ps-barito-putera/80bvWgrL/</t>
         </is>
       </c>
     </row>
@@ -13426,6 +13426,98 @@
       <c r="V141" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persib-bandung/4WqAQX5r/</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45221.41666666666</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Persita</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>2</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Persis Solo</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>20/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:57</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>20/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:57</t>
+        </is>
+      </c>
+      <c r="R142" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>20/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T142" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:57</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-persis-solo/IZmEPiLl/</t>
         </is>
       </c>
     </row>

--- a/2023/indonesia_liga-1_2023-2024.xlsx
+++ b/2023/indonesia_liga-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V142"/>
+  <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.52</v>
+        <v>1.71</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.85</v>
+        <v>2.08</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>15/07/2023 09:59</t>
+          <t>15/07/2023 09:52</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.33</v>
+        <v>3.61</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.45</v>
+        <v>3.29</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>15/07/2023 09:50</t>
+          <t>15/07/2023 09:52</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.54</v>
+        <v>4.32</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.4</v>
+        <v>3.66</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>15/07/2023 09:59</t>
+          <t>15/07/2023 09:52</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persita/nczZfRc7/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-arema-fc/vXWQdmTf/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.71</v>
+        <v>2.52</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.08</v>
+        <v>2.85</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>15/07/2023 09:52</t>
+          <t>15/07/2023 09:59</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.61</v>
+        <v>3.33</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.29</v>
+        <v>3.45</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>15/07/2023 09:52</t>
+          <t>15/07/2023 09:50</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>4.32</v>
+        <v>2.54</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.66</v>
+        <v>2.4</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>15/07/2023 09:52</t>
+          <t>15/07/2023 09:59</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-arema-fc/vXWQdmTf/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persita/nczZfRc7/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,14 +2605,14 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.81</v>
+        <v>1.86</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>1.96</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>15/07/2023 13:57</t>
+          <t>15/07/2023 13:58</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.38</v>
+        <v>3.69</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.49</v>
+        <v>3.61</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>15/07/2023 13:57</t>
+          <t>15/07/2023 13:58</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.27</v>
+        <v>3.52</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.29</v>
+        <v>3.7</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>15/07/2023 13:57</t>
+          <t>15/07/2023 13:58</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-borneo/d8sMcTDl/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-madura-united/INVUe7r1/</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2697,14 +2697,14 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1.86</v>
+        <v>2.81</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.96</v>
+        <v>3</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>15/07/2023 13:58</t>
+          <t>15/07/2023 13:57</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.69</v>
+        <v>3.38</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.61</v>
+        <v>3.49</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>15/07/2023 13:58</t>
+          <t>15/07/2023 13:57</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.52</v>
+        <v>2.27</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.7</v>
+        <v>2.29</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>15/07/2023 13:58</t>
+          <t>15/07/2023 13:57</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-madura-united/INVUe7r1/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-borneo/d8sMcTDl/</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,14 +2973,14 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>1.6</v>
+        <v>2.97</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.58</v>
+        <v>2.09</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>21/07/2023 09:58</t>
+          <t>21/07/2023 09:54</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>4</v>
+        <v>3.28</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>4.19</v>
+        <v>3.44</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>21/07/2023 09:59</t>
+          <t>21/07/2023 09:54</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>4.64</v>
+        <v>2.22</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>5.33</v>
+        <v>3.47</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>21/07/2023 09:59</t>
+          <t>21/07/2023 09:54</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-ps-barito-putera/vTGPHl5K/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-psis-semarang/Qme89QC0/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>2.97</v>
+        <v>1.6</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.09</v>
+        <v>1.58</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>21/07/2023 09:54</t>
+          <t>21/07/2023 09:58</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.28</v>
+        <v>4</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.44</v>
+        <v>4.19</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>21/07/2023 09:54</t>
+          <t>21/07/2023 09:59</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.22</v>
+        <v>4.64</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.47</v>
+        <v>5.33</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>21/07/2023 09:54</t>
+          <t>21/07/2023 09:59</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-psis-semarang/Qme89QC0/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-ps-barito-putera/vTGPHl5K/</t>
         </is>
       </c>
     </row>
@@ -3149,19 +3149,19 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Bali United</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>3</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Persik Kediri</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>2.7</v>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.53</v>
+        <v>4.79</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>21/07/2023 13:57</t>
+          <t>21/07/2023 13:59</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.13</v>
+        <v>3.28</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.69</v>
+        <v>3.86</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>21/07/2023 13:57</t>
+          <t>21/07/2023 13:58</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.55</v>
+        <v>1.69</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>21/07/2023 13:57</t>
+          <t>21/07/2023 13:54</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persik-kediri/YkGTG8KQ/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/arema-fc-bali-united/za2eCSSs/</t>
         </is>
       </c>
     </row>
@@ -3241,19 +3241,19 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>2.7</v>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4.79</v>
+        <v>2.53</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>21/07/2023 13:59</t>
+          <t>21/07/2023 13:57</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.28</v>
+        <v>3.13</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.86</v>
+        <v>3.69</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>21/07/2023 13:58</t>
+          <t>21/07/2023 13:57</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.35</v>
+        <v>2.44</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>1.69</v>
+        <v>2.55</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>21/07/2023 13:54</t>
+          <t>21/07/2023 13:57</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/arema-fc-bali-united/za2eCSSs/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persik-kediri/YkGTG8KQ/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>PSM Makassar</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>Persib Bandung</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>1.58</v>
+        <v>1.95</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.49</v>
+        <v>2.25</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>22/07/2023 13:54</t>
+          <t>22/07/2023 13:42</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.88</v>
+        <v>3.42</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>4.41</v>
+        <v>3.34</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>22/07/2023 13:56</t>
+          <t>22/07/2023 13:36</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>4.61</v>
+        <v>3.36</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>6.3</v>
+        <v>3.18</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>22/07/2023 13:54</t>
+          <t>22/07/2023 13:42</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-persikabo-1973/hzc0Bnrl/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/psm-makassar-persib-bandung/viaC8pS6/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>PSM Makassar</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Persib Bandung</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>1.95</v>
+        <v>1.58</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.25</v>
+        <v>1.49</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>22/07/2023 13:42</t>
+          <t>22/07/2023 13:54</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.42</v>
+        <v>3.88</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.34</v>
+        <v>4.41</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>22/07/2023 13:36</t>
+          <t>22/07/2023 13:56</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.36</v>
+        <v>4.61</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.18</v>
+        <v>6.3</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>22/07/2023 13:42</t>
+          <t>22/07/2023 13:54</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/psm-makassar-persib-bandung/viaC8pS6/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-persikabo-1973/hzc0Bnrl/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Persib Bandung</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,14 +4721,14 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1.96</v>
+        <v>2.14</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.22</v>
+        <v>1.65</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>03/08/2023 13:58</t>
+          <t>03/08/2023 13:51</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.61</v>
+        <v>3.31</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.61</v>
+        <v>4.02</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>03/08/2023 13:58</t>
+          <t>03/08/2023 13:51</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.17</v>
+        <v>3.11</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>3.04</v>
+        <v>4.94</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>03/08/2023 13:58</t>
+          <t>03/08/2023 13:51</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-bali-united/SYEBAREi/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-fc-bhayangkara/lrG7B7ao/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Persib Bandung</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,14 +4813,14 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>2.14</v>
+        <v>1.96</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.65</v>
+        <v>2.22</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>03/08/2023 13:51</t>
+          <t>03/08/2023 13:58</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.31</v>
+        <v>3.61</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.02</v>
+        <v>3.61</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>03/08/2023 13:51</t>
+          <t>03/08/2023 13:58</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.11</v>
+        <v>3.17</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>4.94</v>
+        <v>3.04</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>03/08/2023 13:51</t>
+          <t>03/08/2023 13:58</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-fc-bhayangkara/lrG7B7ao/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-bali-united/SYEBAREi/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Persebaya</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>2.28</v>
+        <v>1.51</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.23</v>
+        <v>1.61</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.27</v>
+        <v>4.07</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,32 +4936,32 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.53</v>
+        <v>4.32</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
+          <t>04/08/2023 09:45</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>02/08/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
           <t>04/08/2023 09:57</t>
         </is>
       </c>
-      <c r="R49" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>02/08/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T49" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>04/08/2023 09:57</t>
-        </is>
-      </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persis-solo/IN7O7PbA/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persebaya-persikabo-1973/d8JF9oUc/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Persebaya</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1.51</v>
+        <v>2.28</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.61</v>
+        <v>2.23</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>4.07</v>
+        <v>3.27</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>4.32</v>
+        <v>3.53</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>04/08/2023 09:45</t>
+          <t>04/08/2023 09:57</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>5.42</v>
+        <v>2.81</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.92</v>
+        <v>3.07</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persebaya-persikabo-1973/d8JF9oUc/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persis-solo/IN7O7PbA/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>3.91</v>
+        <v>1.39</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3.19</v>
+        <v>1.52</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>04/08/2023 13:55</t>
+          <t>04/08/2023 13:56</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.52</v>
+        <v>4.98</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>2.99</v>
+        <v>4.68</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>04/08/2023 13:50</t>
+          <t>04/08/2023 13:56</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>1.81</v>
+        <v>5.82</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.44</v>
+        <v>5.33</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>04/08/2023 13:55</t>
+          <t>04/08/2023 13:56</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-persija-jakarta/zaIJ85q4/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-rans-nusantara/WQBS6qEG/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,14 +5181,14 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>1.39</v>
+        <v>3.91</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.52</v>
+        <v>3.19</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>04/08/2023 13:56</t>
+          <t>04/08/2023 13:55</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>4.98</v>
+        <v>3.52</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>4.68</v>
+        <v>2.99</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>04/08/2023 13:56</t>
+          <t>04/08/2023 13:50</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>5.82</v>
+        <v>1.81</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>5.33</v>
+        <v>2.44</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>04/08/2023 13:56</t>
+          <t>04/08/2023 13:55</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-rans-nusantara/WQBS6qEG/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-persija-jakarta/zaIJ85q4/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Persebaya</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>2</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PSS Sleman</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>06/08/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>08/08/2023 09:59</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>06/08/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>08/08/2023 09:51</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
         <v>3</v>
       </c>
-      <c r="J57" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="K57" t="inlineStr">
+      <c r="S57" t="inlineStr">
         <is>
           <t>06/08/2023 22:12</t>
         </is>
       </c>
-      <c r="L57" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>08/08/2023 09:56</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>06/08/2023 22:12</t>
-        </is>
-      </c>
-      <c r="P57" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>08/08/2023 09:56</t>
-        </is>
-      </c>
-      <c r="R57" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>06/08/2023 22:12</t>
-        </is>
-      </c>
       <c r="T57" t="n">
-        <v>3.13</v>
+        <v>2.99</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>08/08/2023 09:56</t>
+          <t>08/08/2023 09:59</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-pss-sleman/E55oN4bc/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-persebaya/021sOpqi/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Persebaya</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>2.15</v>
+        <v>2.04</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>08/08/2023 09:59</t>
+          <t>08/08/2023 09:56</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.42</v>
+        <v>3.37</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.48</v>
+        <v>3.35</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>08/08/2023 09:51</t>
+          <t>08/08/2023 09:56</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3</v>
+        <v>3.29</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.99</v>
+        <v>3.13</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>08/08/2023 09:59</t>
+          <t>08/08/2023 09:56</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-persebaya/021sOpqi/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-pss-sleman/E55oN4bc/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,14 +5917,14 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.92</v>
+        <v>2.09</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.71</v>
+        <v>3.49</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,32 +5948,32 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.44</v>
+        <v>3.55</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
+          <t>09/08/2023 09:57</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>07/08/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
           <t>09/08/2023 09:59</t>
         </is>
       </c>
-      <c r="R60" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>07/08/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T60" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>09/08/2023 09:58</t>
-        </is>
-      </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/psis-semarang-arema-fc/4fbbK2rG/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-dewa-united/zLgfLrT9/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,14 +6009,14 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.49</v>
+        <v>3.71</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.55</v>
+        <v>3.44</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>09/08/2023 09:57</t>
+          <t>09/08/2023 09:59</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.16</v>
+        <v>4.45</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.36</v>
+        <v>4.07</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>09/08/2023 09:59</t>
+          <t>09/08/2023 09:58</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-dewa-united/zLgfLrT9/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/psis-semarang-arema-fc/4fbbK2rG/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>2.01</v>
+        <v>2.35</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.94</v>
+        <v>3.19</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>09/08/2023 13:50</t>
+          <t>09/08/2023 13:59</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.52</v>
+        <v>3.53</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,32 +6132,32 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.12</v>
+        <v>3.24</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
+          <t>09/08/2023 13:55</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>08/08/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
           <t>09/08/2023 13:59</t>
         </is>
       </c>
-      <c r="R62" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>08/08/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T62" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>09/08/2023 13:59</t>
-        </is>
-      </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-borneo/roc2JMcM/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-madura-united/Q9n7ItDS/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>2.35</v>
+        <v>2.01</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,39 +6208,39 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>3.19</v>
+        <v>1.94</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
+          <t>09/08/2023 13:50</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>08/08/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
           <t>09/08/2023 13:59</t>
         </is>
       </c>
-      <c r="N63" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="O63" t="inlineStr">
+      <c r="R63" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="S63" t="inlineStr">
         <is>
           <t>08/08/2023 02:12</t>
         </is>
       </c>
-      <c r="P63" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>09/08/2023 13:55</t>
-        </is>
-      </c>
-      <c r="R63" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>08/08/2023 02:12</t>
-        </is>
-      </c>
       <c r="T63" t="n">
-        <v>2.3</v>
+        <v>4.49</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-madura-united/Q9n7ItDS/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-borneo/roc2JMcM/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1.47</v>
+        <v>2.89</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.37</v>
+        <v>2.28</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>13/08/2023 13:52</t>
+          <t>13/08/2023 13:54</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>4.25</v>
+        <v>3.14</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4.85</v>
+        <v>3.06</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         </is>
       </c>
       <c r="R69" t="n">
-        <v>5.72</v>
+        <v>2.29</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>8.210000000000001</v>
+        <v>3.43</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persikabo-1973/drzPzOSd/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/madura-united-persija-jakarta/raxyYLCF/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G70" t="n">
+        <v>3</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Persikabo 1973</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
         <v>2</v>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Persija Jakarta</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
       <c r="J70" t="n">
-        <v>2.89</v>
+        <v>1.47</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,48 +6852,48 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.28</v>
+        <v>1.37</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
+          <t>13/08/2023 13:52</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>12/08/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
           <t>13/08/2023 13:54</t>
         </is>
       </c>
-      <c r="N70" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="O70" t="inlineStr">
+      <c r="R70" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="S70" t="inlineStr">
         <is>
           <t>12/08/2023 02:12</t>
         </is>
       </c>
-      <c r="P70" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="Q70" t="inlineStr">
+      <c r="T70" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="U70" t="inlineStr">
         <is>
           <t>13/08/2023 13:54</t>
         </is>
       </c>
-      <c r="R70" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>12/08/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T70" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>13/08/2023 13:54</t>
-        </is>
-      </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/madura-united-persija-jakarta/raxyYLCF/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persikabo-1973/drzPzOSd/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Borneo</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
         <v>2</v>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>PSS Sleman</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>3</v>
-      </c>
       <c r="J74" t="n">
-        <v>1.75</v>
+        <v>2.81</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.91</v>
+        <v>3.19</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>18/08/2023 13:51</t>
+          <t>18/08/2023 13:59</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.54</v>
+        <v>3.28</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.35</v>
+        <v>3.29</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>18/08/2023 13:51</t>
+          <t>18/08/2023 13:59</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>4.19</v>
+        <v>2.32</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>4.25</v>
+        <v>2.28</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>18/08/2023 13:51</t>
+          <t>18/08/2023 13:59</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-pss-sleman/EmCFQw5k/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-borneo/dC1KPcKe/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J75" t="n">
-        <v>2.81</v>
+        <v>1.75</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>3.19</v>
+        <v>1.91</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>18/08/2023 13:59</t>
+          <t>18/08/2023 13:51</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.28</v>
+        <v>3.54</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.29</v>
+        <v>3.35</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>18/08/2023 13:59</t>
+          <t>18/08/2023 13:51</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.32</v>
+        <v>4.19</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.28</v>
+        <v>4.25</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>18/08/2023 13:59</t>
+          <t>18/08/2023 13:51</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-borneo/dC1KPcKe/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-pss-sleman/EmCFQw5k/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>2.11</v>
+        <v>1.76</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.86</v>
+        <v>1.59</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>25/08/2023 09:58</t>
+          <t>25/08/2023 09:55</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.28</v>
+        <v>3.57</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.69</v>
+        <v>4</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>25/08/2023 09:58</t>
+          <t>25/08/2023 09:55</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.11</v>
+        <v>3.95</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>4.02</v>
+        <v>5.59</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>25/08/2023 09:58</t>
+          <t>25/08/2023 09:55</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-psis-semarang/SjxkuwKr/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/madura-united-fc-bhayangkara/AFRgvcZl/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>1.76</v>
+        <v>2.11</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.59</v>
+        <v>1.86</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>25/08/2023 09:55</t>
+          <t>25/08/2023 09:58</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.57</v>
+        <v>3.28</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>4</v>
+        <v>3.69</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>25/08/2023 09:55</t>
+          <t>25/08/2023 09:58</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.95</v>
+        <v>3.11</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>5.59</v>
+        <v>4.02</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>25/08/2023 09:55</t>
+          <t>25/08/2023 09:58</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/madura-united-fc-bhayangkara/AFRgvcZl/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-psis-semarang/SjxkuwKr/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>3.11</v>
+        <v>1.85</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.6</v>
+        <v>1.64</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.17</v>
+        <v>3.73</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.11</v>
+        <v>3.9</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.15</v>
+        <v>3.51</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.84</v>
+        <v>5.27</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persija-jakarta/IuV1xy41/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persita/l6QcwHle/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1.85</v>
+        <v>3.11</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.64</v>
+        <v>2.6</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.73</v>
+        <v>3.17</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.9</v>
+        <v>3.11</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.51</v>
+        <v>2.15</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>5.27</v>
+        <v>2.84</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persita/l6QcwHle/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persija-jakarta/IuV1xy41/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Persib Bandung</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1.96</v>
+        <v>2.42</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.96</v>
+        <v>2.2</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>02/09/2023 09:57</t>
+          <t>02/09/2023 09:51</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.33</v>
+        <v>3.25</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.19</v>
+        <v>3.16</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>02/09/2023 09:57</t>
+          <t>02/09/2023 09:51</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>3.44</v>
+        <v>2.7</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>4.27</v>
+        <v>3.5</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>02/09/2023 09:57</t>
+          <t>02/09/2023 09:51</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persib-bandung/vTdwxS9I/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persik-kediri/d47Yx8fC/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,14 +9045,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Persib Bandung</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>2.42</v>
+        <v>1.96</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.2</v>
+        <v>1.96</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>02/09/2023 09:51</t>
+          <t>02/09/2023 09:57</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.25</v>
+        <v>3.33</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.16</v>
+        <v>3.19</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>02/09/2023 09:51</t>
+          <t>02/09/2023 09:57</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.7</v>
+        <v>3.44</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>3.5</v>
+        <v>4.27</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>02/09/2023 09:51</t>
+          <t>02/09/2023 09:57</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persik-kediri/d47Yx8fC/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persib-bandung/vTdwxS9I/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="I101" t="n">
         <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>1.56</v>
+        <v>1.95</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,48 +9704,48 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
+          <t>15/09/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>14/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>15/09/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>14/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
           <t>15/09/2023 13:58</t>
         </is>
       </c>
-      <c r="N101" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>14/09/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P101" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q101" t="inlineStr">
-        <is>
-          <t>15/09/2023 13:58</t>
-        </is>
-      </c>
-      <c r="R101" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t>14/09/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T101" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="U101" t="inlineStr">
-        <is>
-          <t>15/09/2023 13:58</t>
-        </is>
-      </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-rans-nusantara/zeS7i795/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-fc-bhayangkara/d4T3hmfa/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="I102" t="n">
         <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>1.95</v>
+        <v>1.56</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>15/09/2023 13:59</t>
+          <t>15/09/2023 13:58</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.36</v>
+        <v>4.45</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.62</v>
+        <v>3.65</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>15/09/2023 13:59</t>
+          <t>15/09/2023 13:58</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>3.41</v>
+        <v>4.38</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,7 +9828,7 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>4.68</v>
+        <v>4.71</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-fc-bhayangkara/d4T3hmfa/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-rans-nusantara/zeS7i795/</t>
         </is>
       </c>
     </row>
@@ -13177,22 +13177,22 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="I139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J139" t="n">
-        <v>2.52</v>
+        <v>2.53</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         </is>
       </c>
       <c r="L139" t="n">
-        <v>2.28</v>
+        <v>2.9</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.09</v>
+        <v>3.21</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
@@ -13216,32 +13216,32 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.29</v>
+        <v>3.22</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
+          <t>21/10/2023 09:57</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>19/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T139" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
           <t>21/10/2023 09:59</t>
         </is>
       </c>
-      <c r="R139" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="S139" t="inlineStr">
-        <is>
-          <t>19/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="T139" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="U139" t="inlineStr">
-        <is>
-          <t>21/10/2023 09:55</t>
-        </is>
-      </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-persik-kediri/nicrVDcR/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-ps-barito-putera/80bvWgrL/</t>
         </is>
       </c>
     </row>
@@ -13269,22 +13269,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="n">
-        <v>2.53</v>
+        <v>2.52</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>2.9</v>
+        <v>2.28</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.21</v>
+        <v>3.09</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,15 +13308,15 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.22</v>
+        <v>3.29</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>21/10/2023 09:57</t>
+          <t>21/10/2023 09:59</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>2.53</v>
+        <v>2.63</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="T140" t="n">
-        <v>2.49</v>
+        <v>3.17</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>21/10/2023 09:59</t>
+          <t>21/10/2023 09:55</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-ps-barito-putera/80bvWgrL/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-persik-kediri/nicrVDcR/</t>
         </is>
       </c>
     </row>
@@ -13518,6 +13518,190 @@
       <c r="V142" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-persis-solo/IZmEPiLl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45221.41666666666</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Madura United</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>1</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Dewa United</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>4</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>20/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:58</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>20/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P143" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:58</t>
+        </is>
+      </c>
+      <c r="R143" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>20/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T143" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:58</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/madura-united-dewa-united/0bwJOBze/</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45221.58333333334</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Persija Jakarta</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>RANS Nusantara</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>2</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P144" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R144" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T144" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-rans-nusantara/vkxNNVk1/</t>
         </is>
       </c>
     </row>

--- a/2023/indonesia_liga-1_2023-2024.xlsx
+++ b/2023/indonesia_liga-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V144"/>
+  <dimension ref="A1:V153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,14 +2973,14 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>2.97</v>
+        <v>1.6</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.09</v>
+        <v>1.58</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>21/07/2023 09:54</t>
+          <t>21/07/2023 09:58</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.28</v>
+        <v>4</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.44</v>
+        <v>4.19</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>21/07/2023 09:54</t>
+          <t>21/07/2023 09:59</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.22</v>
+        <v>4.64</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>3.47</v>
+        <v>5.33</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>21/07/2023 09:54</t>
+          <t>21/07/2023 09:59</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-psis-semarang/Qme89QC0/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-ps-barito-putera/vTGPHl5K/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>1.6</v>
+        <v>2.97</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.58</v>
+        <v>2.09</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>21/07/2023 09:58</t>
+          <t>21/07/2023 09:54</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>4</v>
+        <v>3.28</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4.19</v>
+        <v>3.44</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>21/07/2023 09:59</t>
+          <t>21/07/2023 09:54</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.64</v>
+        <v>2.22</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>5.33</v>
+        <v>3.47</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>21/07/2023 09:59</t>
+          <t>21/07/2023 09:54</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-ps-barito-putera/vTGPHl5K/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-psis-semarang/Qme89QC0/</t>
         </is>
       </c>
     </row>
@@ -3149,19 +3149,19 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>2.7</v>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>4.79</v>
+        <v>2.53</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>21/07/2023 13:59</t>
+          <t>21/07/2023 13:57</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.28</v>
+        <v>3.13</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.86</v>
+        <v>3.69</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>21/07/2023 13:58</t>
+          <t>21/07/2023 13:57</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.35</v>
+        <v>2.44</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>1.69</v>
+        <v>2.55</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>21/07/2023 13:54</t>
+          <t>21/07/2023 13:57</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/arema-fc-bali-united/za2eCSSs/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persik-kediri/YkGTG8KQ/</t>
         </is>
       </c>
     </row>
@@ -3241,19 +3241,19 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Bali United</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>3</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Persik Kediri</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>2.7</v>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.53</v>
+        <v>4.79</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>21/07/2023 13:57</t>
+          <t>21/07/2023 13:59</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.13</v>
+        <v>3.28</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.69</v>
+        <v>3.86</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>21/07/2023 13:57</t>
+          <t>21/07/2023 13:58</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.55</v>
+        <v>1.69</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>21/07/2023 13:57</t>
+          <t>21/07/2023 13:54</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persik-kediri/YkGTG8KQ/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/arema-fc-bali-united/za2eCSSs/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.25</v>
+        <v>2.69</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>4.33</v>
+        <v>2.35</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.15</v>
+        <v>3.32</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.55</v>
+        <v>3.96</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.94</v>
+        <v>2.34</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>1.83</v>
+        <v>2.63</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persita/hEk6URlQ/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/psis-semarang-borneo/ENj2V7ZJ/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>2.69</v>
+        <v>2.25</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.35</v>
+        <v>4.33</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.32</v>
+        <v>3.15</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.96</v>
+        <v>3.55</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.34</v>
+        <v>2.94</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.63</v>
+        <v>1.83</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/psis-semarang-borneo/ENj2V7ZJ/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persita/hEk6URlQ/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.32</v>
+        <v>1.65</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.79</v>
+        <v>1.61</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.26</v>
+        <v>3.8</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.5</v>
+        <v>4.15</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>30/07/2023 09:58</t>
+          <t>30/07/2023 09:55</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.75</v>
+        <v>4.48</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.42</v>
+        <v>5.06</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>30/07/2023 09:55</t>
+          <t>30/07/2023 09:51</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-pss-sleman/pCUpNqs0/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-arema-fc/tvOgLNBC/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.65</v>
+        <v>2.32</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.61</v>
+        <v>2.79</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.8</v>
+        <v>3.26</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,32 +4384,32 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>4.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
+          <t>30/07/2023 09:58</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>28/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
           <t>30/07/2023 09:55</t>
         </is>
       </c>
-      <c r="R43" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>28/07/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T43" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>30/07/2023 09:51</t>
-        </is>
-      </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-arema-fc/tvOgLNBC/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-pss-sleman/pCUpNqs0/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Persib Bandung</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,14 +4721,14 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>2.14</v>
+        <v>1.96</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.65</v>
+        <v>2.22</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>03/08/2023 13:51</t>
+          <t>03/08/2023 13:58</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.31</v>
+        <v>3.61</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>4.02</v>
+        <v>3.61</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>03/08/2023 13:51</t>
+          <t>03/08/2023 13:58</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.11</v>
+        <v>3.17</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>4.94</v>
+        <v>3.04</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>03/08/2023 13:51</t>
+          <t>03/08/2023 13:58</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-fc-bhayangkara/lrG7B7ao/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-bali-united/SYEBAREi/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Persib Bandung</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,14 +4813,14 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1.96</v>
+        <v>2.14</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.22</v>
+        <v>1.65</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>03/08/2023 13:58</t>
+          <t>03/08/2023 13:51</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.61</v>
+        <v>3.31</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.61</v>
+        <v>4.02</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>03/08/2023 13:58</t>
+          <t>03/08/2023 13:51</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.17</v>
+        <v>3.11</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.04</v>
+        <v>4.94</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>03/08/2023 13:58</t>
+          <t>03/08/2023 13:51</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-bali-united/SYEBAREi/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-fc-bhayangkara/lrG7B7ao/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>1.39</v>
+        <v>3.91</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.52</v>
+        <v>3.19</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>04/08/2023 13:56</t>
+          <t>04/08/2023 13:55</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>4.98</v>
+        <v>3.52</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>4.68</v>
+        <v>2.99</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>04/08/2023 13:56</t>
+          <t>04/08/2023 13:50</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>5.82</v>
+        <v>1.81</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>5.33</v>
+        <v>2.44</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>04/08/2023 13:56</t>
+          <t>04/08/2023 13:55</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-rans-nusantara/WQBS6qEG/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-persija-jakarta/zaIJ85q4/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,14 +5181,14 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>3.91</v>
+        <v>1.39</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3.19</v>
+        <v>1.52</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>04/08/2023 13:55</t>
+          <t>04/08/2023 13:56</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.52</v>
+        <v>4.98</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>2.99</v>
+        <v>4.68</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>04/08/2023 13:50</t>
+          <t>04/08/2023 13:56</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>1.81</v>
+        <v>5.82</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.44</v>
+        <v>5.33</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>04/08/2023 13:55</t>
+          <t>04/08/2023 13:56</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-persija-jakarta/zaIJ85q4/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-rans-nusantara/WQBS6qEG/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Persebaya</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J57" t="n">
-        <v>2.15</v>
+        <v>2.04</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>08/08/2023 09:59</t>
+          <t>08/08/2023 09:56</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.42</v>
+        <v>3.37</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.48</v>
+        <v>3.35</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>08/08/2023 09:51</t>
+          <t>08/08/2023 09:56</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3</v>
+        <v>3.29</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>2.99</v>
+        <v>3.13</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>08/08/2023 09:59</t>
+          <t>08/08/2023 09:56</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-persebaya/021sOpqi/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-pss-sleman/E55oN4bc/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Persebaya</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
         <v>2</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PSS Sleman</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>06/08/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>08/08/2023 09:59</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>06/08/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>08/08/2023 09:51</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
         <v>3</v>
       </c>
-      <c r="J58" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="K58" t="inlineStr">
+      <c r="S58" t="inlineStr">
         <is>
           <t>06/08/2023 22:12</t>
         </is>
       </c>
-      <c r="L58" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>08/08/2023 09:56</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>06/08/2023 22:12</t>
-        </is>
-      </c>
-      <c r="P58" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>08/08/2023 09:56</t>
-        </is>
-      </c>
-      <c r="R58" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>06/08/2023 22:12</t>
-        </is>
-      </c>
       <c r="T58" t="n">
-        <v>3.13</v>
+        <v>2.99</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>08/08/2023 09:56</t>
+          <t>08/08/2023 09:59</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-pss-sleman/E55oN4bc/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-persebaya/021sOpqi/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,14 +5917,14 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.49</v>
+        <v>3.71</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.55</v>
+        <v>3.44</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>09/08/2023 09:57</t>
+          <t>09/08/2023 09:59</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.16</v>
+        <v>4.45</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.36</v>
+        <v>4.07</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>09/08/2023 09:59</t>
+          <t>09/08/2023 09:58</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-dewa-united/zLgfLrT9/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/psis-semarang-arema-fc/4fbbK2rG/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,14 +6009,14 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.92</v>
+        <v>2.09</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.71</v>
+        <v>3.49</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,32 +6040,32 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.44</v>
+        <v>3.55</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
+          <t>09/08/2023 09:57</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>07/08/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
           <t>09/08/2023 09:59</t>
         </is>
       </c>
-      <c r="R61" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>07/08/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T61" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>09/08/2023 09:58</t>
-        </is>
-      </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/psis-semarang-arema-fc/4fbbK2rG/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-dewa-united/zLgfLrT9/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>2.35</v>
+        <v>2.01</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,39 +6116,39 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>3.19</v>
+        <v>1.94</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
+          <t>09/08/2023 13:50</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>08/08/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
           <t>09/08/2023 13:59</t>
         </is>
       </c>
-      <c r="N62" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="O62" t="inlineStr">
+      <c r="R62" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="S62" t="inlineStr">
         <is>
           <t>08/08/2023 02:12</t>
         </is>
       </c>
-      <c r="P62" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>09/08/2023 13:55</t>
-        </is>
-      </c>
-      <c r="R62" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>08/08/2023 02:12</t>
-        </is>
-      </c>
       <c r="T62" t="n">
-        <v>2.3</v>
+        <v>4.49</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-madura-united/Q9n7ItDS/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-borneo/roc2JMcM/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>2.01</v>
+        <v>2.35</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.94</v>
+        <v>3.19</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>09/08/2023 13:50</t>
+          <t>09/08/2023 13:59</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.52</v>
+        <v>3.53</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,32 +6224,32 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.12</v>
+        <v>3.24</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
+          <t>09/08/2023 13:55</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>08/08/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
           <t>09/08/2023 13:59</t>
         </is>
       </c>
-      <c r="R63" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>08/08/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T63" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>09/08/2023 13:59</t>
-        </is>
-      </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-borneo/roc2JMcM/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-madura-united/Q9n7ItDS/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J76" t="n">
-        <v>2.38</v>
+        <v>2.79</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,11 +7404,11 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.33</v>
+        <v>2.94</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>19/08/2023 09:51</t>
+          <t>19/08/2023 09:55</t>
         </is>
       </c>
       <c r="N76" t="n">
@@ -7420,7 +7420,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.29</v>
+        <v>3.38</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.71</v>
+        <v>2.32</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.08</v>
+        <v>2.37</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-dewa-united/AF5OOHZ1/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-madura-united/zcDBRJkq/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.79</v>
+        <v>2.38</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,11 +7496,11 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.94</v>
+        <v>2.33</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>19/08/2023 09:55</t>
+          <t>19/08/2023 09:51</t>
         </is>
       </c>
       <c r="N77" t="n">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.38</v>
+        <v>3.29</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.32</v>
+        <v>2.71</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.37</v>
+        <v>3.08</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-madura-united/zcDBRJkq/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-dewa-united/AF5OOHZ1/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>2.11</v>
+        <v>2.62</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.7</v>
+        <v>2.97</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>19/08/2023 13:59</t>
+          <t>19/08/2023 13:58</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.34</v>
+        <v>3.33</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>19/08/2023 13:59</t>
+          <t>19/08/2023 13:56</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.14</v>
+        <v>2.38</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>4.91</v>
+        <v>2.32</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>19/08/2023 13:59</t>
+          <t>19/08/2023 13:58</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-persik-kediri/KpmFousF/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-bali-united/bynJpadL/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2.62</v>
+        <v>2.11</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.97</v>
+        <v>1.7</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>19/08/2023 13:58</t>
+          <t>19/08/2023 13:59</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.33</v>
+        <v>3.34</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>19/08/2023 13:56</t>
+          <t>19/08/2023 13:59</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.38</v>
+        <v>3.14</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.32</v>
+        <v>4.91</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>19/08/2023 13:58</t>
+          <t>19/08/2023 13:59</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-bali-united/bynJpadL/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-persik-kediri/KpmFousF/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>1.76</v>
+        <v>2.11</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.59</v>
+        <v>1.86</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>25/08/2023 09:55</t>
+          <t>25/08/2023 09:58</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.57</v>
+        <v>3.28</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>4</v>
+        <v>3.69</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>25/08/2023 09:55</t>
+          <t>25/08/2023 09:58</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.95</v>
+        <v>3.11</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>5.59</v>
+        <v>4.02</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>25/08/2023 09:55</t>
+          <t>25/08/2023 09:58</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/madura-united-fc-bhayangkara/AFRgvcZl/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-psis-semarang/SjxkuwKr/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>2.11</v>
+        <v>1.76</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.86</v>
+        <v>1.59</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>25/08/2023 09:58</t>
+          <t>25/08/2023 09:55</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.28</v>
+        <v>3.57</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.69</v>
+        <v>4</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>25/08/2023 09:58</t>
+          <t>25/08/2023 09:55</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.11</v>
+        <v>3.95</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>4.02</v>
+        <v>5.59</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>25/08/2023 09:58</t>
+          <t>25/08/2023 09:55</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-psis-semarang/SjxkuwKr/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/madura-united-fc-bhayangkara/AFRgvcZl/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>PSM Makassar</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>3.26</v>
+        <v>1.79</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.98</v>
+        <v>1.81</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>03/09/2023 13:52</t>
+          <t>03/09/2023 13:59</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.14</v>
+        <v>3.65</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.13</v>
+        <v>3.73</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>03/09/2023 13:52</t>
+          <t>03/09/2023 13:59</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>2.14</v>
+        <v>3.83</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>2.48</v>
+        <v>4.19</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>03/09/2023 13:52</t>
+          <t>03/09/2023 13:53</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-psm-makassar/6ZlPaV1P/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-persis-solo/8ryiekAt/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>PSM Makassar</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>1.79</v>
+        <v>3.26</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.81</v>
+        <v>2.98</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>03/09/2023 13:59</t>
+          <t>03/09/2023 13:52</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.65</v>
+        <v>3.14</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.73</v>
+        <v>3.13</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>03/09/2023 13:59</t>
+          <t>03/09/2023 13:52</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>3.83</v>
+        <v>2.14</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>4.19</v>
+        <v>2.48</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>03/09/2023 13:53</t>
+          <t>03/09/2023 13:52</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-persis-solo/8ryiekAt/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-psm-makassar/6ZlPaV1P/</t>
         </is>
       </c>
     </row>
@@ -12717,22 +12717,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="I134" t="n">
         <v>2</v>
       </c>
       <c r="J134" t="n">
-        <v>2.71</v>
+        <v>2.18</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>3.01</v>
+        <v>2.07</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>08/10/2023 13:51</t>
+          <t>08/10/2023 13:53</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.33</v>
+        <v>3.22</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3.52</v>
+        <v>3.22</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>08/10/2023 12:26</t>
+          <t>08/10/2023 13:53</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>2.31</v>
+        <v>3.02</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>2.27</v>
+        <v>3.8</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>08/10/2023 13:51</t>
+          <t>08/10/2023 13:53</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-bali-united/neDqACL1/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-persik-kediri/QuPzCYjk/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="I135" t="n">
         <v>2</v>
       </c>
       <c r="J135" t="n">
-        <v>2.18</v>
+        <v>2.71</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>2.07</v>
+        <v>3.01</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>08/10/2023 13:53</t>
+          <t>08/10/2023 13:51</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.22</v>
+        <v>3.33</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.22</v>
+        <v>3.52</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>08/10/2023 13:53</t>
+          <t>08/10/2023 12:26</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>3.02</v>
+        <v>2.31</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>3.8</v>
+        <v>2.27</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>08/10/2023 13:53</t>
+          <t>08/10/2023 13:51</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-persik-kediri/QuPzCYjk/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-bali-united/neDqACL1/</t>
         </is>
       </c>
     </row>
@@ -13702,6 +13702,834 @@
       <c r="V144" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-rans-nusantara/vkxNNVk1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45226.41666666666</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Persik Kediri</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>4</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Persebaya</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>25/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>27/10/2023 09:58</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>25/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>27/10/2023 09:52</t>
+        </is>
+      </c>
+      <c r="R145" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>25/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T145" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>27/10/2023 09:56</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-persebaya/CGkUL9KD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45226.58333333334</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Barito Putera</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>1</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Persikabo 1973</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>26/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>27/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>26/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P146" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>27/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R146" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>26/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T146" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>27/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-persikabo-1973/YPjQMk57/</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45227.41666666666</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Arema FC</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>1</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Madura United</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>28/10/2023 09:57</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P147" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>28/10/2023 09:57</t>
+        </is>
+      </c>
+      <c r="R147" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T147" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>28/10/2023 09:57</t>
+        </is>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/arema-fc-madura-united/AiRMMXKD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Borneo</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>3</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Dewa United</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:21</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P148" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:21</t>
+        </is>
+      </c>
+      <c r="R148" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T148" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:21</t>
+        </is>
+      </c>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-dewa-united/KQGdGVcs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Persib Bandung</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>4</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>PSS Sleman</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P149" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R149" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T149" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-pss-sleman/OfVQLizK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45228.375</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Persis Solo</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>2</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>FC Bhayangkara</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>27/10/2023 22:13</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:55</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>27/10/2023 22:13</t>
+        </is>
+      </c>
+      <c r="P150" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:58</t>
+        </is>
+      </c>
+      <c r="R150" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>27/10/2023 22:13</t>
+        </is>
+      </c>
+      <c r="T150" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:58</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-fc-bhayangkara/IHUUKBkQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45228.54166666666</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>PSIS Semarang</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>2</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Persija Jakarta</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:54</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P151" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:54</t>
+        </is>
+      </c>
+      <c r="R151" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T151" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:54</t>
+        </is>
+      </c>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/psis-semarang-persija-jakarta/x2B1FkDm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45229.375</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>RANS Nusantara</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>1</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>PSM Makassar</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>28/10/2023 22:13</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>30/10/2023 08:57</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>28/10/2023 22:13</t>
+        </is>
+      </c>
+      <c r="P152" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>30/10/2023 08:59</t>
+        </is>
+      </c>
+      <c r="R152" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>28/10/2023 22:13</t>
+        </is>
+      </c>
+      <c r="T152" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>30/10/2023 08:57</t>
+        </is>
+      </c>
+      <c r="V152" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-psm-makassar/GhA5E9Sg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45229.54166666666</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Bali United</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>3</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Persita</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>29/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>30/10/2023 12:23</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>29/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P153" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>30/10/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R153" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>29/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T153" t="n">
+        <v>6</v>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>30/10/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V153" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-persita/AF99DTs0/</t>
         </is>
       </c>
     </row>

--- a/2023/indonesia_liga-1_2023-2024.xlsx
+++ b/2023/indonesia_liga-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V153"/>
+  <dimension ref="A1:V154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1.71</v>
+        <v>2.52</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.08</v>
+        <v>2.85</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>15/07/2023 09:52</t>
+          <t>15/07/2023 09:59</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.61</v>
+        <v>3.33</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.29</v>
+        <v>3.45</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>15/07/2023 09:52</t>
+          <t>15/07/2023 09:50</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>4.32</v>
+        <v>2.54</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.66</v>
+        <v>2.4</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>15/07/2023 09:52</t>
+          <t>15/07/2023 09:59</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-arema-fc/vXWQdmTf/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persita/nczZfRc7/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>2.52</v>
+        <v>1.71</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.85</v>
+        <v>2.08</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>15/07/2023 09:59</t>
+          <t>15/07/2023 09:52</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.33</v>
+        <v>3.61</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.45</v>
+        <v>3.29</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>15/07/2023 09:50</t>
+          <t>15/07/2023 09:52</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.54</v>
+        <v>4.32</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.4</v>
+        <v>3.66</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>15/07/2023 09:59</t>
+          <t>15/07/2023 09:52</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persita/nczZfRc7/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-arema-fc/vXWQdmTf/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,14 +2605,14 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.86</v>
+        <v>2.81</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.96</v>
+        <v>3</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>15/07/2023 13:58</t>
+          <t>15/07/2023 13:57</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.69</v>
+        <v>3.38</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.61</v>
+        <v>3.49</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>15/07/2023 13:58</t>
+          <t>15/07/2023 13:57</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.52</v>
+        <v>2.27</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.7</v>
+        <v>2.29</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>15/07/2023 13:58</t>
+          <t>15/07/2023 13:57</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-madura-united/INVUe7r1/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-borneo/d8sMcTDl/</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2697,14 +2697,14 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>2.81</v>
+        <v>1.86</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>1.96</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>15/07/2023 13:57</t>
+          <t>15/07/2023 13:58</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.38</v>
+        <v>3.69</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.49</v>
+        <v>3.61</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>15/07/2023 13:57</t>
+          <t>15/07/2023 13:58</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.27</v>
+        <v>3.52</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.29</v>
+        <v>3.7</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>15/07/2023 13:57</t>
+          <t>15/07/2023 13:58</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-borneo/d8sMcTDl/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-madura-united/INVUe7r1/</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,14 +2973,14 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>1.6</v>
+        <v>2.97</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.58</v>
+        <v>2.09</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>21/07/2023 09:58</t>
+          <t>21/07/2023 09:54</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>4</v>
+        <v>3.28</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>4.19</v>
+        <v>3.44</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>21/07/2023 09:59</t>
+          <t>21/07/2023 09:54</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>4.64</v>
+        <v>2.22</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>5.33</v>
+        <v>3.47</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>21/07/2023 09:59</t>
+          <t>21/07/2023 09:54</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-ps-barito-putera/vTGPHl5K/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-psis-semarang/Qme89QC0/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>2.97</v>
+        <v>1.6</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.09</v>
+        <v>1.58</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>21/07/2023 09:54</t>
+          <t>21/07/2023 09:58</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.28</v>
+        <v>4</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.44</v>
+        <v>4.19</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>21/07/2023 09:54</t>
+          <t>21/07/2023 09:59</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.22</v>
+        <v>4.64</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.47</v>
+        <v>5.33</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>21/07/2023 09:54</t>
+          <t>21/07/2023 09:59</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-psis-semarang/Qme89QC0/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-ps-barito-putera/vTGPHl5K/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.65</v>
+        <v>2.32</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.61</v>
+        <v>2.79</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.8</v>
+        <v>3.26</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,32 +4292,32 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>4.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
+          <t>30/07/2023 09:58</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>28/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
           <t>30/07/2023 09:55</t>
         </is>
       </c>
-      <c r="R42" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>28/07/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T42" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>30/07/2023 09:51</t>
-        </is>
-      </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-arema-fc/tvOgLNBC/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-pss-sleman/pCUpNqs0/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.32</v>
+        <v>1.65</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.79</v>
+        <v>1.61</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.26</v>
+        <v>3.8</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.5</v>
+        <v>4.15</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>30/07/2023 09:58</t>
+          <t>30/07/2023 09:55</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.75</v>
+        <v>4.48</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.42</v>
+        <v>5.06</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>30/07/2023 09:55</t>
+          <t>30/07/2023 09:51</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-pss-sleman/pCUpNqs0/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-arema-fc/tvOgLNBC/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Persebaya</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.12</v>
+        <v>1.62</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.34</v>
+        <v>1.67</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>30/07/2023 13:51</t>
+          <t>30/07/2023 13:52</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.31</v>
+        <v>3.93</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.44</v>
+        <v>3.9</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>30/07/2023 13:51</t>
+          <t>30/07/2023 13:52</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.13</v>
+        <v>4.54</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.94</v>
+        <v>4.97</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>30/07/2023 13:51</t>
+          <t>30/07/2023 13:52</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-madura-united/z1NcKsRI/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persebaya/2mPkM3d6/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Persebaya</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>1.62</v>
+        <v>2.12</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.67</v>
+        <v>2.34</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>30/07/2023 13:52</t>
+          <t>30/07/2023 13:51</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.93</v>
+        <v>3.31</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.9</v>
+        <v>3.44</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>30/07/2023 13:52</t>
+          <t>30/07/2023 13:51</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>4.54</v>
+        <v>3.13</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>4.97</v>
+        <v>2.94</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>30/07/2023 13:52</t>
+          <t>30/07/2023 13:51</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persebaya/2mPkM3d6/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-madura-united/z1NcKsRI/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Persib Bandung</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,14 +4721,14 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1.96</v>
+        <v>2.14</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.22</v>
+        <v>1.65</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>03/08/2023 13:58</t>
+          <t>03/08/2023 13:51</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.61</v>
+        <v>3.31</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.61</v>
+        <v>4.02</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>03/08/2023 13:58</t>
+          <t>03/08/2023 13:51</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.17</v>
+        <v>3.11</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>3.04</v>
+        <v>4.94</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>03/08/2023 13:58</t>
+          <t>03/08/2023 13:51</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-bali-united/SYEBAREi/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-fc-bhayangkara/lrG7B7ao/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Persib Bandung</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,14 +4813,14 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>2.14</v>
+        <v>1.96</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.65</v>
+        <v>2.22</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>03/08/2023 13:51</t>
+          <t>03/08/2023 13:58</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.31</v>
+        <v>3.61</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.02</v>
+        <v>3.61</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>03/08/2023 13:51</t>
+          <t>03/08/2023 13:58</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.11</v>
+        <v>3.17</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>4.94</v>
+        <v>3.04</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>03/08/2023 13:51</t>
+          <t>03/08/2023 13:58</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-fc-bhayangkara/lrG7B7ao/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-bali-united/SYEBAREi/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>3.91</v>
+        <v>1.39</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3.19</v>
+        <v>1.52</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>04/08/2023 13:55</t>
+          <t>04/08/2023 13:56</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.52</v>
+        <v>4.98</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>2.99</v>
+        <v>4.68</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>04/08/2023 13:50</t>
+          <t>04/08/2023 13:56</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>1.81</v>
+        <v>5.82</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.44</v>
+        <v>5.33</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>04/08/2023 13:55</t>
+          <t>04/08/2023 13:56</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-persija-jakarta/zaIJ85q4/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-rans-nusantara/WQBS6qEG/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,14 +5181,14 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>1.39</v>
+        <v>3.91</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.52</v>
+        <v>3.19</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>04/08/2023 13:56</t>
+          <t>04/08/2023 13:55</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>4.98</v>
+        <v>3.52</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>4.68</v>
+        <v>2.99</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>04/08/2023 13:56</t>
+          <t>04/08/2023 13:50</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>5.82</v>
+        <v>1.81</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>5.33</v>
+        <v>2.44</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>04/08/2023 13:56</t>
+          <t>04/08/2023 13:55</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-rans-nusantara/WQBS6qEG/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-persija-jakarta/zaIJ85q4/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Persebaya</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>2</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PSS Sleman</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>06/08/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>08/08/2023 09:59</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>06/08/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>08/08/2023 09:51</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
         <v>3</v>
       </c>
-      <c r="J57" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="K57" t="inlineStr">
+      <c r="S57" t="inlineStr">
         <is>
           <t>06/08/2023 22:12</t>
         </is>
       </c>
-      <c r="L57" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>08/08/2023 09:56</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>06/08/2023 22:12</t>
-        </is>
-      </c>
-      <c r="P57" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>08/08/2023 09:56</t>
-        </is>
-      </c>
-      <c r="R57" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>06/08/2023 22:12</t>
-        </is>
-      </c>
       <c r="T57" t="n">
-        <v>3.13</v>
+        <v>2.99</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>08/08/2023 09:56</t>
+          <t>08/08/2023 09:59</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-pss-sleman/E55oN4bc/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-persebaya/021sOpqi/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Persebaya</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>2.15</v>
+        <v>2.04</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>08/08/2023 09:59</t>
+          <t>08/08/2023 09:56</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.42</v>
+        <v>3.37</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.48</v>
+        <v>3.35</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>08/08/2023 09:51</t>
+          <t>08/08/2023 09:56</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3</v>
+        <v>3.29</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.99</v>
+        <v>3.13</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>08/08/2023 09:59</t>
+          <t>08/08/2023 09:56</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-persebaya/021sOpqi/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-pss-sleman/E55oN4bc/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,14 +5917,14 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.92</v>
+        <v>2.09</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.71</v>
+        <v>3.49</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,32 +5948,32 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.44</v>
+        <v>3.55</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
+          <t>09/08/2023 09:57</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>07/08/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
           <t>09/08/2023 09:59</t>
         </is>
       </c>
-      <c r="R60" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>07/08/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T60" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>09/08/2023 09:58</t>
-        </is>
-      </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/psis-semarang-arema-fc/4fbbK2rG/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-dewa-united/zLgfLrT9/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,14 +6009,14 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.49</v>
+        <v>3.71</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.55</v>
+        <v>3.44</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>09/08/2023 09:57</t>
+          <t>09/08/2023 09:59</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.16</v>
+        <v>4.45</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.36</v>
+        <v>4.07</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>09/08/2023 09:59</t>
+          <t>09/08/2023 09:58</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-dewa-united/zLgfLrT9/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/psis-semarang-arema-fc/4fbbK2rG/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>2.01</v>
+        <v>2.35</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.94</v>
+        <v>3.19</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>09/08/2023 13:50</t>
+          <t>09/08/2023 13:59</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.52</v>
+        <v>3.53</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,32 +6132,32 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.12</v>
+        <v>3.24</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
+          <t>09/08/2023 13:55</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>08/08/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
           <t>09/08/2023 13:59</t>
         </is>
       </c>
-      <c r="R62" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>08/08/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T62" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>09/08/2023 13:59</t>
-        </is>
-      </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-borneo/roc2JMcM/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-madura-united/Q9n7ItDS/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>2.35</v>
+        <v>2.01</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,39 +6208,39 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>3.19</v>
+        <v>1.94</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
+          <t>09/08/2023 13:50</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>08/08/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
           <t>09/08/2023 13:59</t>
         </is>
       </c>
-      <c r="N63" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="O63" t="inlineStr">
+      <c r="R63" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="S63" t="inlineStr">
         <is>
           <t>08/08/2023 02:12</t>
         </is>
       </c>
-      <c r="P63" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>09/08/2023 13:55</t>
-        </is>
-      </c>
-      <c r="R63" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>08/08/2023 02:12</t>
-        </is>
-      </c>
       <c r="T63" t="n">
-        <v>2.3</v>
+        <v>4.49</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-madura-united/Q9n7ItDS/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-borneo/roc2JMcM/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J74" t="n">
-        <v>2.81</v>
+        <v>1.75</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>3.19</v>
+        <v>1.91</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>18/08/2023 13:59</t>
+          <t>18/08/2023 13:51</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.28</v>
+        <v>3.54</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.29</v>
+        <v>3.35</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>18/08/2023 13:59</t>
+          <t>18/08/2023 13:51</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>2.32</v>
+        <v>4.19</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.28</v>
+        <v>4.25</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>18/08/2023 13:59</t>
+          <t>18/08/2023 13:51</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-borneo/dC1KPcKe/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-pss-sleman/EmCFQw5k/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Borneo</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>2</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>PSS Sleman</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>3</v>
-      </c>
       <c r="J75" t="n">
-        <v>1.75</v>
+        <v>2.81</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.91</v>
+        <v>3.19</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>18/08/2023 13:51</t>
+          <t>18/08/2023 13:59</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.54</v>
+        <v>3.28</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.35</v>
+        <v>3.29</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>18/08/2023 13:51</t>
+          <t>18/08/2023 13:59</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>4.19</v>
+        <v>2.32</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>4.25</v>
+        <v>2.28</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>18/08/2023 13:51</t>
+          <t>18/08/2023 13:59</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-pss-sleman/EmCFQw5k/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-borneo/dC1KPcKe/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>2.79</v>
+        <v>2.38</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,11 +7404,11 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.94</v>
+        <v>2.33</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>19/08/2023 09:55</t>
+          <t>19/08/2023 09:51</t>
         </is>
       </c>
       <c r="N76" t="n">
@@ -7420,7 +7420,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.38</v>
+        <v>3.29</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.32</v>
+        <v>2.71</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>2.37</v>
+        <v>3.08</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-madura-united/zcDBRJkq/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-dewa-united/AF5OOHZ1/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J77" t="n">
-        <v>2.38</v>
+        <v>2.79</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,11 +7496,11 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.33</v>
+        <v>2.94</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>19/08/2023 09:51</t>
+          <t>19/08/2023 09:55</t>
         </is>
       </c>
       <c r="N77" t="n">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.29</v>
+        <v>3.38</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.71</v>
+        <v>2.32</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.08</v>
+        <v>2.37</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-dewa-united/AF5OOHZ1/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-madura-united/zcDBRJkq/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>2.11</v>
+        <v>1.76</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.86</v>
+        <v>1.59</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>25/08/2023 09:58</t>
+          <t>25/08/2023 09:55</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.28</v>
+        <v>3.57</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.69</v>
+        <v>4</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>25/08/2023 09:58</t>
+          <t>25/08/2023 09:55</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.11</v>
+        <v>3.95</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>4.02</v>
+        <v>5.59</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>25/08/2023 09:58</t>
+          <t>25/08/2023 09:55</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-psis-semarang/SjxkuwKr/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/madura-united-fc-bhayangkara/AFRgvcZl/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>1.76</v>
+        <v>2.11</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.59</v>
+        <v>1.86</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>25/08/2023 09:55</t>
+          <t>25/08/2023 09:58</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.57</v>
+        <v>3.28</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>4</v>
+        <v>3.69</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>25/08/2023 09:55</t>
+          <t>25/08/2023 09:58</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.95</v>
+        <v>3.11</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>5.59</v>
+        <v>4.02</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>25/08/2023 09:55</t>
+          <t>25/08/2023 09:58</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/madura-united-fc-bhayangkara/AFRgvcZl/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-psis-semarang/SjxkuwKr/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1.85</v>
+        <v>3.11</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.64</v>
+        <v>2.6</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.73</v>
+        <v>3.17</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.9</v>
+        <v>3.11</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>3.51</v>
+        <v>2.15</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>5.27</v>
+        <v>2.84</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persita/l6QcwHle/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persija-jakarta/IuV1xy41/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>3.11</v>
+        <v>1.85</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.6</v>
+        <v>1.64</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.17</v>
+        <v>3.73</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.11</v>
+        <v>3.9</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.15</v>
+        <v>3.51</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.84</v>
+        <v>5.27</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persija-jakarta/IuV1xy41/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persita/l6QcwHle/</t>
         </is>
       </c>
     </row>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>Persebaya</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>2.6</v>
+        <v>2.49</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>01/09/2023 22:12</t>
+          <t>01/09/2023 22:13</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>4.06</v>
+        <v>2.74</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>03/09/2023 09:13</t>
+          <t>03/09/2023 09:59</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>01/09/2023 22:12</t>
+          <t>01/09/2023 22:13</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.54</v>
+        <v>3.26</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>03/09/2023 09:19</t>
+          <t>03/09/2023 09:58</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.51</v>
+        <v>2.71</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>01/09/2023 22:12</t>
+          <t>01/09/2023 22:13</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>1.89</v>
+        <v>2.59</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>03/09/2023 09:19</t>
+          <t>03/09/2023 09:59</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-dewa-united/lv4QvUPa/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persebaya-borneo/j7Qef9Pn/</t>
         </is>
       </c>
     </row>
@@ -9313,71 +9313,71 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Persebaya</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>2.49</v>
+        <v>2.6</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>01/09/2023 22:13</t>
+          <t>01/09/2023 22:12</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.74</v>
+        <v>4.06</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>03/09/2023 09:59</t>
+          <t>03/09/2023 09:13</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.11</v>
+        <v>3.1</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>01/09/2023 22:13</t>
+          <t>01/09/2023 22:12</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.26</v>
+        <v>3.54</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>03/09/2023 09:58</t>
+          <t>03/09/2023 09:19</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>2.71</v>
+        <v>2.51</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>01/09/2023 22:13</t>
+          <t>01/09/2023 22:12</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>2.59</v>
+        <v>1.89</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>03/09/2023 09:59</t>
+          <t>03/09/2023 09:19</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persebaya-borneo/j7Qef9Pn/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-dewa-united/lv4QvUPa/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,11 +12081,11 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
         <v>2.54</v>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>3.74</v>
+        <v>3.07</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>06/10/2023 09:56</t>
+          <t>06/10/2023 09:52</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.24</v>
+        <v>3.19</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.73</v>
+        <v>3.19</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>06/10/2023 09:58</t>
+          <t>06/10/2023 09:52</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>1.92</v>
+        <v>2.39</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>06/10/2023 09:56</t>
+          <t>06/10/2023 09:52</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persis-solo/OE3fW2x4/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-psis-semarang/j15nYO7i/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,11 +12173,11 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J128" t="n">
         <v>2.54</v>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>3.07</v>
+        <v>3.74</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>06/10/2023 09:52</t>
+          <t>06/10/2023 09:56</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.19</v>
+        <v>3.24</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.19</v>
+        <v>3.73</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>06/10/2023 09:52</t>
+          <t>06/10/2023 09:58</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>2.39</v>
+        <v>1.92</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>06/10/2023 09:52</t>
+          <t>06/10/2023 09:56</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-psis-semarang/j15nYO7i/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persis-solo/OE3fW2x4/</t>
         </is>
       </c>
     </row>
@@ -12901,71 +12901,71 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G136" t="n">
+        <v>2</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>PSIS Semarang</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
         <v>3</v>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Persebaya</t>
-        </is>
-      </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
       <c r="J136" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>18/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>20/10/2023 09:49</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>18/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>20/10/2023 09:49</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>18/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
         <v>1.89</v>
       </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>18/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>20/10/2023 09:57</t>
-        </is>
-      </c>
-      <c r="N136" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="O136" t="inlineStr">
-        <is>
-          <t>18/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="P136" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="Q136" t="inlineStr">
-        <is>
-          <t>20/10/2023 09:57</t>
-        </is>
-      </c>
-      <c r="R136" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="S136" t="inlineStr">
-        <is>
-          <t>18/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="T136" t="n">
-        <v>4.38</v>
-      </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>20/10/2023 09:57</t>
+          <t>20/10/2023 09:49</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-persebaya/jP3ZWZSE/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-psis-semarang/CY4VXFD8/</t>
         </is>
       </c>
     </row>
@@ -12993,22 +12993,22 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Persebaya</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J137" t="n">
-        <v>2.99</v>
+        <v>1.89</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,15 +13016,15 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>3.66</v>
+        <v>1.76</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>20/10/2023 09:49</t>
+          <t>20/10/2023 09:57</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.24</v>
+        <v>3.54</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -13032,15 +13032,15 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>3.27</v>
+        <v>3.84</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>20/10/2023 09:49</t>
+          <t>20/10/2023 09:57</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>2.18</v>
+        <v>3.43</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
@@ -13048,16 +13048,16 @@
         </is>
       </c>
       <c r="T137" t="n">
-        <v>1.89</v>
+        <v>4.38</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>20/10/2023 09:49</t>
+          <t>20/10/2023 09:57</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-psis-semarang/CY4VXFD8/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-persebaya/jP3ZWZSE/</t>
         </is>
       </c>
     </row>
@@ -14530,6 +14530,98 @@
       <c r="V153" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-persita/AF99DTs0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45231.54166666666</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Madura United</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Persib Bandung</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>31/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>01/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>31/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P154" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>01/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="R154" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>31/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T154" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>01/11/2023 12:33</t>
+        </is>
+      </c>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/madura-united-persib-bandung/GhWzUlSt/</t>
         </is>
       </c>
     </row>

--- a/2023/indonesia_liga-1_2023-2024.xlsx
+++ b/2023/indonesia_liga-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V154"/>
+  <dimension ref="A1:V155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14625,6 +14625,98 @@
         </is>
       </c>
     </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45232.375</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Arema FC</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>2</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Dewa United</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>31/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:59</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>31/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P155" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:59</t>
+        </is>
+      </c>
+      <c r="R155" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>31/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T155" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:58</t>
+        </is>
+      </c>
+      <c r="V155" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/arema-fc-dewa-united/4E2IB7CC/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/indonesia_liga-1_2023-2024.xlsx
+++ b/2023/indonesia_liga-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V155"/>
+  <dimension ref="A1:V157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.52</v>
+        <v>1.71</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.85</v>
+        <v>2.08</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>15/07/2023 09:59</t>
+          <t>15/07/2023 09:52</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.33</v>
+        <v>3.61</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.45</v>
+        <v>3.29</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>15/07/2023 09:50</t>
+          <t>15/07/2023 09:52</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.54</v>
+        <v>4.32</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.4</v>
+        <v>3.66</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>15/07/2023 09:59</t>
+          <t>15/07/2023 09:52</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persita/nczZfRc7/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-arema-fc/vXWQdmTf/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.71</v>
+        <v>2.52</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.08</v>
+        <v>2.85</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>15/07/2023 09:52</t>
+          <t>15/07/2023 09:59</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.61</v>
+        <v>3.33</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.29</v>
+        <v>3.45</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>15/07/2023 09:52</t>
+          <t>15/07/2023 09:50</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>4.32</v>
+        <v>2.54</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.66</v>
+        <v>2.4</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>15/07/2023 09:52</t>
+          <t>15/07/2023 09:59</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-arema-fc/vXWQdmTf/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persita/nczZfRc7/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,14 +2605,14 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.81</v>
+        <v>1.86</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>1.96</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>15/07/2023 13:57</t>
+          <t>15/07/2023 13:58</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.38</v>
+        <v>3.69</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.49</v>
+        <v>3.61</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>15/07/2023 13:57</t>
+          <t>15/07/2023 13:58</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.27</v>
+        <v>3.52</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.29</v>
+        <v>3.7</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>15/07/2023 13:57</t>
+          <t>15/07/2023 13:58</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-borneo/d8sMcTDl/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-madura-united/INVUe7r1/</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2697,14 +2697,14 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1.86</v>
+        <v>2.81</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.96</v>
+        <v>3</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>15/07/2023 13:58</t>
+          <t>15/07/2023 13:57</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.69</v>
+        <v>3.38</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.61</v>
+        <v>3.49</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>15/07/2023 13:58</t>
+          <t>15/07/2023 13:57</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.52</v>
+        <v>2.27</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.7</v>
+        <v>2.29</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>15/07/2023 13:58</t>
+          <t>15/07/2023 13:57</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-madura-united/INVUe7r1/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-borneo/d8sMcTDl/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.32</v>
+        <v>1.65</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.79</v>
+        <v>1.61</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.26</v>
+        <v>3.8</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.5</v>
+        <v>4.15</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>30/07/2023 09:58</t>
+          <t>30/07/2023 09:55</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.75</v>
+        <v>4.48</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.42</v>
+        <v>5.06</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>30/07/2023 09:55</t>
+          <t>30/07/2023 09:51</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-pss-sleman/pCUpNqs0/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-arema-fc/tvOgLNBC/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.65</v>
+        <v>2.32</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.61</v>
+        <v>2.79</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.8</v>
+        <v>3.26</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,32 +4384,32 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>4.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
+          <t>30/07/2023 09:58</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>28/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
           <t>30/07/2023 09:55</t>
         </is>
       </c>
-      <c r="R43" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>28/07/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T43" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>30/07/2023 09:51</t>
-        </is>
-      </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-arema-fc/tvOgLNBC/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-pss-sleman/pCUpNqs0/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Persebaya</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>1.62</v>
+        <v>2.12</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.67</v>
+        <v>2.34</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>30/07/2023 13:52</t>
+          <t>30/07/2023 13:51</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.93</v>
+        <v>3.31</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.9</v>
+        <v>3.44</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>30/07/2023 13:52</t>
+          <t>30/07/2023 13:51</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.54</v>
+        <v>3.13</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.97</v>
+        <v>2.94</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>30/07/2023 13:52</t>
+          <t>30/07/2023 13:51</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persebaya/2mPkM3d6/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-madura-united/z1NcKsRI/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Persebaya</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.12</v>
+        <v>1.62</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.34</v>
+        <v>1.67</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>30/07/2023 13:51</t>
+          <t>30/07/2023 13:52</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.31</v>
+        <v>3.93</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.44</v>
+        <v>3.9</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>30/07/2023 13:51</t>
+          <t>30/07/2023 13:52</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.13</v>
+        <v>4.54</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.94</v>
+        <v>4.97</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>30/07/2023 13:51</t>
+          <t>30/07/2023 13:52</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-madura-united/z1NcKsRI/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persebaya/2mPkM3d6/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Persebaya</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1.51</v>
+        <v>2.28</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.61</v>
+        <v>2.23</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>4.07</v>
+        <v>3.27</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>4.32</v>
+        <v>3.53</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>04/08/2023 09:45</t>
+          <t>04/08/2023 09:57</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>5.42</v>
+        <v>2.81</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.92</v>
+        <v>3.07</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persebaya-persikabo-1973/d8JF9oUc/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persis-solo/IN7O7PbA/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Persebaya</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>2.28</v>
+        <v>1.51</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.23</v>
+        <v>1.61</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.27</v>
+        <v>4.07</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,32 +5028,32 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.53</v>
+        <v>4.32</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
+          <t>04/08/2023 09:45</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>02/08/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
           <t>04/08/2023 09:57</t>
         </is>
       </c>
-      <c r="R50" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>02/08/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T50" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>04/08/2023 09:57</t>
-        </is>
-      </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persis-solo/IN7O7PbA/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persebaya-persikabo-1973/d8JF9oUc/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>1.39</v>
+        <v>3.91</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.52</v>
+        <v>3.19</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>04/08/2023 13:56</t>
+          <t>04/08/2023 13:55</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>4.98</v>
+        <v>3.52</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>4.68</v>
+        <v>2.99</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>04/08/2023 13:56</t>
+          <t>04/08/2023 13:50</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>5.82</v>
+        <v>1.81</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>5.33</v>
+        <v>2.44</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>04/08/2023 13:56</t>
+          <t>04/08/2023 13:55</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-rans-nusantara/WQBS6qEG/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-persija-jakarta/zaIJ85q4/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,14 +5181,14 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>3.91</v>
+        <v>1.39</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3.19</v>
+        <v>1.52</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>04/08/2023 13:55</t>
+          <t>04/08/2023 13:56</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.52</v>
+        <v>4.98</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>2.99</v>
+        <v>4.68</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>04/08/2023 13:50</t>
+          <t>04/08/2023 13:56</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>1.81</v>
+        <v>5.82</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.44</v>
+        <v>5.33</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>04/08/2023 13:55</t>
+          <t>04/08/2023 13:56</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-persija-jakarta/zaIJ85q4/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-rans-nusantara/WQBS6qEG/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,14 +5917,14 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.49</v>
+        <v>3.71</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.55</v>
+        <v>3.44</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>09/08/2023 09:57</t>
+          <t>09/08/2023 09:59</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.16</v>
+        <v>4.45</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.36</v>
+        <v>4.07</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>09/08/2023 09:59</t>
+          <t>09/08/2023 09:58</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-dewa-united/zLgfLrT9/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/psis-semarang-arema-fc/4fbbK2rG/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,14 +6009,14 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.92</v>
+        <v>2.09</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.71</v>
+        <v>3.49</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,32 +6040,32 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.44</v>
+        <v>3.55</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
+          <t>09/08/2023 09:57</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>07/08/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
           <t>09/08/2023 09:59</t>
         </is>
       </c>
-      <c r="R61" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>07/08/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T61" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>09/08/2023 09:58</t>
-        </is>
-      </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/psis-semarang-arema-fc/4fbbK2rG/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-dewa-united/zLgfLrT9/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>1.76</v>
+        <v>2.11</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.59</v>
+        <v>1.86</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>25/08/2023 09:55</t>
+          <t>25/08/2023 09:58</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.57</v>
+        <v>3.28</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>4</v>
+        <v>3.69</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>25/08/2023 09:55</t>
+          <t>25/08/2023 09:58</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.95</v>
+        <v>3.11</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>5.59</v>
+        <v>4.02</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>25/08/2023 09:55</t>
+          <t>25/08/2023 09:58</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/madura-united-fc-bhayangkara/AFRgvcZl/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-psis-semarang/SjxkuwKr/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>2.11</v>
+        <v>1.76</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.86</v>
+        <v>1.59</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>25/08/2023 09:58</t>
+          <t>25/08/2023 09:55</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.28</v>
+        <v>3.57</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.69</v>
+        <v>4</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>25/08/2023 09:58</t>
+          <t>25/08/2023 09:55</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.11</v>
+        <v>3.95</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>4.02</v>
+        <v>5.59</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>25/08/2023 09:58</t>
+          <t>25/08/2023 09:55</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-psis-semarang/SjxkuwKr/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/madura-united-fc-bhayangkara/AFRgvcZl/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>3.11</v>
+        <v>1.85</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.6</v>
+        <v>1.64</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.17</v>
+        <v>3.73</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.11</v>
+        <v>3.9</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.15</v>
+        <v>3.51</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.84</v>
+        <v>5.27</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persija-jakarta/IuV1xy41/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persita/l6QcwHle/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1.85</v>
+        <v>3.11</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.64</v>
+        <v>2.6</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.73</v>
+        <v>3.17</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.9</v>
+        <v>3.11</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.51</v>
+        <v>2.15</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>5.27</v>
+        <v>2.84</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persita/l6QcwHle/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persija-jakarta/IuV1xy41/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Persib Bandung</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>2.42</v>
+        <v>1.96</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.2</v>
+        <v>1.96</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>02/09/2023 09:51</t>
+          <t>02/09/2023 09:57</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.25</v>
+        <v>3.33</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.16</v>
+        <v>3.19</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>02/09/2023 09:51</t>
+          <t>02/09/2023 09:57</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2.7</v>
+        <v>3.44</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>3.5</v>
+        <v>4.27</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>02/09/2023 09:51</t>
+          <t>02/09/2023 09:57</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persik-kediri/d47Yx8fC/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persib-bandung/vTdwxS9I/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,14 +9045,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Persib Bandung</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1.96</v>
+        <v>2.42</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.96</v>
+        <v>2.2</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>02/09/2023 09:57</t>
+          <t>02/09/2023 09:51</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.33</v>
+        <v>3.25</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.19</v>
+        <v>3.16</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>02/09/2023 09:57</t>
+          <t>02/09/2023 09:51</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>3.44</v>
+        <v>2.7</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>4.27</v>
+        <v>3.5</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>02/09/2023 09:57</t>
+          <t>02/09/2023 09:51</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persib-bandung/vTdwxS9I/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persik-kediri/d47Yx8fC/</t>
         </is>
       </c>
     </row>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Persebaya</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>2.49</v>
+        <v>2.6</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>01/09/2023 22:13</t>
+          <t>01/09/2023 22:12</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.74</v>
+        <v>4.06</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>03/09/2023 09:59</t>
+          <t>03/09/2023 09:13</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.11</v>
+        <v>3.1</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>01/09/2023 22:13</t>
+          <t>01/09/2023 22:12</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.26</v>
+        <v>3.54</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>03/09/2023 09:58</t>
+          <t>03/09/2023 09:19</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.71</v>
+        <v>2.51</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>01/09/2023 22:13</t>
+          <t>01/09/2023 22:12</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>2.59</v>
+        <v>1.89</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>03/09/2023 09:59</t>
+          <t>03/09/2023 09:19</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persebaya-borneo/j7Qef9Pn/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-dewa-united/lv4QvUPa/</t>
         </is>
       </c>
     </row>
@@ -9313,71 +9313,71 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>Persebaya</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>2.6</v>
+        <v>2.49</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>01/09/2023 22:12</t>
+          <t>01/09/2023 22:13</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>4.06</v>
+        <v>2.74</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>03/09/2023 09:13</t>
+          <t>03/09/2023 09:59</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>01/09/2023 22:12</t>
+          <t>01/09/2023 22:13</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.54</v>
+        <v>3.26</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>03/09/2023 09:19</t>
+          <t>03/09/2023 09:58</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>2.51</v>
+        <v>2.71</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>01/09/2023 22:12</t>
+          <t>01/09/2023 22:13</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>1.89</v>
+        <v>2.59</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>03/09/2023 09:19</t>
+          <t>03/09/2023 09:59</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-dewa-united/lv4QvUPa/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persebaya-borneo/j7Qef9Pn/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>PSM Makassar</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>1.79</v>
+        <v>3.26</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1.81</v>
+        <v>2.98</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>03/09/2023 13:59</t>
+          <t>03/09/2023 13:52</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.65</v>
+        <v>3.14</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.73</v>
+        <v>3.13</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>03/09/2023 13:59</t>
+          <t>03/09/2023 13:52</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.83</v>
+        <v>2.14</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>4.19</v>
+        <v>2.48</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>03/09/2023 13:53</t>
+          <t>03/09/2023 13:52</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-persis-solo/8ryiekAt/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-psm-makassar/6ZlPaV1P/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>PSM Makassar</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>3.26</v>
+        <v>1.79</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.98</v>
+        <v>1.81</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>03/09/2023 13:52</t>
+          <t>03/09/2023 13:59</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.14</v>
+        <v>3.65</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.13</v>
+        <v>3.73</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>03/09/2023 13:52</t>
+          <t>03/09/2023 13:59</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>2.14</v>
+        <v>3.83</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>2.48</v>
+        <v>4.19</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>03/09/2023 13:52</t>
+          <t>03/09/2023 13:53</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-psm-makassar/6ZlPaV1P/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-persis-solo/8ryiekAt/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="I101" t="n">
         <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>1.95</v>
+        <v>1.56</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>15/09/2023 13:59</t>
+          <t>15/09/2023 13:58</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.36</v>
+        <v>4.45</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.62</v>
+        <v>3.65</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>15/09/2023 13:59</t>
+          <t>15/09/2023 13:58</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>3.41</v>
+        <v>4.38</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>4.68</v>
+        <v>4.71</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-fc-bhayangkara/d4T3hmfa/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-rans-nusantara/zeS7i795/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="I102" t="n">
         <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>1.56</v>
+        <v>1.95</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,48 +9796,48 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
+          <t>15/09/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>14/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>15/09/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>14/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
           <t>15/09/2023 13:58</t>
         </is>
       </c>
-      <c r="N102" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>14/09/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P102" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q102" t="inlineStr">
-        <is>
-          <t>15/09/2023 13:58</t>
-        </is>
-      </c>
-      <c r="R102" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>14/09/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T102" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="U102" t="inlineStr">
-        <is>
-          <t>15/09/2023 13:58</t>
-        </is>
-      </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-rans-nusantara/zeS7i795/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-fc-bhayangkara/d4T3hmfa/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,11 +12081,11 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J127" t="n">
         <v>2.54</v>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>3.07</v>
+        <v>3.74</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>06/10/2023 09:52</t>
+          <t>06/10/2023 09:56</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.19</v>
+        <v>3.24</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.19</v>
+        <v>3.73</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>06/10/2023 09:52</t>
+          <t>06/10/2023 09:58</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>2.39</v>
+        <v>1.92</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>06/10/2023 09:52</t>
+          <t>06/10/2023 09:56</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-psis-semarang/j15nYO7i/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persis-solo/OE3fW2x4/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,11 +12173,11 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
         <v>2.54</v>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>3.74</v>
+        <v>3.07</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>06/10/2023 09:56</t>
+          <t>06/10/2023 09:52</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.24</v>
+        <v>3.19</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.73</v>
+        <v>3.19</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>06/10/2023 09:58</t>
+          <t>06/10/2023 09:52</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>1.92</v>
+        <v>2.39</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>06/10/2023 09:56</t>
+          <t>06/10/2023 09:52</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persis-solo/OE3fW2x4/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-psis-semarang/j15nYO7i/</t>
         </is>
       </c>
     </row>
@@ -12717,22 +12717,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="I134" t="n">
         <v>2</v>
       </c>
       <c r="J134" t="n">
-        <v>2.18</v>
+        <v>2.71</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>2.07</v>
+        <v>3.01</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>08/10/2023 13:53</t>
+          <t>08/10/2023 13:51</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.22</v>
+        <v>3.33</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3.22</v>
+        <v>3.52</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>08/10/2023 13:53</t>
+          <t>08/10/2023 12:26</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>3.02</v>
+        <v>2.31</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>3.8</v>
+        <v>2.27</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>08/10/2023 13:53</t>
+          <t>08/10/2023 13:51</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-persik-kediri/QuPzCYjk/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-bali-united/neDqACL1/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="I135" t="n">
         <v>2</v>
       </c>
       <c r="J135" t="n">
-        <v>2.71</v>
+        <v>2.18</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>3.01</v>
+        <v>2.07</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>08/10/2023 13:51</t>
+          <t>08/10/2023 13:53</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.33</v>
+        <v>3.22</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.52</v>
+        <v>3.22</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>08/10/2023 12:26</t>
+          <t>08/10/2023 13:53</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>2.31</v>
+        <v>3.02</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>2.27</v>
+        <v>3.8</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>08/10/2023 13:51</t>
+          <t>08/10/2023 13:53</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-bali-united/neDqACL1/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-persik-kediri/QuPzCYjk/</t>
         </is>
       </c>
     </row>
@@ -14714,6 +14714,190 @@
       <c r="V155" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/indonesia/liga-1/arema-fc-dewa-united/4E2IB7CC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45232.54166666666</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Borneo</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>3</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Persik Kediri</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>01/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>02/11/2023 12:54</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>01/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P156" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>02/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R156" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>01/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T156" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>02/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V156" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persik-kediri/ABg8YUJP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45232.54166666666</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>FC Bhayangkara</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>1</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>PSIS Semarang</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>01/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>02/11/2023 12:56</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>01/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P157" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>02/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R157" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>01/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T157" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>02/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V157" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-psis-semarang/29YnRnCa/</t>
         </is>
       </c>
     </row>

--- a/2023/indonesia_liga-1_2023-2024.xlsx
+++ b/2023/indonesia_liga-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V157"/>
+  <dimension ref="A1:V159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1.71</v>
+        <v>2.52</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.08</v>
+        <v>2.85</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>15/07/2023 09:52</t>
+          <t>15/07/2023 09:59</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.61</v>
+        <v>3.33</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.29</v>
+        <v>3.45</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>15/07/2023 09:52</t>
+          <t>15/07/2023 09:50</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>4.32</v>
+        <v>2.54</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.66</v>
+        <v>2.4</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>15/07/2023 09:52</t>
+          <t>15/07/2023 09:59</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-arema-fc/vXWQdmTf/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persita/nczZfRc7/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>2.52</v>
+        <v>1.71</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.85</v>
+        <v>2.08</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>15/07/2023 09:59</t>
+          <t>15/07/2023 09:52</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.33</v>
+        <v>3.61</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.45</v>
+        <v>3.29</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>15/07/2023 09:50</t>
+          <t>15/07/2023 09:52</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.54</v>
+        <v>4.32</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.4</v>
+        <v>3.66</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>15/07/2023 09:59</t>
+          <t>15/07/2023 09:52</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persita/nczZfRc7/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-arema-fc/vXWQdmTf/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.65</v>
+        <v>2.32</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.61</v>
+        <v>2.79</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.8</v>
+        <v>3.26</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,32 +4292,32 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>4.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
+          <t>30/07/2023 09:58</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>28/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
           <t>30/07/2023 09:55</t>
         </is>
       </c>
-      <c r="R42" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>28/07/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T42" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>30/07/2023 09:51</t>
-        </is>
-      </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-arema-fc/tvOgLNBC/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-pss-sleman/pCUpNqs0/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.32</v>
+        <v>1.65</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.79</v>
+        <v>1.61</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.26</v>
+        <v>3.8</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.5</v>
+        <v>4.15</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>30/07/2023 09:58</t>
+          <t>30/07/2023 09:55</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.75</v>
+        <v>4.48</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.42</v>
+        <v>5.06</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>30/07/2023 09:55</t>
+          <t>30/07/2023 09:51</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-pss-sleman/pCUpNqs0/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-arema-fc/tvOgLNBC/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,14 +5917,14 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.92</v>
+        <v>2.09</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.71</v>
+        <v>3.49</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,32 +5948,32 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.44</v>
+        <v>3.55</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
+          <t>09/08/2023 09:57</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>07/08/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
           <t>09/08/2023 09:59</t>
         </is>
       </c>
-      <c r="R60" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>07/08/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T60" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>09/08/2023 09:58</t>
-        </is>
-      </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/psis-semarang-arema-fc/4fbbK2rG/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-dewa-united/zLgfLrT9/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,14 +6009,14 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.49</v>
+        <v>3.71</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.55</v>
+        <v>3.44</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>09/08/2023 09:57</t>
+          <t>09/08/2023 09:59</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.16</v>
+        <v>4.45</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.36</v>
+        <v>4.07</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>09/08/2023 09:59</t>
+          <t>09/08/2023 09:58</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-dewa-united/zLgfLrT9/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/psis-semarang-arema-fc/4fbbK2rG/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.62</v>
+        <v>2.11</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.97</v>
+        <v>1.7</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>19/08/2023 13:58</t>
+          <t>19/08/2023 13:59</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.33</v>
+        <v>3.34</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>19/08/2023 13:56</t>
+          <t>19/08/2023 13:59</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.38</v>
+        <v>3.14</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.32</v>
+        <v>4.91</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>19/08/2023 13:58</t>
+          <t>19/08/2023 13:59</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-bali-united/bynJpadL/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-persik-kediri/KpmFousF/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>2.11</v>
+        <v>2.62</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.7</v>
+        <v>2.97</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>19/08/2023 13:59</t>
+          <t>19/08/2023 13:58</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.34</v>
+        <v>3.33</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>19/08/2023 13:59</t>
+          <t>19/08/2023 13:56</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.14</v>
+        <v>2.38</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>4.91</v>
+        <v>2.32</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>19/08/2023 13:59</t>
+          <t>19/08/2023 13:58</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-persik-kediri/KpmFousF/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-bali-united/bynJpadL/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1.85</v>
+        <v>3.11</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.64</v>
+        <v>2.6</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.73</v>
+        <v>3.17</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.9</v>
+        <v>3.11</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>3.51</v>
+        <v>2.15</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>5.27</v>
+        <v>2.84</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persita/l6QcwHle/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persija-jakarta/IuV1xy41/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>3.11</v>
+        <v>1.85</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.6</v>
+        <v>1.64</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.17</v>
+        <v>3.73</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.11</v>
+        <v>3.9</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.15</v>
+        <v>3.51</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.84</v>
+        <v>5.27</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persija-jakarta/IuV1xy41/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persita/l6QcwHle/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="I101" t="n">
         <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>1.56</v>
+        <v>1.95</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,48 +9704,48 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
+          <t>15/09/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>14/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>15/09/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>14/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
           <t>15/09/2023 13:58</t>
         </is>
       </c>
-      <c r="N101" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>14/09/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P101" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q101" t="inlineStr">
-        <is>
-          <t>15/09/2023 13:58</t>
-        </is>
-      </c>
-      <c r="R101" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t>14/09/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T101" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="U101" t="inlineStr">
-        <is>
-          <t>15/09/2023 13:58</t>
-        </is>
-      </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-rans-nusantara/zeS7i795/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-fc-bhayangkara/d4T3hmfa/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="I102" t="n">
         <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>1.95</v>
+        <v>1.56</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>15/09/2023 13:59</t>
+          <t>15/09/2023 13:58</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.36</v>
+        <v>4.45</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.62</v>
+        <v>3.65</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>15/09/2023 13:59</t>
+          <t>15/09/2023 13:58</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>3.41</v>
+        <v>4.38</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,7 +9828,7 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>4.68</v>
+        <v>4.71</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-fc-bhayangkara/d4T3hmfa/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-rans-nusantara/zeS7i795/</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -10241,14 +10241,14 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>2.82</v>
+        <v>1.56</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>3.07</v>
+        <v>1.5</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>17/09/2023 13:52</t>
+          <t>17/09/2023 13:53</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.09</v>
+        <v>4.05</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>2.94</v>
+        <v>4.47</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>17/09/2023 13:52</t>
+          <t>17/09/2023 13:53</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>2.37</v>
+        <v>4.92</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.55</v>
+        <v>6.08</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>17/09/2023 13:52</t>
+          <t>17/09/2023 13:53</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-persija-jakarta/r1kZ7Sgn/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-pss-sleman/4AjV88vt/</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -10333,14 +10333,14 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J108" t="n">
-        <v>1.56</v>
+        <v>2.82</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1.5</v>
+        <v>3.07</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>17/09/2023 13:53</t>
+          <t>17/09/2023 13:52</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>4.05</v>
+        <v>3.09</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>4.47</v>
+        <v>2.94</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>17/09/2023 13:53</t>
+          <t>17/09/2023 13:52</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>4.92</v>
+        <v>2.37</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>6.08</v>
+        <v>2.55</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>17/09/2023 13:53</t>
+          <t>17/09/2023 13:52</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-pss-sleman/4AjV88vt/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-persija-jakarta/r1kZ7Sgn/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,11 +12081,11 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
         <v>2.54</v>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>3.74</v>
+        <v>3.07</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>06/10/2023 09:56</t>
+          <t>06/10/2023 09:52</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.24</v>
+        <v>3.19</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.73</v>
+        <v>3.19</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>06/10/2023 09:58</t>
+          <t>06/10/2023 09:52</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>1.92</v>
+        <v>2.39</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>06/10/2023 09:56</t>
+          <t>06/10/2023 09:52</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persis-solo/OE3fW2x4/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-psis-semarang/j15nYO7i/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,11 +12173,11 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J128" t="n">
         <v>2.54</v>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>3.07</v>
+        <v>3.74</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>06/10/2023 09:52</t>
+          <t>06/10/2023 09:56</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.19</v>
+        <v>3.24</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.19</v>
+        <v>3.73</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>06/10/2023 09:52</t>
+          <t>06/10/2023 09:58</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>2.39</v>
+        <v>1.92</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>06/10/2023 09:52</t>
+          <t>06/10/2023 09:56</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-psis-semarang/j15nYO7i/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persis-solo/OE3fW2x4/</t>
         </is>
       </c>
     </row>
@@ -12901,22 +12901,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Persebaya</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J136" t="n">
-        <v>2.99</v>
+        <v>1.89</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>3.66</v>
+        <v>1.76</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>20/10/2023 09:49</t>
+          <t>20/10/2023 09:57</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.24</v>
+        <v>3.54</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.27</v>
+        <v>3.84</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>20/10/2023 09:49</t>
+          <t>20/10/2023 09:57</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>2.18</v>
+        <v>3.43</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>1.89</v>
+        <v>4.38</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>20/10/2023 09:49</t>
+          <t>20/10/2023 09:57</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-psis-semarang/CY4VXFD8/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-persebaya/jP3ZWZSE/</t>
         </is>
       </c>
     </row>
@@ -12993,71 +12993,71 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G137" t="n">
+        <v>2</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>PSIS Semarang</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
         <v>3</v>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>Persebaya</t>
-        </is>
-      </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
       <c r="J137" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>18/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>20/10/2023 09:49</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>18/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>20/10/2023 09:49</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>18/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
         <v>1.89</v>
       </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>18/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>20/10/2023 09:57</t>
-        </is>
-      </c>
-      <c r="N137" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="O137" t="inlineStr">
-        <is>
-          <t>18/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="P137" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="Q137" t="inlineStr">
-        <is>
-          <t>20/10/2023 09:57</t>
-        </is>
-      </c>
-      <c r="R137" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="S137" t="inlineStr">
-        <is>
-          <t>18/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="T137" t="n">
-        <v>4.38</v>
-      </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>20/10/2023 09:57</t>
+          <t>20/10/2023 09:49</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-persebaya/jP3ZWZSE/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-psis-semarang/CY4VXFD8/</t>
         </is>
       </c>
     </row>
@@ -14898,6 +14898,190 @@
       <c r="V157" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-psis-semarang/29YnRnCa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45233.375</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>PSS Sleman</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Bali United</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>01/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>03/11/2023 08:58</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>01/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P158" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>03/11/2023 08:58</t>
+        </is>
+      </c>
+      <c r="R158" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>01/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T158" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>03/11/2023 08:58</t>
+        </is>
+      </c>
+      <c r="V158" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-bali-united/MkDDCmc6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45233.54166666666</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>PSM Makassar</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>2</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Persija Jakarta</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>3</v>
+      </c>
+      <c r="J159" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>03/11/2023 12:56</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P159" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>03/11/2023 12:55</t>
+        </is>
+      </c>
+      <c r="R159" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T159" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="U159" t="inlineStr">
+        <is>
+          <t>03/11/2023 12:56</t>
+        </is>
+      </c>
+      <c r="V159" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/psm-makassar-persija-jakarta/r51MARRI/</t>
         </is>
       </c>
     </row>

--- a/2023/indonesia_liga-1_2023-2024.xlsx
+++ b/2023/indonesia_liga-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V159"/>
+  <dimension ref="A1:V161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.52</v>
+        <v>1.71</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.85</v>
+        <v>2.08</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>15/07/2023 09:59</t>
+          <t>15/07/2023 09:52</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.33</v>
+        <v>3.61</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.45</v>
+        <v>3.29</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>15/07/2023 09:50</t>
+          <t>15/07/2023 09:52</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.54</v>
+        <v>4.32</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.4</v>
+        <v>3.66</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>15/07/2023 09:59</t>
+          <t>15/07/2023 09:52</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persita/nczZfRc7/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-arema-fc/vXWQdmTf/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.71</v>
+        <v>2.52</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.08</v>
+        <v>2.85</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>15/07/2023 09:52</t>
+          <t>15/07/2023 09:59</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.61</v>
+        <v>3.33</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.29</v>
+        <v>3.45</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>15/07/2023 09:52</t>
+          <t>15/07/2023 09:50</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>4.32</v>
+        <v>2.54</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.66</v>
+        <v>2.4</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>15/07/2023 09:52</t>
+          <t>15/07/2023 09:59</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-arema-fc/vXWQdmTf/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persita/nczZfRc7/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J76" t="n">
-        <v>2.38</v>
+        <v>2.79</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,11 +7404,11 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.33</v>
+        <v>2.94</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>19/08/2023 09:51</t>
+          <t>19/08/2023 09:55</t>
         </is>
       </c>
       <c r="N76" t="n">
@@ -7420,7 +7420,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.29</v>
+        <v>3.38</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.71</v>
+        <v>2.32</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.08</v>
+        <v>2.37</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-dewa-united/AF5OOHZ1/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-madura-united/zcDBRJkq/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.79</v>
+        <v>2.38</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,11 +7496,11 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.94</v>
+        <v>2.33</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>19/08/2023 09:55</t>
+          <t>19/08/2023 09:51</t>
         </is>
       </c>
       <c r="N77" t="n">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.38</v>
+        <v>3.29</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.32</v>
+        <v>2.71</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.37</v>
+        <v>3.08</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-madura-united/zcDBRJkq/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-dewa-united/AF5OOHZ1/</t>
         </is>
       </c>
     </row>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>Persebaya</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>2.6</v>
+        <v>2.49</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>01/09/2023 22:12</t>
+          <t>01/09/2023 22:13</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>4.06</v>
+        <v>2.74</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>03/09/2023 09:13</t>
+          <t>03/09/2023 09:59</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>01/09/2023 22:12</t>
+          <t>01/09/2023 22:13</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.54</v>
+        <v>3.26</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>03/09/2023 09:19</t>
+          <t>03/09/2023 09:58</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.51</v>
+        <v>2.71</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>01/09/2023 22:12</t>
+          <t>01/09/2023 22:13</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>1.89</v>
+        <v>2.59</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>03/09/2023 09:19</t>
+          <t>03/09/2023 09:59</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-dewa-united/lv4QvUPa/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persebaya-borneo/j7Qef9Pn/</t>
         </is>
       </c>
     </row>
@@ -9313,71 +9313,71 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Persebaya</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>2.49</v>
+        <v>2.6</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>01/09/2023 22:13</t>
+          <t>01/09/2023 22:12</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.74</v>
+        <v>4.06</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>03/09/2023 09:59</t>
+          <t>03/09/2023 09:13</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.11</v>
+        <v>3.1</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>01/09/2023 22:13</t>
+          <t>01/09/2023 22:12</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.26</v>
+        <v>3.54</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>03/09/2023 09:58</t>
+          <t>03/09/2023 09:19</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>2.71</v>
+        <v>2.51</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>01/09/2023 22:13</t>
+          <t>01/09/2023 22:12</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>2.59</v>
+        <v>1.89</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>03/09/2023 09:59</t>
+          <t>03/09/2023 09:19</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persebaya-borneo/j7Qef9Pn/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-dewa-united/lv4QvUPa/</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -10241,14 +10241,14 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J107" t="n">
-        <v>1.56</v>
+        <v>2.82</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.5</v>
+        <v>3.07</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>17/09/2023 13:53</t>
+          <t>17/09/2023 13:52</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>4.05</v>
+        <v>3.09</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>4.47</v>
+        <v>2.94</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>17/09/2023 13:53</t>
+          <t>17/09/2023 13:52</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>4.92</v>
+        <v>2.37</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>6.08</v>
+        <v>2.55</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>17/09/2023 13:53</t>
+          <t>17/09/2023 13:52</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-pss-sleman/4AjV88vt/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-persija-jakarta/r1kZ7Sgn/</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -10333,14 +10333,14 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>2.82</v>
+        <v>1.56</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>3.07</v>
+        <v>1.5</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>17/09/2023 13:52</t>
+          <t>17/09/2023 13:53</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.09</v>
+        <v>4.05</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>2.94</v>
+        <v>4.47</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>17/09/2023 13:52</t>
+          <t>17/09/2023 13:53</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>2.37</v>
+        <v>4.92</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>2.55</v>
+        <v>6.08</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>17/09/2023 13:52</t>
+          <t>17/09/2023 13:53</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-persija-jakarta/r1kZ7Sgn/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-pss-sleman/4AjV88vt/</t>
         </is>
       </c>
     </row>
@@ -13177,22 +13177,22 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J139" t="n">
-        <v>2.53</v>
+        <v>2.52</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         </is>
       </c>
       <c r="L139" t="n">
-        <v>2.9</v>
+        <v>2.28</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.21</v>
+        <v>3.09</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
@@ -13216,15 +13216,15 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.22</v>
+        <v>3.29</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>21/10/2023 09:57</t>
+          <t>21/10/2023 09:59</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>2.53</v>
+        <v>2.63</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
@@ -13232,16 +13232,16 @@
         </is>
       </c>
       <c r="T139" t="n">
-        <v>2.49</v>
+        <v>3.17</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>21/10/2023 09:59</t>
+          <t>21/10/2023 09:55</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-ps-barito-putera/80bvWgrL/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-persik-kediri/nicrVDcR/</t>
         </is>
       </c>
     </row>
@@ -13269,22 +13269,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="I140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>2.52</v>
+        <v>2.53</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>2.28</v>
+        <v>2.9</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.09</v>
+        <v>3.21</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,32 +13308,32 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.29</v>
+        <v>3.22</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
+          <t>21/10/2023 09:57</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>19/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
           <t>21/10/2023 09:59</t>
         </is>
       </c>
-      <c r="R140" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="S140" t="inlineStr">
-        <is>
-          <t>19/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="T140" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="U140" t="inlineStr">
-        <is>
-          <t>21/10/2023 09:55</t>
-        </is>
-      </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-persik-kediri/nicrVDcR/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-ps-barito-putera/80bvWgrL/</t>
         </is>
       </c>
     </row>
@@ -15082,6 +15082,190 @@
       <c r="V159" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/indonesia/liga-1/psm-makassar-persija-jakarta/r51MARRI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45234.375</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Persikabo 1973</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>2</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>RANS Nusantara</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>02/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>04/11/2023 08:53</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>02/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P160" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>04/11/2023 08:52</t>
+        </is>
+      </c>
+      <c r="R160" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>02/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T160" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U160" t="inlineStr">
+        <is>
+          <t>04/11/2023 08:53</t>
+        </is>
+      </c>
+      <c r="V160" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-rans-nusantara/UezuT8sm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45234.54166666666</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Persita</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>2</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Barito Putera</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>2</v>
+      </c>
+      <c r="J161" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:53</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P161" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:53</t>
+        </is>
+      </c>
+      <c r="R161" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T161" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="U161" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:53</t>
+        </is>
+      </c>
+      <c r="V161" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-ps-barito-putera/OIZrSSdg/</t>
         </is>
       </c>
     </row>

--- a/2023/indonesia_liga-1_2023-2024.xlsx
+++ b/2023/indonesia_liga-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V161"/>
+  <dimension ref="A1:V163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1.71</v>
+        <v>2.52</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.08</v>
+        <v>2.85</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>15/07/2023 09:52</t>
+          <t>15/07/2023 09:59</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.61</v>
+        <v>3.33</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.29</v>
+        <v>3.45</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>15/07/2023 09:52</t>
+          <t>15/07/2023 09:50</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>4.32</v>
+        <v>2.54</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.66</v>
+        <v>2.4</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>15/07/2023 09:52</t>
+          <t>15/07/2023 09:59</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-arema-fc/vXWQdmTf/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persita/nczZfRc7/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>2.52</v>
+        <v>1.71</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.85</v>
+        <v>2.08</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>15/07/2023 09:59</t>
+          <t>15/07/2023 09:52</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.33</v>
+        <v>3.61</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.45</v>
+        <v>3.29</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>15/07/2023 09:50</t>
+          <t>15/07/2023 09:52</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.54</v>
+        <v>4.32</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.4</v>
+        <v>3.66</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>15/07/2023 09:59</t>
+          <t>15/07/2023 09:52</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persita/nczZfRc7/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-arema-fc/vXWQdmTf/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>2.69</v>
+        <v>2.25</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.35</v>
+        <v>4.33</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.32</v>
+        <v>3.15</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.96</v>
+        <v>3.55</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.34</v>
+        <v>2.94</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2.63</v>
+        <v>1.83</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/psis-semarang-borneo/ENj2V7ZJ/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persita/hEk6URlQ/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>2.25</v>
+        <v>2.69</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>4.33</v>
+        <v>2.35</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.15</v>
+        <v>3.32</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.55</v>
+        <v>3.96</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.94</v>
+        <v>2.34</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>1.83</v>
+        <v>2.63</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persita/hEk6URlQ/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/psis-semarang-borneo/ENj2V7ZJ/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>2.79</v>
+        <v>2.38</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,11 +7404,11 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.94</v>
+        <v>2.33</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>19/08/2023 09:55</t>
+          <t>19/08/2023 09:51</t>
         </is>
       </c>
       <c r="N76" t="n">
@@ -7420,7 +7420,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.38</v>
+        <v>3.29</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.32</v>
+        <v>2.71</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>2.37</v>
+        <v>3.08</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-madura-united/zcDBRJkq/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-dewa-united/AF5OOHZ1/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J77" t="n">
-        <v>2.38</v>
+        <v>2.79</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,11 +7496,11 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.33</v>
+        <v>2.94</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>19/08/2023 09:51</t>
+          <t>19/08/2023 09:55</t>
         </is>
       </c>
       <c r="N77" t="n">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.29</v>
+        <v>3.38</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.71</v>
+        <v>2.32</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.08</v>
+        <v>2.37</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-dewa-united/AF5OOHZ1/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-madura-united/zcDBRJkq/</t>
         </is>
       </c>
     </row>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Persebaya</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>2.49</v>
+        <v>2.6</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>01/09/2023 22:13</t>
+          <t>01/09/2023 22:12</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.74</v>
+        <v>4.06</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>03/09/2023 09:59</t>
+          <t>03/09/2023 09:13</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.11</v>
+        <v>3.1</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>01/09/2023 22:13</t>
+          <t>01/09/2023 22:12</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.26</v>
+        <v>3.54</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>03/09/2023 09:58</t>
+          <t>03/09/2023 09:19</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.71</v>
+        <v>2.51</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>01/09/2023 22:13</t>
+          <t>01/09/2023 22:12</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>2.59</v>
+        <v>1.89</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>03/09/2023 09:59</t>
+          <t>03/09/2023 09:19</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persebaya-borneo/j7Qef9Pn/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-dewa-united/lv4QvUPa/</t>
         </is>
       </c>
     </row>
@@ -9313,71 +9313,71 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>Persebaya</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>2.6</v>
+        <v>2.49</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>01/09/2023 22:12</t>
+          <t>01/09/2023 22:13</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>4.06</v>
+        <v>2.74</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>03/09/2023 09:13</t>
+          <t>03/09/2023 09:59</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>01/09/2023 22:12</t>
+          <t>01/09/2023 22:13</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.54</v>
+        <v>3.26</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>03/09/2023 09:19</t>
+          <t>03/09/2023 09:58</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>2.51</v>
+        <v>2.71</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>01/09/2023 22:12</t>
+          <t>01/09/2023 22:13</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>1.89</v>
+        <v>2.59</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>03/09/2023 09:19</t>
+          <t>03/09/2023 09:59</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-dewa-united/lv4QvUPa/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persebaya-borneo/j7Qef9Pn/</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -10241,14 +10241,14 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>2.82</v>
+        <v>1.56</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>3.07</v>
+        <v>1.5</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>17/09/2023 13:52</t>
+          <t>17/09/2023 13:53</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.09</v>
+        <v>4.05</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>2.94</v>
+        <v>4.47</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>17/09/2023 13:52</t>
+          <t>17/09/2023 13:53</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>2.37</v>
+        <v>4.92</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.55</v>
+        <v>6.08</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>17/09/2023 13:52</t>
+          <t>17/09/2023 13:53</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-persija-jakarta/r1kZ7Sgn/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-pss-sleman/4AjV88vt/</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -10333,14 +10333,14 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J108" t="n">
-        <v>1.56</v>
+        <v>2.82</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1.5</v>
+        <v>3.07</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>17/09/2023 13:53</t>
+          <t>17/09/2023 13:52</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>4.05</v>
+        <v>3.09</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>4.47</v>
+        <v>2.94</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>17/09/2023 13:53</t>
+          <t>17/09/2023 13:52</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>4.92</v>
+        <v>2.37</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>6.08</v>
+        <v>2.55</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>17/09/2023 13:53</t>
+          <t>17/09/2023 13:52</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-pss-sleman/4AjV88vt/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-persija-jakarta/r1kZ7Sgn/</t>
         </is>
       </c>
     </row>
@@ -12257,22 +12257,22 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I129" t="n">
         <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>3.87</v>
+        <v>1.74</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,15 +12280,15 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>3.69</v>
+        <v>1.56</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>06/10/2023 13:57</t>
+          <t>06/10/2023 13:43</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>3.45</v>
+        <v>3.56</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -12296,15 +12296,15 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>3.36</v>
+        <v>4.04</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>06/10/2023 13:57</t>
+          <t>06/10/2023 13:43</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>1.81</v>
+        <v>4.07</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -12312,16 +12312,16 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>2.04</v>
+        <v>5.98</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>06/10/2023 13:58</t>
+          <t>06/10/2023 13:43</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/arema-fc-borneo/Ui4jXrNc/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-pss-sleman/xI7bVMiA/</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12349,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="I130" t="n">
         <v>1</v>
       </c>
       <c r="J130" t="n">
-        <v>1.74</v>
+        <v>3.87</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,15 +12372,15 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>1.56</v>
+        <v>3.69</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>06/10/2023 13:43</t>
+          <t>06/10/2023 13:57</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.56</v>
+        <v>3.45</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>4.04</v>
+        <v>3.36</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>06/10/2023 13:43</t>
+          <t>06/10/2023 13:57</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>4.07</v>
+        <v>1.81</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>5.98</v>
+        <v>2.04</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>06/10/2023 13:43</t>
+          <t>06/10/2023 13:58</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-pss-sleman/xI7bVMiA/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/arema-fc-borneo/Ui4jXrNc/</t>
         </is>
       </c>
     </row>
@@ -15266,6 +15266,190 @@
       <c r="V161" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-ps-barito-putera/OIZrSSdg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45238.375</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Persib Bandung</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>2</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Arema FC</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>2</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>06/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>08/11/2023 08:55</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>06/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="P162" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>08/11/2023 08:55</t>
+        </is>
+      </c>
+      <c r="R162" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>06/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="T162" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="U162" t="inlineStr">
+        <is>
+          <t>08/11/2023 08:55</t>
+        </is>
+      </c>
+      <c r="V162" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-arema-fc/MBllPQtC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45238.375</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Persik Kediri</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>4</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Madura United</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>06/11/2023 21:11</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>08/11/2023 08:47</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>06/11/2023 21:11</t>
+        </is>
+      </c>
+      <c r="P163" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>08/11/2023 08:47</t>
+        </is>
+      </c>
+      <c r="R163" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>06/11/2023 21:11</t>
+        </is>
+      </c>
+      <c r="T163" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>08/11/2023 08:45</t>
+        </is>
+      </c>
+      <c r="V163" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-madura-united/rLkpQ6R5/</t>
         </is>
       </c>
     </row>

--- a/2023/indonesia_liga-1_2023-2024.xlsx
+++ b/2023/indonesia_liga-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V163"/>
+  <dimension ref="A1:V164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>PSM Makassar</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.56</v>
+        <v>3.73</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,48 +2160,48 @@
         </is>
       </c>
       <c r="L19" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>14/07/2023 09:53</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>12/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>14/07/2023 09:53</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
         <v>1.86</v>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>14/07/2023 09:58</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="O19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>12/07/2023 22:12</t>
         </is>
       </c>
-      <c r="P19" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>14/07/2023 09:57</t>
-        </is>
-      </c>
-      <c r="R19" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>12/07/2023 22:12</t>
-        </is>
-      </c>
       <c r="T19" t="n">
-        <v>3.05</v>
+        <v>2.11</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>14/07/2023 09:58</t>
+          <t>14/07/2023 09:53</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-pss-sleman/nZin4VzL/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-psm-makassar/QPjj3kjR/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>PSM Makassar</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.73</v>
+        <v>1.56</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3.53</v>
+        <v>1.86</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>14/07/2023 09:53</t>
+          <t>14/07/2023 09:58</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.49</v>
+        <v>4.07</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.33</v>
+        <v>3.27</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>14/07/2023 09:53</t>
+          <t>14/07/2023 09:57</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>1.86</v>
+        <v>4.9</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.11</v>
+        <v>3.05</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>14/07/2023 09:53</t>
+          <t>14/07/2023 09:58</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-psm-makassar/QPjj3kjR/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-pss-sleman/nZin4VzL/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.25</v>
+        <v>2.69</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>4.33</v>
+        <v>2.35</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.15</v>
+        <v>3.32</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.55</v>
+        <v>3.96</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.94</v>
+        <v>2.34</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>1.83</v>
+        <v>2.63</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persita/hEk6URlQ/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/psis-semarang-borneo/ENj2V7ZJ/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>2.69</v>
+        <v>2.25</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.35</v>
+        <v>4.33</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.32</v>
+        <v>3.15</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.96</v>
+        <v>3.55</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.34</v>
+        <v>2.94</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.63</v>
+        <v>1.83</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/psis-semarang-borneo/ENj2V7ZJ/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persita/hEk6URlQ/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Persebaya</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>2.28</v>
+        <v>1.51</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.23</v>
+        <v>1.61</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.27</v>
+        <v>4.07</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,32 +4936,32 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.53</v>
+        <v>4.32</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
+          <t>04/08/2023 09:45</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>02/08/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
           <t>04/08/2023 09:57</t>
         </is>
       </c>
-      <c r="R49" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>02/08/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T49" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>04/08/2023 09:57</t>
-        </is>
-      </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persis-solo/IN7O7PbA/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persebaya-persikabo-1973/d8JF9oUc/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Persebaya</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1.51</v>
+        <v>2.28</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.61</v>
+        <v>2.23</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>4.07</v>
+        <v>3.27</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>4.32</v>
+        <v>3.53</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>04/08/2023 09:45</t>
+          <t>04/08/2023 09:57</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>5.42</v>
+        <v>2.81</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.92</v>
+        <v>3.07</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persebaya-persikabo-1973/d8JF9oUc/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persis-solo/IN7O7PbA/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>3.91</v>
+        <v>1.39</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3.19</v>
+        <v>1.52</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>04/08/2023 13:55</t>
+          <t>04/08/2023 13:56</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.52</v>
+        <v>4.98</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>2.99</v>
+        <v>4.68</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>04/08/2023 13:50</t>
+          <t>04/08/2023 13:56</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>1.81</v>
+        <v>5.82</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.44</v>
+        <v>5.33</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>04/08/2023 13:55</t>
+          <t>04/08/2023 13:56</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-persija-jakarta/zaIJ85q4/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-rans-nusantara/WQBS6qEG/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,14 +5181,14 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>1.39</v>
+        <v>3.91</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.52</v>
+        <v>3.19</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>04/08/2023 13:56</t>
+          <t>04/08/2023 13:55</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>4.98</v>
+        <v>3.52</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>4.68</v>
+        <v>2.99</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>04/08/2023 13:56</t>
+          <t>04/08/2023 13:50</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>5.82</v>
+        <v>1.81</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>5.33</v>
+        <v>2.44</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>04/08/2023 13:56</t>
+          <t>04/08/2023 13:55</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-rans-nusantara/WQBS6qEG/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-persija-jakarta/zaIJ85q4/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>3.11</v>
+        <v>1.85</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.6</v>
+        <v>1.64</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.17</v>
+        <v>3.73</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.11</v>
+        <v>3.9</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.15</v>
+        <v>3.51</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.84</v>
+        <v>5.27</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persija-jakarta/IuV1xy41/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persita/l6QcwHle/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1.85</v>
+        <v>3.11</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.64</v>
+        <v>2.6</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.73</v>
+        <v>3.17</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.9</v>
+        <v>3.11</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.51</v>
+        <v>2.15</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>5.27</v>
+        <v>2.84</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persita/l6QcwHle/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persija-jakarta/IuV1xy41/</t>
         </is>
       </c>
     </row>
@@ -13177,22 +13177,22 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="I139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J139" t="n">
-        <v>2.52</v>
+        <v>2.53</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         </is>
       </c>
       <c r="L139" t="n">
-        <v>2.28</v>
+        <v>2.9</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.09</v>
+        <v>3.21</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
@@ -13216,32 +13216,32 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.29</v>
+        <v>3.22</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
+          <t>21/10/2023 09:57</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>19/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T139" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
           <t>21/10/2023 09:59</t>
         </is>
       </c>
-      <c r="R139" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="S139" t="inlineStr">
-        <is>
-          <t>19/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="T139" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="U139" t="inlineStr">
-        <is>
-          <t>21/10/2023 09:55</t>
-        </is>
-      </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-persik-kediri/nicrVDcR/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-ps-barito-putera/80bvWgrL/</t>
         </is>
       </c>
     </row>
@@ -13269,22 +13269,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="n">
-        <v>2.53</v>
+        <v>2.52</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>2.9</v>
+        <v>2.28</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.21</v>
+        <v>3.09</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,15 +13308,15 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.22</v>
+        <v>3.29</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>21/10/2023 09:57</t>
+          <t>21/10/2023 09:59</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>2.53</v>
+        <v>2.63</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="T140" t="n">
-        <v>2.49</v>
+        <v>3.17</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>21/10/2023 09:59</t>
+          <t>21/10/2023 09:55</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-ps-barito-putera/80bvWgrL/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-persik-kediri/nicrVDcR/</t>
         </is>
       </c>
     </row>
@@ -15293,71 +15293,71 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Persib Bandung</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>1.33</v>
+        <v>2.53</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>06/11/2023 21:13</t>
+          <t>06/11/2023 21:11</t>
         </is>
       </c>
       <c r="L162" t="n">
-        <v>1.22</v>
+        <v>2.51</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>08/11/2023 08:55</t>
+          <t>08/11/2023 08:47</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>4.88</v>
+        <v>3.14</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>06/11/2023 21:13</t>
+          <t>06/11/2023 21:11</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>5.42</v>
+        <v>3.42</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>08/11/2023 08:55</t>
+          <t>08/11/2023 08:47</t>
         </is>
       </c>
       <c r="R162" t="n">
-        <v>7.04</v>
+        <v>2.56</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
-          <t>06/11/2023 21:13</t>
+          <t>06/11/2023 21:11</t>
         </is>
       </c>
       <c r="T162" t="n">
-        <v>9.9</v>
+        <v>2.42</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>08/11/2023 08:55</t>
+          <t>08/11/2023 08:45</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-arema-fc/MBllPQtC/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-madura-united/rLkpQ6R5/</t>
         </is>
       </c>
     </row>
@@ -15385,71 +15385,163 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Persib Bandung</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J163" t="n">
-        <v>2.53</v>
+        <v>1.33</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>06/11/2023 21:11</t>
+          <t>06/11/2023 21:13</t>
         </is>
       </c>
       <c r="L163" t="n">
-        <v>2.51</v>
+        <v>1.22</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>08/11/2023 08:47</t>
+          <t>08/11/2023 08:55</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>3.14</v>
+        <v>4.88</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>06/11/2023 21:11</t>
+          <t>06/11/2023 21:13</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>3.42</v>
+        <v>5.42</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>08/11/2023 08:47</t>
+          <t>08/11/2023 08:55</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>2.56</v>
+        <v>7.04</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
-          <t>06/11/2023 21:11</t>
+          <t>06/11/2023 21:13</t>
         </is>
       </c>
       <c r="T163" t="n">
-        <v>2.42</v>
+        <v>9.9</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>08/11/2023 08:45</t>
+          <t>08/11/2023 08:55</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-madura-united/rLkpQ6R5/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-arema-fc/MBllPQtC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45238.54166666666</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Persis Solo</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>1</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>PSS Sleman</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>07/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>08/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>07/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P164" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>08/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R164" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>07/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T164" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="U164" t="inlineStr">
+        <is>
+          <t>08/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V164" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-pss-sleman/GYmhOpdI/</t>
         </is>
       </c>
     </row>

--- a/2023/indonesia_liga-1_2023-2024.xlsx
+++ b/2023/indonesia_liga-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V164"/>
+  <dimension ref="A1:V166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.52</v>
+        <v>1.71</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.85</v>
+        <v>2.08</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>15/07/2023 09:59</t>
+          <t>15/07/2023 09:52</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.33</v>
+        <v>3.61</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.45</v>
+        <v>3.29</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>15/07/2023 09:50</t>
+          <t>15/07/2023 09:52</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.54</v>
+        <v>4.32</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.4</v>
+        <v>3.66</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>15/07/2023 09:59</t>
+          <t>15/07/2023 09:52</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persita/nczZfRc7/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-arema-fc/vXWQdmTf/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.71</v>
+        <v>2.52</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.08</v>
+        <v>2.85</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>15/07/2023 09:52</t>
+          <t>15/07/2023 09:59</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.61</v>
+        <v>3.33</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.29</v>
+        <v>3.45</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>15/07/2023 09:52</t>
+          <t>15/07/2023 09:50</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>4.32</v>
+        <v>2.54</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.66</v>
+        <v>2.4</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>15/07/2023 09:52</t>
+          <t>15/07/2023 09:59</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-arema-fc/vXWQdmTf/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persita/nczZfRc7/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,14 +2605,14 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.86</v>
+        <v>2.81</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.96</v>
+        <v>3</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>15/07/2023 13:58</t>
+          <t>15/07/2023 13:57</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.69</v>
+        <v>3.38</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.61</v>
+        <v>3.49</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>15/07/2023 13:58</t>
+          <t>15/07/2023 13:57</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.52</v>
+        <v>2.27</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.7</v>
+        <v>2.29</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>15/07/2023 13:58</t>
+          <t>15/07/2023 13:57</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-madura-united/INVUe7r1/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-borneo/d8sMcTDl/</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2697,14 +2697,14 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>2.81</v>
+        <v>1.86</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>1.96</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>15/07/2023 13:57</t>
+          <t>15/07/2023 13:58</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.38</v>
+        <v>3.69</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.49</v>
+        <v>3.61</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>15/07/2023 13:57</t>
+          <t>15/07/2023 13:58</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.27</v>
+        <v>3.52</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.29</v>
+        <v>3.7</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>15/07/2023 13:57</t>
+          <t>15/07/2023 13:58</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-borneo/d8sMcTDl/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-madura-united/INVUe7r1/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Persib Bandung</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,14 +4721,14 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>2.14</v>
+        <v>1.96</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.65</v>
+        <v>2.22</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>03/08/2023 13:51</t>
+          <t>03/08/2023 13:58</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.31</v>
+        <v>3.61</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>4.02</v>
+        <v>3.61</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>03/08/2023 13:51</t>
+          <t>03/08/2023 13:58</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.11</v>
+        <v>3.17</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>4.94</v>
+        <v>3.04</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>03/08/2023 13:51</t>
+          <t>03/08/2023 13:58</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-fc-bhayangkara/lrG7B7ao/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-bali-united/SYEBAREi/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Persib Bandung</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,14 +4813,14 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1.96</v>
+        <v>2.14</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.22</v>
+        <v>1.65</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>03/08/2023 13:58</t>
+          <t>03/08/2023 13:51</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.61</v>
+        <v>3.31</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.61</v>
+        <v>4.02</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>03/08/2023 13:58</t>
+          <t>03/08/2023 13:51</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.17</v>
+        <v>3.11</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.04</v>
+        <v>4.94</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>03/08/2023 13:58</t>
+          <t>03/08/2023 13:51</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-bali-united/SYEBAREi/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-fc-bhayangkara/lrG7B7ao/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>1.39</v>
+        <v>3.91</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.52</v>
+        <v>3.19</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>04/08/2023 13:56</t>
+          <t>04/08/2023 13:55</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>4.98</v>
+        <v>3.52</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>4.68</v>
+        <v>2.99</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>04/08/2023 13:56</t>
+          <t>04/08/2023 13:50</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>5.82</v>
+        <v>1.81</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>5.33</v>
+        <v>2.44</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>04/08/2023 13:56</t>
+          <t>04/08/2023 13:55</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-rans-nusantara/WQBS6qEG/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-persija-jakarta/zaIJ85q4/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,14 +5181,14 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>3.91</v>
+        <v>1.39</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3.19</v>
+        <v>1.52</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>04/08/2023 13:55</t>
+          <t>04/08/2023 13:56</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.52</v>
+        <v>4.98</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>2.99</v>
+        <v>4.68</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>04/08/2023 13:50</t>
+          <t>04/08/2023 13:56</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>1.81</v>
+        <v>5.82</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.44</v>
+        <v>5.33</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>04/08/2023 13:55</t>
+          <t>04/08/2023 13:56</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-persija-jakarta/zaIJ85q4/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-rans-nusantara/WQBS6qEG/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="I101" t="n">
         <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>1.95</v>
+        <v>1.56</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>15/09/2023 13:59</t>
+          <t>15/09/2023 13:58</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.36</v>
+        <v>4.45</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.62</v>
+        <v>3.65</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>15/09/2023 13:59</t>
+          <t>15/09/2023 13:58</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>3.41</v>
+        <v>4.38</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>4.68</v>
+        <v>4.71</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-fc-bhayangkara/d4T3hmfa/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-rans-nusantara/zeS7i795/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="I102" t="n">
         <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>1.56</v>
+        <v>1.95</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,48 +9796,48 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
+          <t>15/09/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>14/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>15/09/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>14/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
           <t>15/09/2023 13:58</t>
         </is>
       </c>
-      <c r="N102" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>14/09/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P102" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q102" t="inlineStr">
-        <is>
-          <t>15/09/2023 13:58</t>
-        </is>
-      </c>
-      <c r="R102" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>14/09/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T102" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="U102" t="inlineStr">
-        <is>
-          <t>15/09/2023 13:58</t>
-        </is>
-      </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-rans-nusantara/zeS7i795/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-fc-bhayangkara/d4T3hmfa/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,11 +12081,11 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J127" t="n">
         <v>2.54</v>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>3.07</v>
+        <v>3.74</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>06/10/2023 09:52</t>
+          <t>06/10/2023 09:56</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.19</v>
+        <v>3.24</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.19</v>
+        <v>3.73</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>06/10/2023 09:52</t>
+          <t>06/10/2023 09:58</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>2.39</v>
+        <v>1.92</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>06/10/2023 09:52</t>
+          <t>06/10/2023 09:56</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-psis-semarang/j15nYO7i/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persis-solo/OE3fW2x4/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,11 +12173,11 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
         <v>2.54</v>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>3.74</v>
+        <v>3.07</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>06/10/2023 09:56</t>
+          <t>06/10/2023 09:52</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.24</v>
+        <v>3.19</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.73</v>
+        <v>3.19</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>06/10/2023 09:58</t>
+          <t>06/10/2023 09:52</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>1.92</v>
+        <v>2.39</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>06/10/2023 09:56</t>
+          <t>06/10/2023 09:52</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persis-solo/OE3fW2x4/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-psis-semarang/j15nYO7i/</t>
         </is>
       </c>
     </row>
@@ -12257,22 +12257,22 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="I129" t="n">
         <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>1.74</v>
+        <v>3.87</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,15 +12280,15 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1.56</v>
+        <v>3.69</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>06/10/2023 13:43</t>
+          <t>06/10/2023 13:57</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>3.56</v>
+        <v>3.45</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -12296,15 +12296,15 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>4.04</v>
+        <v>3.36</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>06/10/2023 13:43</t>
+          <t>06/10/2023 13:57</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>4.07</v>
+        <v>1.81</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -12312,16 +12312,16 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>5.98</v>
+        <v>2.04</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>06/10/2023 13:43</t>
+          <t>06/10/2023 13:58</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-pss-sleman/xI7bVMiA/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/arema-fc-borneo/Ui4jXrNc/</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12349,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I130" t="n">
         <v>1</v>
       </c>
       <c r="J130" t="n">
-        <v>3.87</v>
+        <v>1.74</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,15 +12372,15 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>3.69</v>
+        <v>1.56</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>06/10/2023 13:57</t>
+          <t>06/10/2023 13:43</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.45</v>
+        <v>3.56</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.36</v>
+        <v>4.04</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>06/10/2023 13:57</t>
+          <t>06/10/2023 13:43</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>1.81</v>
+        <v>4.07</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>2.04</v>
+        <v>5.98</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>06/10/2023 13:58</t>
+          <t>06/10/2023 13:43</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/arema-fc-borneo/Ui4jXrNc/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-pss-sleman/xI7bVMiA/</t>
         </is>
       </c>
     </row>
@@ -13177,22 +13177,22 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J139" t="n">
-        <v>2.53</v>
+        <v>2.52</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         </is>
       </c>
       <c r="L139" t="n">
-        <v>2.9</v>
+        <v>2.28</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.21</v>
+        <v>3.09</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
@@ -13216,15 +13216,15 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.22</v>
+        <v>3.29</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>21/10/2023 09:57</t>
+          <t>21/10/2023 09:59</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>2.53</v>
+        <v>2.63</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
@@ -13232,16 +13232,16 @@
         </is>
       </c>
       <c r="T139" t="n">
-        <v>2.49</v>
+        <v>3.17</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>21/10/2023 09:59</t>
+          <t>21/10/2023 09:55</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-ps-barito-putera/80bvWgrL/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-persik-kediri/nicrVDcR/</t>
         </is>
       </c>
     </row>
@@ -13269,22 +13269,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="I140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>2.52</v>
+        <v>2.53</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>2.28</v>
+        <v>2.9</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.09</v>
+        <v>3.21</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,32 +13308,32 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.29</v>
+        <v>3.22</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
+          <t>21/10/2023 09:57</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>19/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
           <t>21/10/2023 09:59</t>
         </is>
       </c>
-      <c r="R140" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="S140" t="inlineStr">
-        <is>
-          <t>19/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="T140" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="U140" t="inlineStr">
-        <is>
-          <t>21/10/2023 09:55</t>
-        </is>
-      </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-persik-kediri/nicrVDcR/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-ps-barito-putera/80bvWgrL/</t>
         </is>
       </c>
     </row>
@@ -13453,22 +13453,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J142" t="n">
-        <v>2.08</v>
+        <v>1.77</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>3.01</v>
+        <v>1.74</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>22/10/2023 09:57</t>
+          <t>22/10/2023 09:58</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.33</v>
+        <v>3.7</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,15 +13492,15 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.46</v>
+        <v>3.76</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>22/10/2023 09:57</t>
+          <t>22/10/2023 09:58</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>3.12</v>
+        <v>3.89</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>2.29</v>
+        <v>4.6</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>22/10/2023 09:57</t>
+          <t>22/10/2023 09:58</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-persis-solo/IZmEPiLl/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/madura-united-dewa-united/0bwJOBze/</t>
         </is>
       </c>
     </row>
@@ -13545,22 +13545,22 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="G143" t="n">
+        <v>2</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Persis Solo</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
         <v>1</v>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>Dewa United</t>
-        </is>
-      </c>
-      <c r="I143" t="n">
-        <v>4</v>
-      </c>
       <c r="J143" t="n">
-        <v>1.77</v>
+        <v>2.08</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -13568,15 +13568,15 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>1.74</v>
+        <v>3.01</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>22/10/2023 09:58</t>
+          <t>22/10/2023 09:57</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>3.7</v>
+        <v>3.33</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -13584,15 +13584,15 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.76</v>
+        <v>3.46</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>22/10/2023 09:58</t>
+          <t>22/10/2023 09:57</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>3.89</v>
+        <v>3.12</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
@@ -13600,16 +13600,16 @@
         </is>
       </c>
       <c r="T143" t="n">
-        <v>4.6</v>
+        <v>2.29</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>22/10/2023 09:58</t>
+          <t>22/10/2023 09:57</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/madura-united-dewa-united/0bwJOBze/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-persis-solo/IZmEPiLl/</t>
         </is>
       </c>
     </row>
@@ -15293,71 +15293,71 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Persib Bandung</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J162" t="n">
-        <v>2.53</v>
+        <v>1.33</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>06/11/2023 21:11</t>
+          <t>06/11/2023 21:13</t>
         </is>
       </c>
       <c r="L162" t="n">
-        <v>2.51</v>
+        <v>1.22</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>08/11/2023 08:47</t>
+          <t>08/11/2023 08:55</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>3.14</v>
+        <v>4.88</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>06/11/2023 21:11</t>
+          <t>06/11/2023 21:13</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>3.42</v>
+        <v>5.42</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>08/11/2023 08:47</t>
+          <t>08/11/2023 08:55</t>
         </is>
       </c>
       <c r="R162" t="n">
-        <v>2.56</v>
+        <v>7.04</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
-          <t>06/11/2023 21:11</t>
+          <t>06/11/2023 21:13</t>
         </is>
       </c>
       <c r="T162" t="n">
-        <v>2.42</v>
+        <v>9.9</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>08/11/2023 08:45</t>
+          <t>08/11/2023 08:55</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-madura-united/rLkpQ6R5/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-arema-fc/MBllPQtC/</t>
         </is>
       </c>
     </row>
@@ -15385,71 +15385,71 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Persib Bandung</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>1.33</v>
+        <v>2.53</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>06/11/2023 21:13</t>
+          <t>06/11/2023 21:11</t>
         </is>
       </c>
       <c r="L163" t="n">
-        <v>1.22</v>
+        <v>2.51</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>08/11/2023 08:55</t>
+          <t>08/11/2023 08:47</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>4.88</v>
+        <v>3.14</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>06/11/2023 21:13</t>
+          <t>06/11/2023 21:11</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>5.42</v>
+        <v>3.42</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>08/11/2023 08:55</t>
+          <t>08/11/2023 08:47</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>7.04</v>
+        <v>2.56</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
-          <t>06/11/2023 21:13</t>
+          <t>06/11/2023 21:11</t>
         </is>
       </c>
       <c r="T163" t="n">
-        <v>9.9</v>
+        <v>2.42</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>08/11/2023 08:55</t>
+          <t>08/11/2023 08:45</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-arema-fc/MBllPQtC/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-madura-united/rLkpQ6R5/</t>
         </is>
       </c>
     </row>
@@ -15542,6 +15542,190 @@
       <c r="V164" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-pss-sleman/GYmhOpdI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45239.375</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Barito Putera</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>2</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Persebaya</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>07/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>09/11/2023 08:50</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>07/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P165" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>09/11/2023 08:59</t>
+        </is>
+      </c>
+      <c r="R165" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>07/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T165" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>09/11/2023 08:59</t>
+        </is>
+      </c>
+      <c r="V165" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-persebaya/UyhdN4BO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45239.375</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>PSIS Semarang</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>4</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Persita</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>07/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>09/11/2023 08:57</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>07/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P166" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>09/11/2023 08:58</t>
+        </is>
+      </c>
+      <c r="R166" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>07/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T166" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="U166" t="inlineStr">
+        <is>
+          <t>09/11/2023 08:57</t>
+        </is>
+      </c>
+      <c r="V166" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/psis-semarang-persita/WtWvnllP/</t>
         </is>
       </c>
     </row>

--- a/2023/indonesia_liga-1_2023-2024.xlsx
+++ b/2023/indonesia_liga-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V166"/>
+  <dimension ref="A1:V168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>PSM Makassar</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.73</v>
+        <v>1.56</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3.53</v>
+        <v>1.86</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>14/07/2023 09:53</t>
+          <t>14/07/2023 09:58</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.49</v>
+        <v>4.07</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.33</v>
+        <v>3.27</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>14/07/2023 09:53</t>
+          <t>14/07/2023 09:57</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>1.86</v>
+        <v>4.9</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.11</v>
+        <v>3.05</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>14/07/2023 09:53</t>
+          <t>14/07/2023 09:58</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-psm-makassar/QPjj3kjR/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-pss-sleman/nZin4VzL/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>PSM Makassar</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1.56</v>
+        <v>3.73</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,48 +2252,48 @@
         </is>
       </c>
       <c r="L20" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>14/07/2023 09:53</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>12/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>14/07/2023 09:53</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
         <v>1.86</v>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>14/07/2023 09:58</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="O20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>12/07/2023 22:12</t>
         </is>
       </c>
-      <c r="P20" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>14/07/2023 09:57</t>
-        </is>
-      </c>
-      <c r="R20" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>12/07/2023 22:12</t>
-        </is>
-      </c>
       <c r="T20" t="n">
-        <v>3.05</v>
+        <v>2.11</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>14/07/2023 09:58</t>
+          <t>14/07/2023 09:53</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-pss-sleman/nZin4VzL/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-psm-makassar/QPjj3kjR/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.32</v>
+        <v>1.65</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.79</v>
+        <v>1.61</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.26</v>
+        <v>3.8</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.5</v>
+        <v>4.15</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>30/07/2023 09:58</t>
+          <t>30/07/2023 09:55</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.75</v>
+        <v>4.48</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.42</v>
+        <v>5.06</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>30/07/2023 09:55</t>
+          <t>30/07/2023 09:51</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-pss-sleman/pCUpNqs0/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-arema-fc/tvOgLNBC/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.65</v>
+        <v>2.32</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.61</v>
+        <v>2.79</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.8</v>
+        <v>3.26</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,32 +4384,32 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>4.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
+          <t>30/07/2023 09:58</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>28/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
           <t>30/07/2023 09:55</t>
         </is>
       </c>
-      <c r="R43" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>28/07/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T43" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>30/07/2023 09:51</t>
-        </is>
-      </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-arema-fc/tvOgLNBC/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-pss-sleman/pCUpNqs0/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Borneo</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
         <v>2</v>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>PSS Sleman</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>3</v>
-      </c>
       <c r="J74" t="n">
-        <v>1.75</v>
+        <v>2.81</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.91</v>
+        <v>3.19</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>18/08/2023 13:51</t>
+          <t>18/08/2023 13:59</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.54</v>
+        <v>3.28</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.35</v>
+        <v>3.29</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>18/08/2023 13:51</t>
+          <t>18/08/2023 13:59</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>4.19</v>
+        <v>2.32</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>4.25</v>
+        <v>2.28</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>18/08/2023 13:51</t>
+          <t>18/08/2023 13:59</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-pss-sleman/EmCFQw5k/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-borneo/dC1KPcKe/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J75" t="n">
-        <v>2.81</v>
+        <v>1.75</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>3.19</v>
+        <v>1.91</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>18/08/2023 13:59</t>
+          <t>18/08/2023 13:51</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.28</v>
+        <v>3.54</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.29</v>
+        <v>3.35</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>18/08/2023 13:59</t>
+          <t>18/08/2023 13:51</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.32</v>
+        <v>4.19</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.28</v>
+        <v>4.25</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>18/08/2023 13:59</t>
+          <t>18/08/2023 13:51</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-borneo/dC1KPcKe/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-pss-sleman/EmCFQw5k/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>2.11</v>
+        <v>1.76</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.86</v>
+        <v>1.59</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>25/08/2023 09:58</t>
+          <t>25/08/2023 09:55</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.28</v>
+        <v>3.57</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.69</v>
+        <v>4</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>25/08/2023 09:58</t>
+          <t>25/08/2023 09:55</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.11</v>
+        <v>3.95</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>4.02</v>
+        <v>5.59</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>25/08/2023 09:58</t>
+          <t>25/08/2023 09:55</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-psis-semarang/SjxkuwKr/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/madura-united-fc-bhayangkara/AFRgvcZl/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>1.76</v>
+        <v>2.11</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.59</v>
+        <v>1.86</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>25/08/2023 09:55</t>
+          <t>25/08/2023 09:58</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.57</v>
+        <v>3.28</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>4</v>
+        <v>3.69</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>25/08/2023 09:55</t>
+          <t>25/08/2023 09:58</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.95</v>
+        <v>3.11</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>5.59</v>
+        <v>4.02</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>25/08/2023 09:55</t>
+          <t>25/08/2023 09:58</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/madura-united-fc-bhayangkara/AFRgvcZl/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-psis-semarang/SjxkuwKr/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1.85</v>
+        <v>3.11</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.64</v>
+        <v>2.6</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.73</v>
+        <v>3.17</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.9</v>
+        <v>3.11</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>3.51</v>
+        <v>2.15</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>5.27</v>
+        <v>2.84</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persita/l6QcwHle/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persija-jakarta/IuV1xy41/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>3.11</v>
+        <v>1.85</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.6</v>
+        <v>1.64</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.17</v>
+        <v>3.73</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.11</v>
+        <v>3.9</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.15</v>
+        <v>3.51</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.84</v>
+        <v>5.27</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persija-jakarta/IuV1xy41/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persita/l6QcwHle/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,11 +12081,11 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
         <v>2.54</v>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>3.74</v>
+        <v>3.07</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>06/10/2023 09:56</t>
+          <t>06/10/2023 09:52</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.24</v>
+        <v>3.19</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.73</v>
+        <v>3.19</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>06/10/2023 09:58</t>
+          <t>06/10/2023 09:52</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>1.92</v>
+        <v>2.39</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>06/10/2023 09:56</t>
+          <t>06/10/2023 09:52</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persis-solo/OE3fW2x4/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-psis-semarang/j15nYO7i/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,11 +12173,11 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J128" t="n">
         <v>2.54</v>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>3.07</v>
+        <v>3.74</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>06/10/2023 09:52</t>
+          <t>06/10/2023 09:56</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.19</v>
+        <v>3.24</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.19</v>
+        <v>3.73</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>06/10/2023 09:52</t>
+          <t>06/10/2023 09:58</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>2.39</v>
+        <v>1.92</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>06/10/2023 09:52</t>
+          <t>06/10/2023 09:56</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-psis-semarang/j15nYO7i/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persis-solo/OE3fW2x4/</t>
         </is>
       </c>
     </row>
@@ -13177,22 +13177,22 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="I139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J139" t="n">
-        <v>2.52</v>
+        <v>2.53</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         </is>
       </c>
       <c r="L139" t="n">
-        <v>2.28</v>
+        <v>2.9</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.09</v>
+        <v>3.21</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
@@ -13216,32 +13216,32 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.29</v>
+        <v>3.22</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
+          <t>21/10/2023 09:57</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>19/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T139" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
           <t>21/10/2023 09:59</t>
         </is>
       </c>
-      <c r="R139" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="S139" t="inlineStr">
-        <is>
-          <t>19/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="T139" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="U139" t="inlineStr">
-        <is>
-          <t>21/10/2023 09:55</t>
-        </is>
-      </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-persik-kediri/nicrVDcR/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-ps-barito-putera/80bvWgrL/</t>
         </is>
       </c>
     </row>
@@ -13269,22 +13269,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="n">
-        <v>2.53</v>
+        <v>2.52</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>2.9</v>
+        <v>2.28</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.21</v>
+        <v>3.09</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,15 +13308,15 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.22</v>
+        <v>3.29</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>21/10/2023 09:57</t>
+          <t>21/10/2023 09:59</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>2.53</v>
+        <v>2.63</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="T140" t="n">
-        <v>2.49</v>
+        <v>3.17</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>21/10/2023 09:59</t>
+          <t>21/10/2023 09:55</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-ps-barito-putera/80bvWgrL/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-persik-kediri/nicrVDcR/</t>
         </is>
       </c>
     </row>
@@ -15726,6 +15726,190 @@
       <c r="V166" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/indonesia/liga-1/psis-semarang-persita/WtWvnllP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45239.54166666666</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Persija Jakarta</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>4</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Persikabo 1973</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>08/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>09/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>08/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P167" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>09/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R167" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>08/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T167" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>09/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V167" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persikabo-1973/YkI6s8dt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45239.54166666666</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>RANS Nusantara</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>1</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>FC Bhayangkara</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>08/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>09/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>08/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P168" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>09/11/2023 12:54</t>
+        </is>
+      </c>
+      <c r="R168" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>08/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T168" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>09/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V168" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-fc-bhayangkara/tGLEunRh/</t>
         </is>
       </c>
     </row>

--- a/2023/indonesia_liga-1_2023-2024.xlsx
+++ b/2023/indonesia_liga-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V168"/>
+  <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.34</v>
+        <v>1.32</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4.55</v>
+        <v>1.75</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>09/07/2023 13:59</t>
+          <t>09/07/2023 13:54</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.3</v>
+        <v>5.37</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.38</v>
+        <v>3.97</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>09/07/2023 13:59</t>
+          <t>09/07/2023 13:54</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>1.99</v>
+        <v>6.1</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1.85</v>
+        <v>4.29</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>09/07/2023 13:59</t>
+          <t>09/07/2023 13:54</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persija-jakarta/SWyo6i68/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-rans-nusantara/6Nzk5BLE/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1.32</v>
+        <v>3.34</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.75</v>
+        <v>4.55</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>09/07/2023 13:54</t>
+          <t>09/07/2023 13:59</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>5.37</v>
+        <v>3.3</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.97</v>
+        <v>3.38</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>09/07/2023 13:54</t>
+          <t>09/07/2023 13:59</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>6.1</v>
+        <v>1.99</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>4.29</v>
+        <v>1.85</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>09/07/2023 13:54</t>
+          <t>09/07/2023 13:59</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-rans-nusantara/6Nzk5BLE/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persija-jakarta/SWyo6i68/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>PSM Makassar</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.56</v>
+        <v>3.73</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,48 +2160,48 @@
         </is>
       </c>
       <c r="L19" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>14/07/2023 09:53</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>12/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>14/07/2023 09:53</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
         <v>1.86</v>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>14/07/2023 09:58</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="O19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>12/07/2023 22:12</t>
         </is>
       </c>
-      <c r="P19" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>14/07/2023 09:57</t>
-        </is>
-      </c>
-      <c r="R19" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>12/07/2023 22:12</t>
-        </is>
-      </c>
       <c r="T19" t="n">
-        <v>3.05</v>
+        <v>2.11</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>14/07/2023 09:58</t>
+          <t>14/07/2023 09:53</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-pss-sleman/nZin4VzL/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-psm-makassar/QPjj3kjR/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>PSM Makassar</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.73</v>
+        <v>1.56</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3.53</v>
+        <v>1.86</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>14/07/2023 09:53</t>
+          <t>14/07/2023 09:58</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.49</v>
+        <v>4.07</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.33</v>
+        <v>3.27</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>14/07/2023 09:53</t>
+          <t>14/07/2023 09:57</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>1.86</v>
+        <v>4.9</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.11</v>
+        <v>3.05</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>14/07/2023 09:53</t>
+          <t>14/07/2023 09:58</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-psm-makassar/QPjj3kjR/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-pss-sleman/nZin4VzL/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1.71</v>
+        <v>2.52</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.08</v>
+        <v>2.85</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>15/07/2023 09:52</t>
+          <t>15/07/2023 09:59</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.61</v>
+        <v>3.33</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.29</v>
+        <v>3.45</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>15/07/2023 09:52</t>
+          <t>15/07/2023 09:50</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>4.32</v>
+        <v>2.54</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.66</v>
+        <v>2.4</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>15/07/2023 09:52</t>
+          <t>15/07/2023 09:59</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-arema-fc/vXWQdmTf/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persita/nczZfRc7/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>2.52</v>
+        <v>1.71</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.85</v>
+        <v>2.08</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>15/07/2023 09:59</t>
+          <t>15/07/2023 09:52</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.33</v>
+        <v>3.61</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.45</v>
+        <v>3.29</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>15/07/2023 09:50</t>
+          <t>15/07/2023 09:52</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.54</v>
+        <v>4.32</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.4</v>
+        <v>3.66</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>15/07/2023 09:59</t>
+          <t>15/07/2023 09:52</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persita/nczZfRc7/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-arema-fc/vXWQdmTf/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.65</v>
+        <v>2.32</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.61</v>
+        <v>2.79</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.8</v>
+        <v>3.26</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,32 +4292,32 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>4.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
+          <t>30/07/2023 09:58</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>28/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
           <t>30/07/2023 09:55</t>
         </is>
       </c>
-      <c r="R42" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>28/07/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T42" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>30/07/2023 09:51</t>
-        </is>
-      </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-arema-fc/tvOgLNBC/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-pss-sleman/pCUpNqs0/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.32</v>
+        <v>1.65</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.79</v>
+        <v>1.61</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.26</v>
+        <v>3.8</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.5</v>
+        <v>4.15</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>30/07/2023 09:58</t>
+          <t>30/07/2023 09:55</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.75</v>
+        <v>4.48</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.42</v>
+        <v>5.06</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>30/07/2023 09:55</t>
+          <t>30/07/2023 09:51</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-pss-sleman/pCUpNqs0/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-arema-fc/tvOgLNBC/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Persebaya</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.12</v>
+        <v>1.62</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.34</v>
+        <v>1.67</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>30/07/2023 13:51</t>
+          <t>30/07/2023 13:52</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.31</v>
+        <v>3.93</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.44</v>
+        <v>3.9</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>30/07/2023 13:51</t>
+          <t>30/07/2023 13:52</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.13</v>
+        <v>4.54</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.94</v>
+        <v>4.97</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>30/07/2023 13:51</t>
+          <t>30/07/2023 13:52</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-madura-united/z1NcKsRI/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persebaya/2mPkM3d6/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Persebaya</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>1.62</v>
+        <v>2.12</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.67</v>
+        <v>2.34</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>30/07/2023 13:52</t>
+          <t>30/07/2023 13:51</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.93</v>
+        <v>3.31</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.9</v>
+        <v>3.44</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>30/07/2023 13:52</t>
+          <t>30/07/2023 13:51</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>4.54</v>
+        <v>3.13</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>4.97</v>
+        <v>2.94</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>30/07/2023 13:52</t>
+          <t>30/07/2023 13:51</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persebaya/2mPkM3d6/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-madura-united/z1NcKsRI/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>3.11</v>
+        <v>1.85</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.6</v>
+        <v>1.64</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.17</v>
+        <v>3.73</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.11</v>
+        <v>3.9</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.15</v>
+        <v>3.51</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.84</v>
+        <v>5.27</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persija-jakarta/IuV1xy41/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persita/l6QcwHle/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1.85</v>
+        <v>3.11</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.64</v>
+        <v>2.6</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.73</v>
+        <v>3.17</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.9</v>
+        <v>3.11</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.51</v>
+        <v>2.15</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>5.27</v>
+        <v>2.84</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persita/l6QcwHle/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persija-jakarta/IuV1xy41/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="I101" t="n">
         <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>1.56</v>
+        <v>1.95</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,48 +9704,48 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
+          <t>15/09/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>14/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>15/09/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>14/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
           <t>15/09/2023 13:58</t>
         </is>
       </c>
-      <c r="N101" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>14/09/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P101" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q101" t="inlineStr">
-        <is>
-          <t>15/09/2023 13:58</t>
-        </is>
-      </c>
-      <c r="R101" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t>14/09/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T101" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="U101" t="inlineStr">
-        <is>
-          <t>15/09/2023 13:58</t>
-        </is>
-      </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-rans-nusantara/zeS7i795/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-fc-bhayangkara/d4T3hmfa/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="I102" t="n">
         <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>1.95</v>
+        <v>1.56</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>15/09/2023 13:59</t>
+          <t>15/09/2023 13:58</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.36</v>
+        <v>4.45</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.62</v>
+        <v>3.65</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>15/09/2023 13:59</t>
+          <t>15/09/2023 13:58</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>3.41</v>
+        <v>4.38</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,7 +9828,7 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>4.68</v>
+        <v>4.71</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-fc-bhayangkara/d4T3hmfa/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-rans-nusantara/zeS7i795/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,11 +12081,11 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J127" t="n">
         <v>2.54</v>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>3.07</v>
+        <v>3.74</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>06/10/2023 09:52</t>
+          <t>06/10/2023 09:56</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.19</v>
+        <v>3.24</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.19</v>
+        <v>3.73</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>06/10/2023 09:52</t>
+          <t>06/10/2023 09:58</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>2.39</v>
+        <v>1.92</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>06/10/2023 09:52</t>
+          <t>06/10/2023 09:56</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-psis-semarang/j15nYO7i/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persis-solo/OE3fW2x4/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,11 +12173,11 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
         <v>2.54</v>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>3.74</v>
+        <v>3.07</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>06/10/2023 09:56</t>
+          <t>06/10/2023 09:52</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.24</v>
+        <v>3.19</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.73</v>
+        <v>3.19</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>06/10/2023 09:58</t>
+          <t>06/10/2023 09:52</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>1.92</v>
+        <v>2.39</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>06/10/2023 09:56</t>
+          <t>06/10/2023 09:52</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persis-solo/OE3fW2x4/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-psis-semarang/j15nYO7i/</t>
         </is>
       </c>
     </row>
@@ -13453,22 +13453,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="G142" t="n">
+        <v>2</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Persis Solo</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
         <v>1</v>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>Dewa United</t>
-        </is>
-      </c>
-      <c r="I142" t="n">
-        <v>4</v>
-      </c>
       <c r="J142" t="n">
-        <v>1.77</v>
+        <v>2.08</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1.74</v>
+        <v>3.01</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>22/10/2023 09:58</t>
+          <t>22/10/2023 09:57</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.7</v>
+        <v>3.33</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,15 +13492,15 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.76</v>
+        <v>3.46</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>22/10/2023 09:58</t>
+          <t>22/10/2023 09:57</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>3.89</v>
+        <v>3.12</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>4.6</v>
+        <v>2.29</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>22/10/2023 09:58</t>
+          <t>22/10/2023 09:57</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/madura-united-dewa-united/0bwJOBze/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-persis-solo/IZmEPiLl/</t>
         </is>
       </c>
     </row>
@@ -13545,22 +13545,22 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J143" t="n">
-        <v>2.08</v>
+        <v>1.77</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -13568,15 +13568,15 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>3.01</v>
+        <v>1.74</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>22/10/2023 09:57</t>
+          <t>22/10/2023 09:58</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>3.33</v>
+        <v>3.7</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -13584,15 +13584,15 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.46</v>
+        <v>3.76</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>22/10/2023 09:57</t>
+          <t>22/10/2023 09:58</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>3.12</v>
+        <v>3.89</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
@@ -13600,16 +13600,16 @@
         </is>
       </c>
       <c r="T143" t="n">
-        <v>2.29</v>
+        <v>4.6</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>22/10/2023 09:57</t>
+          <t>22/10/2023 09:58</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-persis-solo/IZmEPiLl/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/madura-united-dewa-united/0bwJOBze/</t>
         </is>
       </c>
     </row>
@@ -14741,22 +14741,22 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="n">
-        <v>1.55</v>
+        <v>3.01</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -14764,15 +14764,15 @@
         </is>
       </c>
       <c r="L156" t="n">
-        <v>1.48</v>
+        <v>3.74</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>02/11/2023 12:54</t>
+          <t>02/11/2023 12:56</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3.94</v>
+        <v>3.27</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>4.28</v>
+        <v>3.53</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         </is>
       </c>
       <c r="R156" t="n">
-        <v>4.88</v>
+        <v>2.16</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
@@ -14796,16 +14796,16 @@
         </is>
       </c>
       <c r="T156" t="n">
-        <v>6.89</v>
+        <v>1.97</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>02/11/2023 12:59</t>
+          <t>02/11/2023 12:58</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persik-kediri/ABg8YUJP/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-psis-semarang/29YnRnCa/</t>
         </is>
       </c>
     </row>
@@ -14833,22 +14833,22 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>3.01</v>
+        <v>1.55</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -14856,15 +14856,15 @@
         </is>
       </c>
       <c r="L157" t="n">
-        <v>3.74</v>
+        <v>1.48</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>02/11/2023 12:56</t>
+          <t>02/11/2023 12:54</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3.27</v>
+        <v>3.94</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
@@ -14872,7 +14872,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>3.53</v>
+        <v>4.28</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         </is>
       </c>
       <c r="R157" t="n">
-        <v>2.16</v>
+        <v>4.88</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
@@ -14888,16 +14888,16 @@
         </is>
       </c>
       <c r="T157" t="n">
-        <v>1.97</v>
+        <v>6.89</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>02/11/2023 12:58</t>
+          <t>02/11/2023 12:59</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-psis-semarang/29YnRnCa/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persik-kediri/ABg8YUJP/</t>
         </is>
       </c>
     </row>
@@ -15910,6 +15910,190 @@
       <c r="V168" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-fc-bhayangkara/tGLEunRh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45242.54166666666</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Bali United</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>1</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Borneo</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>2</v>
+      </c>
+      <c r="J169" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:54</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P169" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:32</t>
+        </is>
+      </c>
+      <c r="R169" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T169" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:54</t>
+        </is>
+      </c>
+      <c r="V169" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-borneo/OvBJv6ta/</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45242.54166666666</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Dewa United</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>1</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>PSM Makassar</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:55</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P170" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:55</t>
+        </is>
+      </c>
+      <c r="R170" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T170" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:55</t>
+        </is>
+      </c>
+      <c r="V170" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-psm-makassar/2PMAtSBn/</t>
         </is>
       </c>
     </row>

--- a/2023/indonesia_liga-1_2023-2024.xlsx
+++ b/2023/indonesia_liga-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V170"/>
+  <dimension ref="A1:V173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.32</v>
+        <v>3.34</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.75</v>
+        <v>4.55</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>09/07/2023 13:54</t>
+          <t>09/07/2023 13:59</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>5.37</v>
+        <v>3.3</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.97</v>
+        <v>3.38</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>09/07/2023 13:54</t>
+          <t>09/07/2023 13:59</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>6.1</v>
+        <v>1.99</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>4.29</v>
+        <v>1.85</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>09/07/2023 13:54</t>
+          <t>09/07/2023 13:59</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-rans-nusantara/6Nzk5BLE/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persija-jakarta/SWyo6i68/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.34</v>
+        <v>1.32</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4.55</v>
+        <v>1.75</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>09/07/2023 13:59</t>
+          <t>09/07/2023 13:54</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.3</v>
+        <v>5.37</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.38</v>
+        <v>3.97</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>09/07/2023 13:59</t>
+          <t>09/07/2023 13:54</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>1.99</v>
+        <v>6.1</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>1.85</v>
+        <v>4.29</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>09/07/2023 13:59</t>
+          <t>09/07/2023 13:54</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persija-jakarta/SWyo6i68/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-rans-nusantara/6Nzk5BLE/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>PSM Makassar</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.73</v>
+        <v>1.56</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3.53</v>
+        <v>1.86</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>14/07/2023 09:53</t>
+          <t>14/07/2023 09:58</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.49</v>
+        <v>4.07</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.33</v>
+        <v>3.27</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>14/07/2023 09:53</t>
+          <t>14/07/2023 09:57</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>1.86</v>
+        <v>4.9</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.11</v>
+        <v>3.05</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>14/07/2023 09:53</t>
+          <t>14/07/2023 09:58</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-psm-makassar/QPjj3kjR/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-pss-sleman/nZin4VzL/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>PSM Makassar</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1.56</v>
+        <v>3.73</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,48 +2252,48 @@
         </is>
       </c>
       <c r="L20" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>14/07/2023 09:53</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>12/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>14/07/2023 09:53</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
         <v>1.86</v>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>14/07/2023 09:58</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="O20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>12/07/2023 22:12</t>
         </is>
       </c>
-      <c r="P20" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>14/07/2023 09:57</t>
-        </is>
-      </c>
-      <c r="R20" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>12/07/2023 22:12</t>
-        </is>
-      </c>
       <c r="T20" t="n">
-        <v>3.05</v>
+        <v>2.11</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>14/07/2023 09:58</t>
+          <t>14/07/2023 09:53</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-pss-sleman/nZin4VzL/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-psm-makassar/QPjj3kjR/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.52</v>
+        <v>1.71</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.85</v>
+        <v>2.08</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>15/07/2023 09:59</t>
+          <t>15/07/2023 09:52</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.33</v>
+        <v>3.61</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.45</v>
+        <v>3.29</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>15/07/2023 09:50</t>
+          <t>15/07/2023 09:52</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.54</v>
+        <v>4.32</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.4</v>
+        <v>3.66</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>15/07/2023 09:59</t>
+          <t>15/07/2023 09:52</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persita/nczZfRc7/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-arema-fc/vXWQdmTf/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.71</v>
+        <v>2.52</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.08</v>
+        <v>2.85</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>15/07/2023 09:52</t>
+          <t>15/07/2023 09:59</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.61</v>
+        <v>3.33</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.29</v>
+        <v>3.45</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>15/07/2023 09:52</t>
+          <t>15/07/2023 09:50</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>4.32</v>
+        <v>2.54</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.66</v>
+        <v>2.4</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>15/07/2023 09:52</t>
+          <t>15/07/2023 09:59</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-arema-fc/vXWQdmTf/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persita/nczZfRc7/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>PSM Makassar</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Persib Bandung</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>1.95</v>
+        <v>1.58</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.25</v>
+        <v>1.49</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>22/07/2023 13:42</t>
+          <t>22/07/2023 13:54</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.42</v>
+        <v>3.88</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.34</v>
+        <v>4.41</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>22/07/2023 13:36</t>
+          <t>22/07/2023 13:56</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>3.36</v>
+        <v>4.61</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.18</v>
+        <v>6.3</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>22/07/2023 13:42</t>
+          <t>22/07/2023 13:54</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/psm-makassar-persib-bandung/viaC8pS6/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-persikabo-1973/hzc0Bnrl/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>PSM Makassar</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>Persib Bandung</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>1.58</v>
+        <v>1.95</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.49</v>
+        <v>2.25</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>22/07/2023 13:54</t>
+          <t>22/07/2023 13:42</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.88</v>
+        <v>3.42</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>4.41</v>
+        <v>3.34</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>22/07/2023 13:56</t>
+          <t>22/07/2023 13:36</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>4.61</v>
+        <v>3.36</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>6.3</v>
+        <v>3.18</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>22/07/2023 13:54</t>
+          <t>22/07/2023 13:42</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-persikabo-1973/hzc0Bnrl/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/psm-makassar-persib-bandung/viaC8pS6/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.32</v>
+        <v>1.65</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.79</v>
+        <v>1.61</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.26</v>
+        <v>3.8</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.5</v>
+        <v>4.15</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>30/07/2023 09:58</t>
+          <t>30/07/2023 09:55</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.75</v>
+        <v>4.48</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.42</v>
+        <v>5.06</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>30/07/2023 09:55</t>
+          <t>30/07/2023 09:51</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-pss-sleman/pCUpNqs0/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-arema-fc/tvOgLNBC/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.65</v>
+        <v>2.32</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.61</v>
+        <v>2.79</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.8</v>
+        <v>3.26</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,32 +4384,32 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>4.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
+          <t>30/07/2023 09:58</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>28/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
           <t>30/07/2023 09:55</t>
         </is>
       </c>
-      <c r="R43" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>28/07/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T43" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>30/07/2023 09:51</t>
-        </is>
-      </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-arema-fc/tvOgLNBC/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-pss-sleman/pCUpNqs0/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Persebaya</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>1.62</v>
+        <v>2.12</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.67</v>
+        <v>2.34</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>30/07/2023 13:52</t>
+          <t>30/07/2023 13:51</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.93</v>
+        <v>3.31</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.9</v>
+        <v>3.44</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>30/07/2023 13:52</t>
+          <t>30/07/2023 13:51</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.54</v>
+        <v>3.13</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.97</v>
+        <v>2.94</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>30/07/2023 13:52</t>
+          <t>30/07/2023 13:51</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persebaya/2mPkM3d6/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-madura-united/z1NcKsRI/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Persebaya</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.12</v>
+        <v>1.62</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.34</v>
+        <v>1.67</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>30/07/2023 13:51</t>
+          <t>30/07/2023 13:52</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.31</v>
+        <v>3.93</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.44</v>
+        <v>3.9</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>30/07/2023 13:51</t>
+          <t>30/07/2023 13:52</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.13</v>
+        <v>4.54</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.94</v>
+        <v>4.97</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>30/07/2023 13:51</t>
+          <t>30/07/2023 13:52</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-madura-united/z1NcKsRI/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persebaya/2mPkM3d6/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1.85</v>
+        <v>3.11</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.64</v>
+        <v>2.6</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.73</v>
+        <v>3.17</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.9</v>
+        <v>3.11</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>3.51</v>
+        <v>2.15</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>5.27</v>
+        <v>2.84</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persita/l6QcwHle/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persija-jakarta/IuV1xy41/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>3.11</v>
+        <v>1.85</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.6</v>
+        <v>1.64</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.17</v>
+        <v>3.73</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.11</v>
+        <v>3.9</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.15</v>
+        <v>3.51</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.84</v>
+        <v>5.27</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persija-jakarta/IuV1xy41/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persita/l6QcwHle/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="I101" t="n">
         <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>1.95</v>
+        <v>1.56</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>15/09/2023 13:59</t>
+          <t>15/09/2023 13:58</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.36</v>
+        <v>4.45</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.62</v>
+        <v>3.65</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>15/09/2023 13:59</t>
+          <t>15/09/2023 13:58</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>3.41</v>
+        <v>4.38</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>4.68</v>
+        <v>4.71</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-fc-bhayangkara/d4T3hmfa/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-rans-nusantara/zeS7i795/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="I102" t="n">
         <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>1.56</v>
+        <v>1.95</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,48 +9796,48 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
+          <t>15/09/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>14/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>15/09/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>14/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
           <t>15/09/2023 13:58</t>
         </is>
       </c>
-      <c r="N102" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>14/09/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P102" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q102" t="inlineStr">
-        <is>
-          <t>15/09/2023 13:58</t>
-        </is>
-      </c>
-      <c r="R102" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>14/09/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T102" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="U102" t="inlineStr">
-        <is>
-          <t>15/09/2023 13:58</t>
-        </is>
-      </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-rans-nusantara/zeS7i795/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-fc-bhayangkara/d4T3hmfa/</t>
         </is>
       </c>
     </row>
@@ -12717,22 +12717,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="I134" t="n">
         <v>2</v>
       </c>
       <c r="J134" t="n">
-        <v>2.71</v>
+        <v>2.18</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>3.01</v>
+        <v>2.07</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>08/10/2023 13:51</t>
+          <t>08/10/2023 13:53</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.33</v>
+        <v>3.22</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3.52</v>
+        <v>3.22</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>08/10/2023 12:26</t>
+          <t>08/10/2023 13:53</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>2.31</v>
+        <v>3.02</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>2.27</v>
+        <v>3.8</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>08/10/2023 13:51</t>
+          <t>08/10/2023 13:53</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-bali-united/neDqACL1/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-persik-kediri/QuPzCYjk/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="I135" t="n">
         <v>2</v>
       </c>
       <c r="J135" t="n">
-        <v>2.18</v>
+        <v>2.71</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>2.07</v>
+        <v>3.01</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>08/10/2023 13:53</t>
+          <t>08/10/2023 13:51</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.22</v>
+        <v>3.33</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.22</v>
+        <v>3.52</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>08/10/2023 13:53</t>
+          <t>08/10/2023 12:26</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>3.02</v>
+        <v>2.31</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>3.8</v>
+        <v>2.27</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>08/10/2023 13:53</t>
+          <t>08/10/2023 13:51</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-persik-kediri/QuPzCYjk/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-bali-united/neDqACL1/</t>
         </is>
       </c>
     </row>
@@ -13453,22 +13453,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J142" t="n">
-        <v>2.08</v>
+        <v>1.77</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>3.01</v>
+        <v>1.74</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>22/10/2023 09:57</t>
+          <t>22/10/2023 09:58</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.33</v>
+        <v>3.7</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,15 +13492,15 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.46</v>
+        <v>3.76</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>22/10/2023 09:57</t>
+          <t>22/10/2023 09:58</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>3.12</v>
+        <v>3.89</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>2.29</v>
+        <v>4.6</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>22/10/2023 09:57</t>
+          <t>22/10/2023 09:58</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-persis-solo/IZmEPiLl/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/madura-united-dewa-united/0bwJOBze/</t>
         </is>
       </c>
     </row>
@@ -13545,22 +13545,22 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="G143" t="n">
+        <v>2</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Persis Solo</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
         <v>1</v>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>Dewa United</t>
-        </is>
-      </c>
-      <c r="I143" t="n">
-        <v>4</v>
-      </c>
       <c r="J143" t="n">
-        <v>1.77</v>
+        <v>2.08</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -13568,15 +13568,15 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>1.74</v>
+        <v>3.01</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>22/10/2023 09:58</t>
+          <t>22/10/2023 09:57</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>3.7</v>
+        <v>3.33</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -13584,15 +13584,15 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.76</v>
+        <v>3.46</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>22/10/2023 09:58</t>
+          <t>22/10/2023 09:57</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>3.89</v>
+        <v>3.12</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
@@ -13600,16 +13600,16 @@
         </is>
       </c>
       <c r="T143" t="n">
-        <v>4.6</v>
+        <v>2.29</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>22/10/2023 09:58</t>
+          <t>22/10/2023 09:57</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/madura-united-dewa-united/0bwJOBze/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-persis-solo/IZmEPiLl/</t>
         </is>
       </c>
     </row>
@@ -14741,22 +14741,22 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>3.01</v>
+        <v>1.55</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -14764,15 +14764,15 @@
         </is>
       </c>
       <c r="L156" t="n">
-        <v>3.74</v>
+        <v>1.48</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>02/11/2023 12:56</t>
+          <t>02/11/2023 12:54</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3.27</v>
+        <v>3.94</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3.53</v>
+        <v>4.28</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         </is>
       </c>
       <c r="R156" t="n">
-        <v>2.16</v>
+        <v>4.88</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
@@ -14796,16 +14796,16 @@
         </is>
       </c>
       <c r="T156" t="n">
-        <v>1.97</v>
+        <v>6.89</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>02/11/2023 12:58</t>
+          <t>02/11/2023 12:59</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-psis-semarang/29YnRnCa/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persik-kediri/ABg8YUJP/</t>
         </is>
       </c>
     </row>
@@ -14833,22 +14833,22 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="n">
-        <v>1.55</v>
+        <v>3.01</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -14856,15 +14856,15 @@
         </is>
       </c>
       <c r="L157" t="n">
-        <v>1.48</v>
+        <v>3.74</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>02/11/2023 12:54</t>
+          <t>02/11/2023 12:56</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3.94</v>
+        <v>3.27</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
@@ -14872,7 +14872,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>4.28</v>
+        <v>3.53</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         </is>
       </c>
       <c r="R157" t="n">
-        <v>4.88</v>
+        <v>2.16</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
@@ -14888,16 +14888,16 @@
         </is>
       </c>
       <c r="T157" t="n">
-        <v>6.89</v>
+        <v>1.97</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>02/11/2023 12:59</t>
+          <t>02/11/2023 12:58</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persik-kediri/ABg8YUJP/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-psis-semarang/29YnRnCa/</t>
         </is>
       </c>
     </row>
@@ -15293,71 +15293,71 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Persib Bandung</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>1.33</v>
+        <v>2.53</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>06/11/2023 21:13</t>
+          <t>06/11/2023 21:11</t>
         </is>
       </c>
       <c r="L162" t="n">
-        <v>1.22</v>
+        <v>2.51</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>08/11/2023 08:55</t>
+          <t>08/11/2023 08:47</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>4.88</v>
+        <v>3.14</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>06/11/2023 21:13</t>
+          <t>06/11/2023 21:11</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>5.42</v>
+        <v>3.42</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>08/11/2023 08:55</t>
+          <t>08/11/2023 08:47</t>
         </is>
       </c>
       <c r="R162" t="n">
-        <v>7.04</v>
+        <v>2.56</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
-          <t>06/11/2023 21:13</t>
+          <t>06/11/2023 21:11</t>
         </is>
       </c>
       <c r="T162" t="n">
-        <v>9.9</v>
+        <v>2.42</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>08/11/2023 08:55</t>
+          <t>08/11/2023 08:45</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-arema-fc/MBllPQtC/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-madura-united/rLkpQ6R5/</t>
         </is>
       </c>
     </row>
@@ -15385,71 +15385,71 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Persib Bandung</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J163" t="n">
-        <v>2.53</v>
+        <v>1.33</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>06/11/2023 21:11</t>
+          <t>06/11/2023 21:13</t>
         </is>
       </c>
       <c r="L163" t="n">
-        <v>2.51</v>
+        <v>1.22</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>08/11/2023 08:47</t>
+          <t>08/11/2023 08:55</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>3.14</v>
+        <v>4.88</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>06/11/2023 21:11</t>
+          <t>06/11/2023 21:13</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>3.42</v>
+        <v>5.42</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>08/11/2023 08:47</t>
+          <t>08/11/2023 08:55</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>2.56</v>
+        <v>7.04</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
-          <t>06/11/2023 21:11</t>
+          <t>06/11/2023 21:13</t>
         </is>
       </c>
       <c r="T163" t="n">
-        <v>2.42</v>
+        <v>9.9</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>08/11/2023 08:45</t>
+          <t>08/11/2023 08:55</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-madura-united/rLkpQ6R5/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-arema-fc/MBllPQtC/</t>
         </is>
       </c>
     </row>
@@ -16094,6 +16094,282 @@
       <c r="V170" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-psm-makassar/2PMAtSBn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45253.375</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Madura United</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>1</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Bali United</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>2</v>
+      </c>
+      <c r="J171" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>21/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>23/11/2023 08:59</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>21/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P171" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>23/11/2023 08:59</t>
+        </is>
+      </c>
+      <c r="R171" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>21/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T171" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>23/11/2023 08:59</t>
+        </is>
+      </c>
+      <c r="V171" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/madura-united-bali-united/AmoaKyep/</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45253.54166666666</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Persita</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>3</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>RANS Nusantara</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>22/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>23/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>22/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P172" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>23/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R172" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>22/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T172" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>23/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V172" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-rans-nusantara/GnTQxpBB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45253.54166666666</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>PSM Makassar</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>3</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Persikabo 1973</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>22/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>23/11/2023 12:55</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>22/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P173" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>23/11/2023 12:55</t>
+        </is>
+      </c>
+      <c r="R173" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>22/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T173" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>23/11/2023 12:55</t>
+        </is>
+      </c>
+      <c r="V173" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/psm-makassar-persikabo-1973/MPTMwQe5/</t>
         </is>
       </c>
     </row>

--- a/2023/indonesia_liga-1_2023-2024.xlsx
+++ b/2023/indonesia_liga-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V173"/>
+  <dimension ref="A1:V175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.34</v>
+        <v>1.32</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4.55</v>
+        <v>1.75</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>09/07/2023 13:59</t>
+          <t>09/07/2023 13:54</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.3</v>
+        <v>5.37</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.38</v>
+        <v>3.97</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>09/07/2023 13:59</t>
+          <t>09/07/2023 13:54</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>1.99</v>
+        <v>6.1</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1.85</v>
+        <v>4.29</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>09/07/2023 13:59</t>
+          <t>09/07/2023 13:54</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persija-jakarta/SWyo6i68/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-rans-nusantara/6Nzk5BLE/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1.32</v>
+        <v>3.34</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.75</v>
+        <v>4.55</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>09/07/2023 13:54</t>
+          <t>09/07/2023 13:59</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>5.37</v>
+        <v>3.3</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.97</v>
+        <v>3.38</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>09/07/2023 13:54</t>
+          <t>09/07/2023 13:59</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>6.1</v>
+        <v>1.99</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>4.29</v>
+        <v>1.85</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>09/07/2023 13:54</t>
+          <t>09/07/2023 13:59</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-rans-nusantara/6Nzk5BLE/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persija-jakarta/SWyo6i68/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1.71</v>
+        <v>2.52</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.08</v>
+        <v>2.85</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>15/07/2023 09:52</t>
+          <t>15/07/2023 09:59</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.61</v>
+        <v>3.33</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.29</v>
+        <v>3.45</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>15/07/2023 09:52</t>
+          <t>15/07/2023 09:50</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>4.32</v>
+        <v>2.54</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.66</v>
+        <v>2.4</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>15/07/2023 09:52</t>
+          <t>15/07/2023 09:59</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-arema-fc/vXWQdmTf/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persita/nczZfRc7/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>2.52</v>
+        <v>1.71</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.85</v>
+        <v>2.08</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>15/07/2023 09:59</t>
+          <t>15/07/2023 09:52</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.33</v>
+        <v>3.61</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.45</v>
+        <v>3.29</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>15/07/2023 09:50</t>
+          <t>15/07/2023 09:52</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.54</v>
+        <v>4.32</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.4</v>
+        <v>3.66</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>15/07/2023 09:59</t>
+          <t>15/07/2023 09:52</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persita/nczZfRc7/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-arema-fc/vXWQdmTf/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>PSM Makassar</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>Persib Bandung</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>1.58</v>
+        <v>1.95</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.49</v>
+        <v>2.25</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>22/07/2023 13:54</t>
+          <t>22/07/2023 13:42</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.88</v>
+        <v>3.42</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>4.41</v>
+        <v>3.34</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>22/07/2023 13:56</t>
+          <t>22/07/2023 13:36</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>4.61</v>
+        <v>3.36</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>6.3</v>
+        <v>3.18</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>22/07/2023 13:54</t>
+          <t>22/07/2023 13:42</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-persikabo-1973/hzc0Bnrl/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/psm-makassar-persib-bandung/viaC8pS6/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>PSM Makassar</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Persib Bandung</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>1.95</v>
+        <v>1.58</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.25</v>
+        <v>1.49</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>22/07/2023 13:42</t>
+          <t>22/07/2023 13:54</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.42</v>
+        <v>3.88</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.34</v>
+        <v>4.41</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>22/07/2023 13:36</t>
+          <t>22/07/2023 13:56</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.36</v>
+        <v>4.61</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.18</v>
+        <v>6.3</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>22/07/2023 13:42</t>
+          <t>22/07/2023 13:54</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/psm-makassar-persib-bandung/viaC8pS6/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-persikabo-1973/hzc0Bnrl/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.65</v>
+        <v>2.32</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.61</v>
+        <v>2.79</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.8</v>
+        <v>3.26</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,32 +4292,32 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>4.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
+          <t>30/07/2023 09:58</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>28/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
           <t>30/07/2023 09:55</t>
         </is>
       </c>
-      <c r="R42" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>28/07/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T42" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>30/07/2023 09:51</t>
-        </is>
-      </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-arema-fc/tvOgLNBC/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-pss-sleman/pCUpNqs0/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.32</v>
+        <v>1.65</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.79</v>
+        <v>1.61</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.26</v>
+        <v>3.8</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.5</v>
+        <v>4.15</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>30/07/2023 09:58</t>
+          <t>30/07/2023 09:55</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.75</v>
+        <v>4.48</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.42</v>
+        <v>5.06</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>30/07/2023 09:55</t>
+          <t>30/07/2023 09:51</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-pss-sleman/pCUpNqs0/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-arema-fc/tvOgLNBC/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Persebaya</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.12</v>
+        <v>1.62</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.34</v>
+        <v>1.67</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>30/07/2023 13:51</t>
+          <t>30/07/2023 13:52</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.31</v>
+        <v>3.93</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.44</v>
+        <v>3.9</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>30/07/2023 13:51</t>
+          <t>30/07/2023 13:52</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.13</v>
+        <v>4.54</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.94</v>
+        <v>4.97</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>30/07/2023 13:51</t>
+          <t>30/07/2023 13:52</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-madura-united/z1NcKsRI/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persebaya/2mPkM3d6/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Persebaya</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>1.62</v>
+        <v>2.12</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.67</v>
+        <v>2.34</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>30/07/2023 13:52</t>
+          <t>30/07/2023 13:51</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.93</v>
+        <v>3.31</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.9</v>
+        <v>3.44</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>30/07/2023 13:52</t>
+          <t>30/07/2023 13:51</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>4.54</v>
+        <v>3.13</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>4.97</v>
+        <v>2.94</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>30/07/2023 13:52</t>
+          <t>30/07/2023 13:51</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persebaya/2mPkM3d6/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-madura-united/z1NcKsRI/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Persib Bandung</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,14 +4721,14 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1.96</v>
+        <v>2.14</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.22</v>
+        <v>1.65</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>03/08/2023 13:58</t>
+          <t>03/08/2023 13:51</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.61</v>
+        <v>3.31</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.61</v>
+        <v>4.02</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>03/08/2023 13:58</t>
+          <t>03/08/2023 13:51</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.17</v>
+        <v>3.11</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>3.04</v>
+        <v>4.94</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>03/08/2023 13:58</t>
+          <t>03/08/2023 13:51</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-bali-united/SYEBAREi/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-fc-bhayangkara/lrG7B7ao/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Persib Bandung</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,14 +4813,14 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>2.14</v>
+        <v>1.96</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.65</v>
+        <v>2.22</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>03/08/2023 13:51</t>
+          <t>03/08/2023 13:58</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.31</v>
+        <v>3.61</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.02</v>
+        <v>3.61</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>03/08/2023 13:51</t>
+          <t>03/08/2023 13:58</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.11</v>
+        <v>3.17</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>4.94</v>
+        <v>3.04</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>03/08/2023 13:51</t>
+          <t>03/08/2023 13:58</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-fc-bhayangkara/lrG7B7ao/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-bali-united/SYEBAREi/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>3.11</v>
+        <v>1.85</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.6</v>
+        <v>1.64</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.17</v>
+        <v>3.73</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.11</v>
+        <v>3.9</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.15</v>
+        <v>3.51</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.84</v>
+        <v>5.27</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persija-jakarta/IuV1xy41/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persita/l6QcwHle/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1.85</v>
+        <v>3.11</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.64</v>
+        <v>2.6</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.73</v>
+        <v>3.17</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.9</v>
+        <v>3.11</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.51</v>
+        <v>2.15</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>5.27</v>
+        <v>2.84</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persita/l6QcwHle/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persija-jakarta/IuV1xy41/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="I101" t="n">
         <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>1.56</v>
+        <v>1.95</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,48 +9704,48 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
+          <t>15/09/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>14/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>15/09/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>14/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
           <t>15/09/2023 13:58</t>
         </is>
       </c>
-      <c r="N101" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>14/09/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P101" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q101" t="inlineStr">
-        <is>
-          <t>15/09/2023 13:58</t>
-        </is>
-      </c>
-      <c r="R101" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t>14/09/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T101" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="U101" t="inlineStr">
-        <is>
-          <t>15/09/2023 13:58</t>
-        </is>
-      </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-rans-nusantara/zeS7i795/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-fc-bhayangkara/d4T3hmfa/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="I102" t="n">
         <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>1.95</v>
+        <v>1.56</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>15/09/2023 13:59</t>
+          <t>15/09/2023 13:58</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.36</v>
+        <v>4.45</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.62</v>
+        <v>3.65</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>15/09/2023 13:59</t>
+          <t>15/09/2023 13:58</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>3.41</v>
+        <v>4.38</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,7 +9828,7 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>4.68</v>
+        <v>4.71</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-fc-bhayangkara/d4T3hmfa/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-rans-nusantara/zeS7i795/</t>
         </is>
       </c>
     </row>
@@ -13453,22 +13453,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="G142" t="n">
+        <v>2</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Persis Solo</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
         <v>1</v>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>Dewa United</t>
-        </is>
-      </c>
-      <c r="I142" t="n">
-        <v>4</v>
-      </c>
       <c r="J142" t="n">
-        <v>1.77</v>
+        <v>2.08</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1.74</v>
+        <v>3.01</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>22/10/2023 09:58</t>
+          <t>22/10/2023 09:57</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.7</v>
+        <v>3.33</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,15 +13492,15 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.76</v>
+        <v>3.46</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>22/10/2023 09:58</t>
+          <t>22/10/2023 09:57</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>3.89</v>
+        <v>3.12</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>4.6</v>
+        <v>2.29</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>22/10/2023 09:58</t>
+          <t>22/10/2023 09:57</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/madura-united-dewa-united/0bwJOBze/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-persis-solo/IZmEPiLl/</t>
         </is>
       </c>
     </row>
@@ -13545,22 +13545,22 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J143" t="n">
-        <v>2.08</v>
+        <v>1.77</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -13568,15 +13568,15 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>3.01</v>
+        <v>1.74</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>22/10/2023 09:57</t>
+          <t>22/10/2023 09:58</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>3.33</v>
+        <v>3.7</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -13584,15 +13584,15 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.46</v>
+        <v>3.76</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>22/10/2023 09:57</t>
+          <t>22/10/2023 09:58</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>3.12</v>
+        <v>3.89</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
@@ -13600,16 +13600,16 @@
         </is>
       </c>
       <c r="T143" t="n">
-        <v>2.29</v>
+        <v>4.6</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>22/10/2023 09:57</t>
+          <t>22/10/2023 09:58</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-persis-solo/IZmEPiLl/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/madura-united-dewa-united/0bwJOBze/</t>
         </is>
       </c>
     </row>
@@ -15293,71 +15293,71 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Persib Bandung</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J162" t="n">
-        <v>2.53</v>
+        <v>1.33</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>06/11/2023 21:11</t>
+          <t>06/11/2023 21:13</t>
         </is>
       </c>
       <c r="L162" t="n">
-        <v>2.51</v>
+        <v>1.22</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>08/11/2023 08:47</t>
+          <t>08/11/2023 08:55</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>3.14</v>
+        <v>4.88</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>06/11/2023 21:11</t>
+          <t>06/11/2023 21:13</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>3.42</v>
+        <v>5.42</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>08/11/2023 08:47</t>
+          <t>08/11/2023 08:55</t>
         </is>
       </c>
       <c r="R162" t="n">
-        <v>2.56</v>
+        <v>7.04</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
-          <t>06/11/2023 21:11</t>
+          <t>06/11/2023 21:13</t>
         </is>
       </c>
       <c r="T162" t="n">
-        <v>2.42</v>
+        <v>9.9</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>08/11/2023 08:45</t>
+          <t>08/11/2023 08:55</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-madura-united/rLkpQ6R5/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-arema-fc/MBllPQtC/</t>
         </is>
       </c>
     </row>
@@ -15385,71 +15385,71 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Persib Bandung</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>1.33</v>
+        <v>2.53</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>06/11/2023 21:13</t>
+          <t>06/11/2023 21:11</t>
         </is>
       </c>
       <c r="L163" t="n">
-        <v>1.22</v>
+        <v>2.51</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>08/11/2023 08:55</t>
+          <t>08/11/2023 08:47</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>4.88</v>
+        <v>3.14</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>06/11/2023 21:13</t>
+          <t>06/11/2023 21:11</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>5.42</v>
+        <v>3.42</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>08/11/2023 08:55</t>
+          <t>08/11/2023 08:47</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>7.04</v>
+        <v>2.56</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
-          <t>06/11/2023 21:13</t>
+          <t>06/11/2023 21:11</t>
         </is>
       </c>
       <c r="T163" t="n">
-        <v>9.9</v>
+        <v>2.42</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>08/11/2023 08:55</t>
+          <t>08/11/2023 08:45</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-arema-fc/MBllPQtC/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-madura-united/rLkpQ6R5/</t>
         </is>
       </c>
     </row>
@@ -16370,6 +16370,190 @@
       <c r="V173" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/indonesia/liga-1/psm-makassar-persikabo-1973/MPTMwQe5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45256.375</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>PSS Sleman</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>2</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Barito Putera</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>24/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:46</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>24/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="P174" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:35</t>
+        </is>
+      </c>
+      <c r="R174" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>24/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="T174" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:46</t>
+        </is>
+      </c>
+      <c r="V174" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-ps-barito-putera/fwSUy4QH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45256.54166666666</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Dewa United</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>1</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Persib Bandung</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>5</v>
+      </c>
+      <c r="J175" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>25/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:56</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>25/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P175" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:54</t>
+        </is>
+      </c>
+      <c r="R175" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>25/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T175" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:56</t>
+        </is>
+      </c>
+      <c r="V175" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persib-bandung/b9RgtJH3/</t>
         </is>
       </c>
     </row>

--- a/2023/indonesia_liga-1_2023-2024.xlsx
+++ b/2023/indonesia_liga-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V175"/>
+  <dimension ref="A1:V176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.32</v>
+        <v>3.34</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.75</v>
+        <v>4.55</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>09/07/2023 13:54</t>
+          <t>09/07/2023 13:59</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>5.37</v>
+        <v>3.3</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.97</v>
+        <v>3.38</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>09/07/2023 13:54</t>
+          <t>09/07/2023 13:59</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>6.1</v>
+        <v>1.99</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>4.29</v>
+        <v>1.85</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>09/07/2023 13:54</t>
+          <t>09/07/2023 13:59</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-rans-nusantara/6Nzk5BLE/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persija-jakarta/SWyo6i68/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.34</v>
+        <v>1.32</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4.55</v>
+        <v>1.75</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>09/07/2023 13:59</t>
+          <t>09/07/2023 13:54</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.3</v>
+        <v>5.37</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.38</v>
+        <v>3.97</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>09/07/2023 13:59</t>
+          <t>09/07/2023 13:54</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>1.99</v>
+        <v>6.1</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>1.85</v>
+        <v>4.29</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>09/07/2023 13:59</t>
+          <t>09/07/2023 13:54</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persija-jakarta/SWyo6i68/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-rans-nusantara/6Nzk5BLE/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>PSM Makassar</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.56</v>
+        <v>3.73</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,48 +2160,48 @@
         </is>
       </c>
       <c r="L19" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>14/07/2023 09:53</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>12/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>14/07/2023 09:53</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
         <v>1.86</v>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>14/07/2023 09:58</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="O19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>12/07/2023 22:12</t>
         </is>
       </c>
-      <c r="P19" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>14/07/2023 09:57</t>
-        </is>
-      </c>
-      <c r="R19" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>12/07/2023 22:12</t>
-        </is>
-      </c>
       <c r="T19" t="n">
-        <v>3.05</v>
+        <v>2.11</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>14/07/2023 09:58</t>
+          <t>14/07/2023 09:53</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-pss-sleman/nZin4VzL/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-psm-makassar/QPjj3kjR/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>PSM Makassar</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.73</v>
+        <v>1.56</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3.53</v>
+        <v>1.86</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>14/07/2023 09:53</t>
+          <t>14/07/2023 09:58</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.49</v>
+        <v>4.07</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.33</v>
+        <v>3.27</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>14/07/2023 09:53</t>
+          <t>14/07/2023 09:57</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>1.86</v>
+        <v>4.9</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.11</v>
+        <v>3.05</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>14/07/2023 09:53</t>
+          <t>14/07/2023 09:58</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-psm-makassar/QPjj3kjR/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-pss-sleman/nZin4VzL/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.32</v>
+        <v>1.65</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.79</v>
+        <v>1.61</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.26</v>
+        <v>3.8</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.5</v>
+        <v>4.15</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>30/07/2023 09:58</t>
+          <t>30/07/2023 09:55</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.75</v>
+        <v>4.48</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.42</v>
+        <v>5.06</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>30/07/2023 09:55</t>
+          <t>30/07/2023 09:51</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-pss-sleman/pCUpNqs0/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-arema-fc/tvOgLNBC/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.65</v>
+        <v>2.32</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.61</v>
+        <v>2.79</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.8</v>
+        <v>3.26</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,32 +4384,32 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>4.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
+          <t>30/07/2023 09:58</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>28/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
           <t>30/07/2023 09:55</t>
         </is>
       </c>
-      <c r="R43" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>28/07/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T43" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>30/07/2023 09:51</t>
-        </is>
-      </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-arema-fc/tvOgLNBC/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-pss-sleman/pCUpNqs0/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Persebaya</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>1.62</v>
+        <v>2.12</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.67</v>
+        <v>2.34</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>30/07/2023 13:52</t>
+          <t>30/07/2023 13:51</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.93</v>
+        <v>3.31</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.9</v>
+        <v>3.44</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>30/07/2023 13:52</t>
+          <t>30/07/2023 13:51</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.54</v>
+        <v>3.13</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.97</v>
+        <v>2.94</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>30/07/2023 13:52</t>
+          <t>30/07/2023 13:51</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persebaya/2mPkM3d6/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-madura-united/z1NcKsRI/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Persebaya</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.12</v>
+        <v>1.62</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.34</v>
+        <v>1.67</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>30/07/2023 13:51</t>
+          <t>30/07/2023 13:52</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.31</v>
+        <v>3.93</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.44</v>
+        <v>3.9</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>30/07/2023 13:51</t>
+          <t>30/07/2023 13:52</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.13</v>
+        <v>4.54</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.94</v>
+        <v>4.97</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>30/07/2023 13:51</t>
+          <t>30/07/2023 13:52</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-madura-united/z1NcKsRI/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persebaya/2mPkM3d6/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>1.76</v>
+        <v>2.11</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.59</v>
+        <v>1.86</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>25/08/2023 09:55</t>
+          <t>25/08/2023 09:58</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.57</v>
+        <v>3.28</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>4</v>
+        <v>3.69</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>25/08/2023 09:55</t>
+          <t>25/08/2023 09:58</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.95</v>
+        <v>3.11</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>5.59</v>
+        <v>4.02</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>25/08/2023 09:55</t>
+          <t>25/08/2023 09:58</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/madura-united-fc-bhayangkara/AFRgvcZl/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-psis-semarang/SjxkuwKr/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>2.11</v>
+        <v>1.76</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.86</v>
+        <v>1.59</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>25/08/2023 09:58</t>
+          <t>25/08/2023 09:55</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.28</v>
+        <v>3.57</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.69</v>
+        <v>4</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>25/08/2023 09:58</t>
+          <t>25/08/2023 09:55</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.11</v>
+        <v>3.95</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>4.02</v>
+        <v>5.59</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>25/08/2023 09:58</t>
+          <t>25/08/2023 09:55</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-psis-semarang/SjxkuwKr/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/madura-united-fc-bhayangkara/AFRgvcZl/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1.85</v>
+        <v>3.11</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.64</v>
+        <v>2.6</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.73</v>
+        <v>3.17</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.9</v>
+        <v>3.11</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>3.51</v>
+        <v>2.15</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>5.27</v>
+        <v>2.84</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persita/l6QcwHle/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persija-jakarta/IuV1xy41/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>3.11</v>
+        <v>1.85</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.6</v>
+        <v>1.64</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.17</v>
+        <v>3.73</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.11</v>
+        <v>3.9</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.15</v>
+        <v>3.51</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.84</v>
+        <v>5.27</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persija-jakarta/IuV1xy41/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persita/l6QcwHle/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Persib Bandung</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1.96</v>
+        <v>2.42</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.96</v>
+        <v>2.2</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>02/09/2023 09:57</t>
+          <t>02/09/2023 09:51</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.33</v>
+        <v>3.25</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.19</v>
+        <v>3.16</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>02/09/2023 09:57</t>
+          <t>02/09/2023 09:51</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>3.44</v>
+        <v>2.7</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>4.27</v>
+        <v>3.5</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>02/09/2023 09:57</t>
+          <t>02/09/2023 09:51</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persib-bandung/vTdwxS9I/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persik-kediri/d47Yx8fC/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,14 +9045,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Persib Bandung</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>2.42</v>
+        <v>1.96</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.2</v>
+        <v>1.96</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>02/09/2023 09:51</t>
+          <t>02/09/2023 09:57</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.25</v>
+        <v>3.33</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.16</v>
+        <v>3.19</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>02/09/2023 09:51</t>
+          <t>02/09/2023 09:57</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.7</v>
+        <v>3.44</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>3.5</v>
+        <v>4.27</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>02/09/2023 09:51</t>
+          <t>02/09/2023 09:57</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persik-kediri/d47Yx8fC/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persib-bandung/vTdwxS9I/</t>
         </is>
       </c>
     </row>
@@ -9865,71 +9865,71 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Persib Bandung</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>1.37</v>
+        <v>2.63</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>14/09/2023 22:12</t>
+          <t>14/09/2023 22:13</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.49</v>
+        <v>2.66</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>16/09/2023 09:53</t>
+          <t>16/09/2023 09:54</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>4.64</v>
+        <v>3.06</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>14/09/2023 22:12</t>
+          <t>14/09/2023 22:13</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>4.42</v>
+        <v>3.13</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>16/09/2023 09:53</t>
+          <t>16/09/2023 09:51</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>6.41</v>
+        <v>2.54</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>14/09/2023 22:12</t>
+          <t>14/09/2023 22:13</t>
         </is>
       </c>
       <c r="T103" t="n">
-        <v>6.27</v>
+        <v>2.76</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>16/09/2023 09:53</t>
+          <t>16/09/2023 09:54</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-persikabo-1973/WMLGkovI/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/arema-fc-persita/hWMCjROB/</t>
         </is>
       </c>
     </row>
@@ -9957,71 +9957,71 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Persib Bandung</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>2.63</v>
+        <v>1.37</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>14/09/2023 22:13</t>
+          <t>14/09/2023 22:12</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.66</v>
+        <v>1.49</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>16/09/2023 09:54</t>
+          <t>16/09/2023 09:53</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.06</v>
+        <v>4.64</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>14/09/2023 22:13</t>
+          <t>14/09/2023 22:12</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.13</v>
+        <v>4.42</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>16/09/2023 09:51</t>
+          <t>16/09/2023 09:53</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>2.54</v>
+        <v>6.41</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>14/09/2023 22:13</t>
+          <t>14/09/2023 22:12</t>
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.76</v>
+        <v>6.27</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>16/09/2023 09:54</t>
+          <t>16/09/2023 09:53</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/arema-fc-persita/hWMCjROB/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-persikabo-1973/WMLGkovI/</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -10241,14 +10241,14 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J107" t="n">
-        <v>1.56</v>
+        <v>2.82</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.5</v>
+        <v>3.07</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>17/09/2023 13:53</t>
+          <t>17/09/2023 13:52</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>4.05</v>
+        <v>3.09</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>4.47</v>
+        <v>2.94</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>17/09/2023 13:53</t>
+          <t>17/09/2023 13:52</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>4.92</v>
+        <v>2.37</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>6.08</v>
+        <v>2.55</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>17/09/2023 13:53</t>
+          <t>17/09/2023 13:52</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-pss-sleman/4AjV88vt/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-persija-jakarta/r1kZ7Sgn/</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -10333,14 +10333,14 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>2.82</v>
+        <v>1.56</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>3.07</v>
+        <v>1.5</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>17/09/2023 13:52</t>
+          <t>17/09/2023 13:53</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.09</v>
+        <v>4.05</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>2.94</v>
+        <v>4.47</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>17/09/2023 13:52</t>
+          <t>17/09/2023 13:53</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>2.37</v>
+        <v>4.92</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>2.55</v>
+        <v>6.08</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>17/09/2023 13:52</t>
+          <t>17/09/2023 13:53</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-persija-jakarta/r1kZ7Sgn/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-pss-sleman/4AjV88vt/</t>
         </is>
       </c>
     </row>
@@ -12717,22 +12717,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="I134" t="n">
         <v>2</v>
       </c>
       <c r="J134" t="n">
-        <v>2.18</v>
+        <v>2.71</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>2.07</v>
+        <v>3.01</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>08/10/2023 13:53</t>
+          <t>08/10/2023 13:51</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.22</v>
+        <v>3.33</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3.22</v>
+        <v>3.52</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>08/10/2023 13:53</t>
+          <t>08/10/2023 12:26</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>3.02</v>
+        <v>2.31</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>3.8</v>
+        <v>2.27</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>08/10/2023 13:53</t>
+          <t>08/10/2023 13:51</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-persik-kediri/QuPzCYjk/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-bali-united/neDqACL1/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="I135" t="n">
         <v>2</v>
       </c>
       <c r="J135" t="n">
-        <v>2.71</v>
+        <v>2.18</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>3.01</v>
+        <v>2.07</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>08/10/2023 13:51</t>
+          <t>08/10/2023 13:53</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.33</v>
+        <v>3.22</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.52</v>
+        <v>3.22</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>08/10/2023 12:26</t>
+          <t>08/10/2023 13:53</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>2.31</v>
+        <v>3.02</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>2.27</v>
+        <v>3.8</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>08/10/2023 13:51</t>
+          <t>08/10/2023 13:53</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-bali-united/neDqACL1/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-persik-kediri/QuPzCYjk/</t>
         </is>
       </c>
     </row>
@@ -14005,22 +14005,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Persib Bandung</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I148" t="n">
         <v>1</v>
       </c>
       <c r="J148" t="n">
-        <v>1.74</v>
+        <v>1.35</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -14028,15 +14028,15 @@
         </is>
       </c>
       <c r="L148" t="n">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>28/10/2023 13:21</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.61</v>
+        <v>4.75</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -14044,15 +14044,15 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.99</v>
+        <v>4.66</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>28/10/2023 13:21</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>4.2</v>
+        <v>6.7</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
@@ -14060,16 +14060,16 @@
         </is>
       </c>
       <c r="T148" t="n">
-        <v>5.64</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>28/10/2023 13:21</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-dewa-united/KQGdGVcs/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-pss-sleman/OfVQLizK/</t>
         </is>
       </c>
     </row>
@@ -14097,22 +14097,22 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Persib Bandung</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="I149" t="n">
         <v>1</v>
       </c>
       <c r="J149" t="n">
-        <v>1.35</v>
+        <v>1.74</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -14120,15 +14120,15 @@
         </is>
       </c>
       <c r="L149" t="n">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:21</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>4.75</v>
+        <v>3.61</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -14136,15 +14136,15 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>4.66</v>
+        <v>3.99</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:21</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>6.7</v>
+        <v>4.2</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
@@ -14152,16 +14152,16 @@
         </is>
       </c>
       <c r="T149" t="n">
-        <v>8.380000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:21</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-pss-sleman/OfVQLizK/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-dewa-united/KQGdGVcs/</t>
         </is>
       </c>
     </row>
@@ -15293,71 +15293,71 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Persib Bandung</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>1.33</v>
+        <v>2.53</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>06/11/2023 21:13</t>
+          <t>06/11/2023 21:11</t>
         </is>
       </c>
       <c r="L162" t="n">
-        <v>1.22</v>
+        <v>2.51</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>08/11/2023 08:55</t>
+          <t>08/11/2023 08:47</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>4.88</v>
+        <v>3.14</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>06/11/2023 21:13</t>
+          <t>06/11/2023 21:11</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>5.42</v>
+        <v>3.42</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>08/11/2023 08:55</t>
+          <t>08/11/2023 08:47</t>
         </is>
       </c>
       <c r="R162" t="n">
-        <v>7.04</v>
+        <v>2.56</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
-          <t>06/11/2023 21:13</t>
+          <t>06/11/2023 21:11</t>
         </is>
       </c>
       <c r="T162" t="n">
-        <v>9.9</v>
+        <v>2.42</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>08/11/2023 08:55</t>
+          <t>08/11/2023 08:45</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-arema-fc/MBllPQtC/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-madura-united/rLkpQ6R5/</t>
         </is>
       </c>
     </row>
@@ -15385,71 +15385,71 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Persib Bandung</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J163" t="n">
-        <v>2.53</v>
+        <v>1.33</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>06/11/2023 21:11</t>
+          <t>06/11/2023 21:13</t>
         </is>
       </c>
       <c r="L163" t="n">
-        <v>2.51</v>
+        <v>1.22</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>08/11/2023 08:47</t>
+          <t>08/11/2023 08:55</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>3.14</v>
+        <v>4.88</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>06/11/2023 21:11</t>
+          <t>06/11/2023 21:13</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>3.42</v>
+        <v>5.42</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>08/11/2023 08:47</t>
+          <t>08/11/2023 08:55</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>2.56</v>
+        <v>7.04</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
-          <t>06/11/2023 21:11</t>
+          <t>06/11/2023 21:13</t>
         </is>
       </c>
       <c r="T163" t="n">
-        <v>2.42</v>
+        <v>9.9</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>08/11/2023 08:45</t>
+          <t>08/11/2023 08:55</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-madura-united/rLkpQ6R5/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-arema-fc/MBllPQtC/</t>
         </is>
       </c>
     </row>
@@ -16554,6 +16554,98 @@
       <c r="V175" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persib-bandung/b9RgtJH3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45257.375</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Arema FC</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Persik Kediri</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>25/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>27/11/2023 07:56</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>25/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P176" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>27/11/2023 07:22</t>
+        </is>
+      </c>
+      <c r="R176" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>25/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T176" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>27/11/2023 07:56</t>
+        </is>
+      </c>
+      <c r="V176" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/arema-fc-persik-kediri/2sYprumi/</t>
         </is>
       </c>
     </row>

--- a/2023/indonesia_liga-1_2023-2024.xlsx
+++ b/2023/indonesia_liga-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V176"/>
+  <dimension ref="A1:V178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.34</v>
+        <v>1.32</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4.55</v>
+        <v>1.75</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>09/07/2023 13:59</t>
+          <t>09/07/2023 13:54</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.3</v>
+        <v>5.37</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.38</v>
+        <v>3.97</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>09/07/2023 13:59</t>
+          <t>09/07/2023 13:54</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>1.99</v>
+        <v>6.1</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1.85</v>
+        <v>4.29</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>09/07/2023 13:59</t>
+          <t>09/07/2023 13:54</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persija-jakarta/SWyo6i68/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-rans-nusantara/6Nzk5BLE/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1.32</v>
+        <v>3.34</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.75</v>
+        <v>4.55</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>09/07/2023 13:54</t>
+          <t>09/07/2023 13:59</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>5.37</v>
+        <v>3.3</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.97</v>
+        <v>3.38</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>09/07/2023 13:54</t>
+          <t>09/07/2023 13:59</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>6.1</v>
+        <v>1.99</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>4.29</v>
+        <v>1.85</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>09/07/2023 13:54</t>
+          <t>09/07/2023 13:59</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-rans-nusantara/6Nzk5BLE/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persija-jakarta/SWyo6i68/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>PSM Makassar</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.73</v>
+        <v>1.56</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3.53</v>
+        <v>1.86</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>14/07/2023 09:53</t>
+          <t>14/07/2023 09:58</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.49</v>
+        <v>4.07</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.33</v>
+        <v>3.27</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>14/07/2023 09:53</t>
+          <t>14/07/2023 09:57</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>1.86</v>
+        <v>4.9</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.11</v>
+        <v>3.05</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>14/07/2023 09:53</t>
+          <t>14/07/2023 09:58</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-psm-makassar/QPjj3kjR/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-pss-sleman/nZin4VzL/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>PSM Makassar</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1.56</v>
+        <v>3.73</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,48 +2252,48 @@
         </is>
       </c>
       <c r="L20" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>14/07/2023 09:53</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>12/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>14/07/2023 09:53</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
         <v>1.86</v>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>14/07/2023 09:58</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="O20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>12/07/2023 22:12</t>
         </is>
       </c>
-      <c r="P20" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>14/07/2023 09:57</t>
-        </is>
-      </c>
-      <c r="R20" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>12/07/2023 22:12</t>
-        </is>
-      </c>
       <c r="T20" t="n">
-        <v>3.05</v>
+        <v>2.11</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>14/07/2023 09:58</t>
+          <t>14/07/2023 09:53</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-pss-sleman/nZin4VzL/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-psm-makassar/QPjj3kjR/</t>
         </is>
       </c>
     </row>
@@ -3149,19 +3149,19 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Bali United</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>3</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Persik Kediri</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>2.7</v>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.53</v>
+        <v>4.79</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>21/07/2023 13:57</t>
+          <t>21/07/2023 13:59</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.13</v>
+        <v>3.28</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.69</v>
+        <v>3.86</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>21/07/2023 13:57</t>
+          <t>21/07/2023 13:58</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.55</v>
+        <v>1.69</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>21/07/2023 13:57</t>
+          <t>21/07/2023 13:54</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persik-kediri/YkGTG8KQ/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/arema-fc-bali-united/za2eCSSs/</t>
         </is>
       </c>
     </row>
@@ -3241,19 +3241,19 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>2.7</v>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4.79</v>
+        <v>2.53</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>21/07/2023 13:59</t>
+          <t>21/07/2023 13:57</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.28</v>
+        <v>3.13</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.86</v>
+        <v>3.69</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>21/07/2023 13:58</t>
+          <t>21/07/2023 13:57</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.35</v>
+        <v>2.44</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>1.69</v>
+        <v>2.55</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>21/07/2023 13:54</t>
+          <t>21/07/2023 13:57</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/arema-fc-bali-united/za2eCSSs/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persik-kediri/YkGTG8KQ/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.65</v>
+        <v>2.32</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.61</v>
+        <v>2.79</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.8</v>
+        <v>3.26</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,32 +4292,32 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>4.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
+          <t>30/07/2023 09:58</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>28/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
           <t>30/07/2023 09:55</t>
         </is>
       </c>
-      <c r="R42" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>28/07/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T42" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>30/07/2023 09:51</t>
-        </is>
-      </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-arema-fc/tvOgLNBC/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-pss-sleman/pCUpNqs0/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.32</v>
+        <v>1.65</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.79</v>
+        <v>1.61</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.26</v>
+        <v>3.8</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.5</v>
+        <v>4.15</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>30/07/2023 09:58</t>
+          <t>30/07/2023 09:55</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.75</v>
+        <v>4.48</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.42</v>
+        <v>5.06</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>30/07/2023 09:55</t>
+          <t>30/07/2023 09:51</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-pss-sleman/pCUpNqs0/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-arema-fc/tvOgLNBC/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Persebaya</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.12</v>
+        <v>1.62</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.34</v>
+        <v>1.67</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>30/07/2023 13:51</t>
+          <t>30/07/2023 13:52</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.31</v>
+        <v>3.93</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.44</v>
+        <v>3.9</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>30/07/2023 13:51</t>
+          <t>30/07/2023 13:52</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.13</v>
+        <v>4.54</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.94</v>
+        <v>4.97</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>30/07/2023 13:51</t>
+          <t>30/07/2023 13:52</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-madura-united/z1NcKsRI/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persebaya/2mPkM3d6/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Persebaya</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>1.62</v>
+        <v>2.12</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.67</v>
+        <v>2.34</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>30/07/2023 13:52</t>
+          <t>30/07/2023 13:51</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.93</v>
+        <v>3.31</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.9</v>
+        <v>3.44</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>30/07/2023 13:52</t>
+          <t>30/07/2023 13:51</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>4.54</v>
+        <v>3.13</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>4.97</v>
+        <v>2.94</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>30/07/2023 13:52</t>
+          <t>30/07/2023 13:51</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persebaya/2mPkM3d6/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-madura-united/z1NcKsRI/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>2.11</v>
+        <v>1.76</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.86</v>
+        <v>1.59</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>25/08/2023 09:58</t>
+          <t>25/08/2023 09:55</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.28</v>
+        <v>3.57</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.69</v>
+        <v>4</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>25/08/2023 09:58</t>
+          <t>25/08/2023 09:55</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.11</v>
+        <v>3.95</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>4.02</v>
+        <v>5.59</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>25/08/2023 09:58</t>
+          <t>25/08/2023 09:55</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-psis-semarang/SjxkuwKr/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/madura-united-fc-bhayangkara/AFRgvcZl/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>1.76</v>
+        <v>2.11</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.59</v>
+        <v>1.86</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>25/08/2023 09:55</t>
+          <t>25/08/2023 09:58</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.57</v>
+        <v>3.28</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>4</v>
+        <v>3.69</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>25/08/2023 09:55</t>
+          <t>25/08/2023 09:58</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.95</v>
+        <v>3.11</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>5.59</v>
+        <v>4.02</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>25/08/2023 09:55</t>
+          <t>25/08/2023 09:58</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/madura-united-fc-bhayangkara/AFRgvcZl/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-psis-semarang/SjxkuwKr/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>3.11</v>
+        <v>1.85</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.6</v>
+        <v>1.64</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.17</v>
+        <v>3.73</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.11</v>
+        <v>3.9</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.15</v>
+        <v>3.51</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.84</v>
+        <v>5.27</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persija-jakarta/IuV1xy41/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persita/l6QcwHle/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1.85</v>
+        <v>3.11</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.64</v>
+        <v>2.6</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.73</v>
+        <v>3.17</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.9</v>
+        <v>3.11</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.51</v>
+        <v>2.15</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>5.27</v>
+        <v>2.84</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persita/l6QcwHle/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persija-jakarta/IuV1xy41/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Persib Bandung</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>2.42</v>
+        <v>1.96</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.2</v>
+        <v>1.96</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>02/09/2023 09:51</t>
+          <t>02/09/2023 09:57</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.25</v>
+        <v>3.33</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.16</v>
+        <v>3.19</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>02/09/2023 09:51</t>
+          <t>02/09/2023 09:57</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2.7</v>
+        <v>3.44</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>3.5</v>
+        <v>4.27</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>02/09/2023 09:51</t>
+          <t>02/09/2023 09:57</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persik-kediri/d47Yx8fC/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persib-bandung/vTdwxS9I/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,14 +9045,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Persib Bandung</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1.96</v>
+        <v>2.42</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.96</v>
+        <v>2.2</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>02/09/2023 09:57</t>
+          <t>02/09/2023 09:51</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.33</v>
+        <v>3.25</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.19</v>
+        <v>3.16</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>02/09/2023 09:57</t>
+          <t>02/09/2023 09:51</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>3.44</v>
+        <v>2.7</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>4.27</v>
+        <v>3.5</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>02/09/2023 09:57</t>
+          <t>02/09/2023 09:51</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persib-bandung/vTdwxS9I/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persik-kediri/d47Yx8fC/</t>
         </is>
       </c>
     </row>
@@ -9865,71 +9865,71 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Persib Bandung</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>2.63</v>
+        <v>1.37</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>14/09/2023 22:13</t>
+          <t>14/09/2023 22:12</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.66</v>
+        <v>1.49</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>16/09/2023 09:54</t>
+          <t>16/09/2023 09:53</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.06</v>
+        <v>4.64</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>14/09/2023 22:13</t>
+          <t>14/09/2023 22:12</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.13</v>
+        <v>4.42</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>16/09/2023 09:51</t>
+          <t>16/09/2023 09:53</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>2.54</v>
+        <v>6.41</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>14/09/2023 22:13</t>
+          <t>14/09/2023 22:12</t>
         </is>
       </c>
       <c r="T103" t="n">
-        <v>2.76</v>
+        <v>6.27</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>16/09/2023 09:54</t>
+          <t>16/09/2023 09:53</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/arema-fc-persita/hWMCjROB/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-persikabo-1973/WMLGkovI/</t>
         </is>
       </c>
     </row>
@@ -9957,71 +9957,71 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Persib Bandung</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>1.37</v>
+        <v>2.63</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>14/09/2023 22:12</t>
+          <t>14/09/2023 22:13</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.49</v>
+        <v>2.66</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>16/09/2023 09:53</t>
+          <t>16/09/2023 09:54</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>4.64</v>
+        <v>3.06</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>14/09/2023 22:12</t>
+          <t>14/09/2023 22:13</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>4.42</v>
+        <v>3.13</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>16/09/2023 09:53</t>
+          <t>16/09/2023 09:51</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>6.41</v>
+        <v>2.54</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>14/09/2023 22:12</t>
+          <t>14/09/2023 22:13</t>
         </is>
       </c>
       <c r="T104" t="n">
-        <v>6.27</v>
+        <v>2.76</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>16/09/2023 09:53</t>
+          <t>16/09/2023 09:54</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-persikabo-1973/WMLGkovI/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/arema-fc-persita/hWMCjROB/</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -10241,14 +10241,14 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>2.82</v>
+        <v>1.56</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>3.07</v>
+        <v>1.5</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>17/09/2023 13:52</t>
+          <t>17/09/2023 13:53</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.09</v>
+        <v>4.05</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>2.94</v>
+        <v>4.47</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>17/09/2023 13:52</t>
+          <t>17/09/2023 13:53</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>2.37</v>
+        <v>4.92</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.55</v>
+        <v>6.08</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>17/09/2023 13:52</t>
+          <t>17/09/2023 13:53</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-persija-jakarta/r1kZ7Sgn/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-pss-sleman/4AjV88vt/</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -10333,14 +10333,14 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J108" t="n">
-        <v>1.56</v>
+        <v>2.82</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1.5</v>
+        <v>3.07</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>17/09/2023 13:53</t>
+          <t>17/09/2023 13:52</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>4.05</v>
+        <v>3.09</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>4.47</v>
+        <v>2.94</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>17/09/2023 13:53</t>
+          <t>17/09/2023 13:52</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>4.92</v>
+        <v>2.37</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>6.08</v>
+        <v>2.55</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>17/09/2023 13:53</t>
+          <t>17/09/2023 13:52</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-pss-sleman/4AjV88vt/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-persija-jakarta/r1kZ7Sgn/</t>
         </is>
       </c>
     </row>
@@ -12717,22 +12717,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="I134" t="n">
         <v>2</v>
       </c>
       <c r="J134" t="n">
-        <v>2.71</v>
+        <v>2.18</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>3.01</v>
+        <v>2.07</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>08/10/2023 13:51</t>
+          <t>08/10/2023 13:53</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.33</v>
+        <v>3.22</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3.52</v>
+        <v>3.22</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>08/10/2023 12:26</t>
+          <t>08/10/2023 13:53</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>2.31</v>
+        <v>3.02</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>2.27</v>
+        <v>3.8</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>08/10/2023 13:51</t>
+          <t>08/10/2023 13:53</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-bali-united/neDqACL1/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-persik-kediri/QuPzCYjk/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="I135" t="n">
         <v>2</v>
       </c>
       <c r="J135" t="n">
-        <v>2.18</v>
+        <v>2.71</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>2.07</v>
+        <v>3.01</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>08/10/2023 13:53</t>
+          <t>08/10/2023 13:51</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.22</v>
+        <v>3.33</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.22</v>
+        <v>3.52</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>08/10/2023 13:53</t>
+          <t>08/10/2023 12:26</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>3.02</v>
+        <v>2.31</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>3.8</v>
+        <v>2.27</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>08/10/2023 13:53</t>
+          <t>08/10/2023 13:51</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-persik-kediri/QuPzCYjk/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-bali-united/neDqACL1/</t>
         </is>
       </c>
     </row>
@@ -15293,71 +15293,71 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Persib Bandung</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J162" t="n">
-        <v>2.53</v>
+        <v>1.33</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>06/11/2023 21:11</t>
+          <t>06/11/2023 21:13</t>
         </is>
       </c>
       <c r="L162" t="n">
-        <v>2.51</v>
+        <v>1.22</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>08/11/2023 08:47</t>
+          <t>08/11/2023 08:55</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>3.14</v>
+        <v>4.88</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>06/11/2023 21:11</t>
+          <t>06/11/2023 21:13</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>3.42</v>
+        <v>5.42</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>08/11/2023 08:47</t>
+          <t>08/11/2023 08:55</t>
         </is>
       </c>
       <c r="R162" t="n">
-        <v>2.56</v>
+        <v>7.04</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
-          <t>06/11/2023 21:11</t>
+          <t>06/11/2023 21:13</t>
         </is>
       </c>
       <c r="T162" t="n">
-        <v>2.42</v>
+        <v>9.9</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>08/11/2023 08:45</t>
+          <t>08/11/2023 08:55</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-madura-united/rLkpQ6R5/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-arema-fc/MBllPQtC/</t>
         </is>
       </c>
     </row>
@@ -15385,71 +15385,71 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Persib Bandung</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>1.33</v>
+        <v>2.53</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>06/11/2023 21:13</t>
+          <t>06/11/2023 21:11</t>
         </is>
       </c>
       <c r="L163" t="n">
-        <v>1.22</v>
+        <v>2.51</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>08/11/2023 08:55</t>
+          <t>08/11/2023 08:47</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>4.88</v>
+        <v>3.14</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>06/11/2023 21:13</t>
+          <t>06/11/2023 21:11</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>5.42</v>
+        <v>3.42</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>08/11/2023 08:55</t>
+          <t>08/11/2023 08:47</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>7.04</v>
+        <v>2.56</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
-          <t>06/11/2023 21:13</t>
+          <t>06/11/2023 21:11</t>
         </is>
       </c>
       <c r="T163" t="n">
-        <v>9.9</v>
+        <v>2.42</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>08/11/2023 08:55</t>
+          <t>08/11/2023 08:45</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-arema-fc/MBllPQtC/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-madura-united/rLkpQ6R5/</t>
         </is>
       </c>
     </row>
@@ -15569,22 +15569,22 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Persebaya</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>1.93</v>
+        <v>1.66</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -15592,15 +15592,15 @@
         </is>
       </c>
       <c r="L165" t="n">
-        <v>1.85</v>
+        <v>1.52</v>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>09/11/2023 08:50</t>
+          <t>09/11/2023 08:57</t>
         </is>
       </c>
       <c r="N165" t="n">
-        <v>3.49</v>
+        <v>3.56</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
@@ -15608,15 +15608,15 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>3.42</v>
+        <v>4.06</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>09/11/2023 08:59</t>
+          <t>09/11/2023 08:58</t>
         </is>
       </c>
       <c r="R165" t="n">
-        <v>3.47</v>
+        <v>4.77</v>
       </c>
       <c r="S165" t="inlineStr">
         <is>
@@ -15624,16 +15624,16 @@
         </is>
       </c>
       <c r="T165" t="n">
-        <v>4.56</v>
+        <v>6.53</v>
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>09/11/2023 08:59</t>
+          <t>09/11/2023 08:57</t>
         </is>
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-persebaya/UyhdN4BO/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/psis-semarang-persita/WtWvnllP/</t>
         </is>
       </c>
     </row>
@@ -15661,22 +15661,22 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Persebaya</t>
         </is>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>1.66</v>
+        <v>1.93</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -15684,15 +15684,15 @@
         </is>
       </c>
       <c r="L166" t="n">
-        <v>1.52</v>
+        <v>1.85</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>09/11/2023 08:57</t>
+          <t>09/11/2023 08:50</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>3.56</v>
+        <v>3.49</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
@@ -15700,15 +15700,15 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>4.06</v>
+        <v>3.42</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>09/11/2023 08:58</t>
+          <t>09/11/2023 08:59</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>4.77</v>
+        <v>3.47</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
@@ -15716,16 +15716,16 @@
         </is>
       </c>
       <c r="T166" t="n">
-        <v>6.53</v>
+        <v>4.56</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>09/11/2023 08:57</t>
+          <t>09/11/2023 08:59</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/psis-semarang-persita/WtWvnllP/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-persebaya/UyhdN4BO/</t>
         </is>
       </c>
     </row>
@@ -16646,6 +16646,190 @@
       <c r="V176" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/indonesia/liga-1/arema-fc-persik-kediri/2sYprumi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45257.54166666666</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Borneo</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>1</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Persis Solo</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>26/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>27/11/2023 12:55</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>26/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P177" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>27/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R177" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>26/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T177" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>27/11/2023 12:55</t>
+        </is>
+      </c>
+      <c r="V177" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persis-solo/lvp3JeAj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45257.54166666666</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>FC Bhayangkara</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>2</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Persija Jakarta</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>2</v>
+      </c>
+      <c r="J178" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>26/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>27/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>26/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P178" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>27/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R178" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>26/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T178" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>27/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="V178" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-persija-jakarta/Gpxksa2c/</t>
         </is>
       </c>
     </row>

--- a/2023/indonesia_liga-1_2023-2024.xlsx
+++ b/2023/indonesia_liga-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V178"/>
+  <dimension ref="A1:V179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16833,6 +16833,98 @@
         </is>
       </c>
     </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45261.375</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>RANS Nusantara</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Persebaya</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>29/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>01/12/2023 08:30</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>29/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P179" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>01/12/2023 08:11</t>
+        </is>
+      </c>
+      <c r="R179" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>29/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T179" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>01/12/2023 08:30</t>
+        </is>
+      </c>
+      <c r="V179" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persebaya/6uEAxyHS/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/indonesia_liga-1_2023-2024.xlsx
+++ b/2023/indonesia_liga-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V179"/>
+  <dimension ref="A1:V181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.32</v>
+        <v>3.34</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.75</v>
+        <v>4.55</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>09/07/2023 13:54</t>
+          <t>09/07/2023 13:59</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>5.37</v>
+        <v>3.3</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.97</v>
+        <v>3.38</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>09/07/2023 13:54</t>
+          <t>09/07/2023 13:59</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>6.1</v>
+        <v>1.99</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>4.29</v>
+        <v>1.85</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>09/07/2023 13:54</t>
+          <t>09/07/2023 13:59</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-rans-nusantara/6Nzk5BLE/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persija-jakarta/SWyo6i68/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.34</v>
+        <v>1.32</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4.55</v>
+        <v>1.75</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>09/07/2023 13:59</t>
+          <t>09/07/2023 13:54</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.3</v>
+        <v>5.37</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.38</v>
+        <v>3.97</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>09/07/2023 13:59</t>
+          <t>09/07/2023 13:54</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>1.99</v>
+        <v>6.1</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>1.85</v>
+        <v>4.29</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>09/07/2023 13:59</t>
+          <t>09/07/2023 13:54</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persija-jakarta/SWyo6i68/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-rans-nusantara/6Nzk5BLE/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>PSM Makassar</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.56</v>
+        <v>3.73</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,48 +2160,48 @@
         </is>
       </c>
       <c r="L19" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>14/07/2023 09:53</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>12/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>14/07/2023 09:53</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
         <v>1.86</v>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>14/07/2023 09:58</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="O19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>12/07/2023 22:12</t>
         </is>
       </c>
-      <c r="P19" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>14/07/2023 09:57</t>
-        </is>
-      </c>
-      <c r="R19" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>12/07/2023 22:12</t>
-        </is>
-      </c>
       <c r="T19" t="n">
-        <v>3.05</v>
+        <v>2.11</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>14/07/2023 09:58</t>
+          <t>14/07/2023 09:53</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-pss-sleman/nZin4VzL/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-psm-makassar/QPjj3kjR/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>PSM Makassar</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.73</v>
+        <v>1.56</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3.53</v>
+        <v>1.86</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>14/07/2023 09:53</t>
+          <t>14/07/2023 09:58</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.49</v>
+        <v>4.07</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.33</v>
+        <v>3.27</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>14/07/2023 09:53</t>
+          <t>14/07/2023 09:57</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>1.86</v>
+        <v>4.9</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.11</v>
+        <v>3.05</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>14/07/2023 09:53</t>
+          <t>14/07/2023 09:58</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-psm-makassar/QPjj3kjR/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-pss-sleman/nZin4VzL/</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,14 +2973,14 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>2.97</v>
+        <v>1.6</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.09</v>
+        <v>1.58</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>21/07/2023 09:54</t>
+          <t>21/07/2023 09:58</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.28</v>
+        <v>4</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.44</v>
+        <v>4.19</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>21/07/2023 09:54</t>
+          <t>21/07/2023 09:59</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.22</v>
+        <v>4.64</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>3.47</v>
+        <v>5.33</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>21/07/2023 09:54</t>
+          <t>21/07/2023 09:59</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-psis-semarang/Qme89QC0/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-ps-barito-putera/vTGPHl5K/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>1.6</v>
+        <v>2.97</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.58</v>
+        <v>2.09</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>21/07/2023 09:58</t>
+          <t>21/07/2023 09:54</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>4</v>
+        <v>3.28</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4.19</v>
+        <v>3.44</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>21/07/2023 09:59</t>
+          <t>21/07/2023 09:54</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.64</v>
+        <v>2.22</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>5.33</v>
+        <v>3.47</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>21/07/2023 09:59</t>
+          <t>21/07/2023 09:54</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-ps-barito-putera/vTGPHl5K/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-psis-semarang/Qme89QC0/</t>
         </is>
       </c>
     </row>
@@ -3149,19 +3149,19 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>2.7</v>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>4.79</v>
+        <v>2.53</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>21/07/2023 13:59</t>
+          <t>21/07/2023 13:57</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.28</v>
+        <v>3.13</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.86</v>
+        <v>3.69</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>21/07/2023 13:58</t>
+          <t>21/07/2023 13:57</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.35</v>
+        <v>2.44</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>1.69</v>
+        <v>2.55</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>21/07/2023 13:54</t>
+          <t>21/07/2023 13:57</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/arema-fc-bali-united/za2eCSSs/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persik-kediri/YkGTG8KQ/</t>
         </is>
       </c>
     </row>
@@ -3241,19 +3241,19 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Bali United</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>3</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Persik Kediri</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>2.7</v>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.53</v>
+        <v>4.79</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>21/07/2023 13:57</t>
+          <t>21/07/2023 13:59</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.13</v>
+        <v>3.28</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.69</v>
+        <v>3.86</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>21/07/2023 13:57</t>
+          <t>21/07/2023 13:58</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.55</v>
+        <v>1.69</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>21/07/2023 13:57</t>
+          <t>21/07/2023 13:54</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persik-kediri/YkGTG8KQ/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/arema-fc-bali-united/za2eCSSs/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.32</v>
+        <v>1.65</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.79</v>
+        <v>1.61</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.26</v>
+        <v>3.8</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.5</v>
+        <v>4.15</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>30/07/2023 09:58</t>
+          <t>30/07/2023 09:55</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.75</v>
+        <v>4.48</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.42</v>
+        <v>5.06</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>30/07/2023 09:55</t>
+          <t>30/07/2023 09:51</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-pss-sleman/pCUpNqs0/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-arema-fc/tvOgLNBC/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.65</v>
+        <v>2.32</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.61</v>
+        <v>2.79</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.8</v>
+        <v>3.26</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,32 +4384,32 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>4.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
+          <t>30/07/2023 09:58</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>28/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
           <t>30/07/2023 09:55</t>
         </is>
       </c>
-      <c r="R43" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>28/07/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T43" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>30/07/2023 09:51</t>
-        </is>
-      </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-arema-fc/tvOgLNBC/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-pss-sleman/pCUpNqs0/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Persebaya</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>1.62</v>
+        <v>2.12</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.67</v>
+        <v>2.34</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>30/07/2023 13:52</t>
+          <t>30/07/2023 13:51</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.93</v>
+        <v>3.31</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.9</v>
+        <v>3.44</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>30/07/2023 13:52</t>
+          <t>30/07/2023 13:51</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.54</v>
+        <v>3.13</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.97</v>
+        <v>2.94</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>30/07/2023 13:52</t>
+          <t>30/07/2023 13:51</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persebaya/2mPkM3d6/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-madura-united/z1NcKsRI/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Persebaya</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.12</v>
+        <v>1.62</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.34</v>
+        <v>1.67</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>30/07/2023 13:51</t>
+          <t>30/07/2023 13:52</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.31</v>
+        <v>3.93</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.44</v>
+        <v>3.9</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>30/07/2023 13:51</t>
+          <t>30/07/2023 13:52</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.13</v>
+        <v>4.54</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.94</v>
+        <v>4.97</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>30/07/2023 13:51</t>
+          <t>30/07/2023 13:52</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-madura-united/z1NcKsRI/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persebaya/2mPkM3d6/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>1.76</v>
+        <v>2.11</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.59</v>
+        <v>1.86</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>25/08/2023 09:55</t>
+          <t>25/08/2023 09:58</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.57</v>
+        <v>3.28</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>4</v>
+        <v>3.69</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>25/08/2023 09:55</t>
+          <t>25/08/2023 09:58</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.95</v>
+        <v>3.11</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>5.59</v>
+        <v>4.02</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>25/08/2023 09:55</t>
+          <t>25/08/2023 09:58</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/madura-united-fc-bhayangkara/AFRgvcZl/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-psis-semarang/SjxkuwKr/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>2.11</v>
+        <v>1.76</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.86</v>
+        <v>1.59</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>25/08/2023 09:58</t>
+          <t>25/08/2023 09:55</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.28</v>
+        <v>3.57</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.69</v>
+        <v>4</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>25/08/2023 09:58</t>
+          <t>25/08/2023 09:55</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.11</v>
+        <v>3.95</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>4.02</v>
+        <v>5.59</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>25/08/2023 09:58</t>
+          <t>25/08/2023 09:55</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-psis-semarang/SjxkuwKr/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/madura-united-fc-bhayangkara/AFRgvcZl/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1.85</v>
+        <v>3.11</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.64</v>
+        <v>2.6</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.73</v>
+        <v>3.17</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.9</v>
+        <v>3.11</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>3.51</v>
+        <v>2.15</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>5.27</v>
+        <v>2.84</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persita/l6QcwHle/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persija-jakarta/IuV1xy41/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>3.11</v>
+        <v>1.85</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.6</v>
+        <v>1.64</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.17</v>
+        <v>3.73</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.11</v>
+        <v>3.9</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.15</v>
+        <v>3.51</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.84</v>
+        <v>5.27</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persija-jakarta/IuV1xy41/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persita/l6QcwHle/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Persib Bandung</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1.96</v>
+        <v>2.42</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.96</v>
+        <v>2.2</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>02/09/2023 09:57</t>
+          <t>02/09/2023 09:51</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.33</v>
+        <v>3.25</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.19</v>
+        <v>3.16</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>02/09/2023 09:57</t>
+          <t>02/09/2023 09:51</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>3.44</v>
+        <v>2.7</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>4.27</v>
+        <v>3.5</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>02/09/2023 09:57</t>
+          <t>02/09/2023 09:51</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persib-bandung/vTdwxS9I/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persik-kediri/d47Yx8fC/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,14 +9045,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Persib Bandung</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>2.42</v>
+        <v>1.96</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.2</v>
+        <v>1.96</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>02/09/2023 09:51</t>
+          <t>02/09/2023 09:57</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.25</v>
+        <v>3.33</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.16</v>
+        <v>3.19</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>02/09/2023 09:51</t>
+          <t>02/09/2023 09:57</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.7</v>
+        <v>3.44</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>3.5</v>
+        <v>4.27</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>02/09/2023 09:51</t>
+          <t>02/09/2023 09:57</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persik-kediri/d47Yx8fC/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persib-bandung/vTdwxS9I/</t>
         </is>
       </c>
     </row>
@@ -9865,71 +9865,71 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Persib Bandung</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>1.37</v>
+        <v>2.63</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>14/09/2023 22:12</t>
+          <t>14/09/2023 22:13</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.49</v>
+        <v>2.66</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>16/09/2023 09:53</t>
+          <t>16/09/2023 09:54</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>4.64</v>
+        <v>3.06</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>14/09/2023 22:12</t>
+          <t>14/09/2023 22:13</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>4.42</v>
+        <v>3.13</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>16/09/2023 09:53</t>
+          <t>16/09/2023 09:51</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>6.41</v>
+        <v>2.54</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>14/09/2023 22:12</t>
+          <t>14/09/2023 22:13</t>
         </is>
       </c>
       <c r="T103" t="n">
-        <v>6.27</v>
+        <v>2.76</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>16/09/2023 09:53</t>
+          <t>16/09/2023 09:54</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-persikabo-1973/WMLGkovI/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/arema-fc-persita/hWMCjROB/</t>
         </is>
       </c>
     </row>
@@ -9957,71 +9957,71 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Persib Bandung</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>2.63</v>
+        <v>1.37</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>14/09/2023 22:13</t>
+          <t>14/09/2023 22:12</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.66</v>
+        <v>1.49</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>16/09/2023 09:54</t>
+          <t>16/09/2023 09:53</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.06</v>
+        <v>4.64</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>14/09/2023 22:13</t>
+          <t>14/09/2023 22:12</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.13</v>
+        <v>4.42</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>16/09/2023 09:51</t>
+          <t>16/09/2023 09:53</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>2.54</v>
+        <v>6.41</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>14/09/2023 22:13</t>
+          <t>14/09/2023 22:12</t>
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.76</v>
+        <v>6.27</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>16/09/2023 09:54</t>
+          <t>16/09/2023 09:53</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/arema-fc-persita/hWMCjROB/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-persikabo-1973/WMLGkovI/</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -10241,14 +10241,14 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J107" t="n">
-        <v>1.56</v>
+        <v>2.82</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.5</v>
+        <v>3.07</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>17/09/2023 13:53</t>
+          <t>17/09/2023 13:52</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>4.05</v>
+        <v>3.09</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>4.47</v>
+        <v>2.94</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>17/09/2023 13:53</t>
+          <t>17/09/2023 13:52</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>4.92</v>
+        <v>2.37</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>6.08</v>
+        <v>2.55</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>17/09/2023 13:53</t>
+          <t>17/09/2023 13:52</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-pss-sleman/4AjV88vt/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-persija-jakarta/r1kZ7Sgn/</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -10333,14 +10333,14 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>2.82</v>
+        <v>1.56</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>3.07</v>
+        <v>1.5</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>17/09/2023 13:52</t>
+          <t>17/09/2023 13:53</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.09</v>
+        <v>4.05</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>2.94</v>
+        <v>4.47</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>17/09/2023 13:52</t>
+          <t>17/09/2023 13:53</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>2.37</v>
+        <v>4.92</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>2.55</v>
+        <v>6.08</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>17/09/2023 13:52</t>
+          <t>17/09/2023 13:53</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-persija-jakarta/r1kZ7Sgn/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-pss-sleman/4AjV88vt/</t>
         </is>
       </c>
     </row>
@@ -12717,22 +12717,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="I134" t="n">
         <v>2</v>
       </c>
       <c r="J134" t="n">
-        <v>2.18</v>
+        <v>2.71</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>2.07</v>
+        <v>3.01</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>08/10/2023 13:53</t>
+          <t>08/10/2023 13:51</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.22</v>
+        <v>3.33</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3.22</v>
+        <v>3.52</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>08/10/2023 13:53</t>
+          <t>08/10/2023 12:26</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>3.02</v>
+        <v>2.31</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>3.8</v>
+        <v>2.27</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>08/10/2023 13:53</t>
+          <t>08/10/2023 13:51</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-persik-kediri/QuPzCYjk/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-bali-united/neDqACL1/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="I135" t="n">
         <v>2</v>
       </c>
       <c r="J135" t="n">
-        <v>2.71</v>
+        <v>2.18</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>3.01</v>
+        <v>2.07</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>08/10/2023 13:51</t>
+          <t>08/10/2023 13:53</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.33</v>
+        <v>3.22</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.52</v>
+        <v>3.22</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>08/10/2023 12:26</t>
+          <t>08/10/2023 13:53</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>2.31</v>
+        <v>3.02</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>2.27</v>
+        <v>3.8</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>08/10/2023 13:51</t>
+          <t>08/10/2023 13:53</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-bali-united/neDqACL1/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-persik-kediri/QuPzCYjk/</t>
         </is>
       </c>
     </row>
@@ -14005,22 +14005,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Persib Bandung</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="I148" t="n">
         <v>1</v>
       </c>
       <c r="J148" t="n">
-        <v>1.35</v>
+        <v>1.74</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -14028,15 +14028,15 @@
         </is>
       </c>
       <c r="L148" t="n">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:21</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>4.75</v>
+        <v>3.61</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -14044,15 +14044,15 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>4.66</v>
+        <v>3.99</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:21</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>6.7</v>
+        <v>4.2</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
@@ -14060,16 +14060,16 @@
         </is>
       </c>
       <c r="T148" t="n">
-        <v>8.380000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:21</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-pss-sleman/OfVQLizK/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-dewa-united/KQGdGVcs/</t>
         </is>
       </c>
     </row>
@@ -14097,22 +14097,22 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Persib Bandung</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I149" t="n">
         <v>1</v>
       </c>
       <c r="J149" t="n">
-        <v>1.74</v>
+        <v>1.35</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -14120,15 +14120,15 @@
         </is>
       </c>
       <c r="L149" t="n">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>28/10/2023 13:21</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3.61</v>
+        <v>4.75</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -14136,15 +14136,15 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3.99</v>
+        <v>4.66</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>28/10/2023 13:21</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>4.2</v>
+        <v>6.7</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
@@ -14152,16 +14152,16 @@
         </is>
       </c>
       <c r="T149" t="n">
-        <v>5.64</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>28/10/2023 13:21</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-dewa-united/KQGdGVcs/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-pss-sleman/OfVQLizK/</t>
         </is>
       </c>
     </row>
@@ -15569,22 +15569,22 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Persebaya</t>
         </is>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>1.66</v>
+        <v>1.93</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -15592,15 +15592,15 @@
         </is>
       </c>
       <c r="L165" t="n">
-        <v>1.52</v>
+        <v>1.85</v>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>09/11/2023 08:57</t>
+          <t>09/11/2023 08:50</t>
         </is>
       </c>
       <c r="N165" t="n">
-        <v>3.56</v>
+        <v>3.49</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
@@ -15608,15 +15608,15 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>4.06</v>
+        <v>3.42</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>09/11/2023 08:58</t>
+          <t>09/11/2023 08:59</t>
         </is>
       </c>
       <c r="R165" t="n">
-        <v>4.77</v>
+        <v>3.47</v>
       </c>
       <c r="S165" t="inlineStr">
         <is>
@@ -15624,16 +15624,16 @@
         </is>
       </c>
       <c r="T165" t="n">
-        <v>6.53</v>
+        <v>4.56</v>
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>09/11/2023 08:57</t>
+          <t>09/11/2023 08:59</t>
         </is>
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/psis-semarang-persita/WtWvnllP/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-persebaya/UyhdN4BO/</t>
         </is>
       </c>
     </row>
@@ -15661,22 +15661,22 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Persebaya</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>1.93</v>
+        <v>1.66</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -15684,15 +15684,15 @@
         </is>
       </c>
       <c r="L166" t="n">
-        <v>1.85</v>
+        <v>1.52</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>09/11/2023 08:50</t>
+          <t>09/11/2023 08:57</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>3.49</v>
+        <v>3.56</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
@@ -15700,15 +15700,15 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>3.42</v>
+        <v>4.06</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>09/11/2023 08:59</t>
+          <t>09/11/2023 08:58</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>3.47</v>
+        <v>4.77</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
@@ -15716,16 +15716,16 @@
         </is>
       </c>
       <c r="T166" t="n">
-        <v>4.56</v>
+        <v>6.53</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>09/11/2023 08:59</t>
+          <t>09/11/2023 08:57</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-persebaya/UyhdN4BO/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/psis-semarang-persita/WtWvnllP/</t>
         </is>
       </c>
     </row>
@@ -16213,7 +16213,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>PSM Makassar</t>
         </is>
       </c>
       <c r="G172" t="n">
@@ -16221,14 +16221,14 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="n">
-        <v>2.09</v>
+        <v>1.44</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -16236,15 +16236,15 @@
         </is>
       </c>
       <c r="L172" t="n">
-        <v>2.59</v>
+        <v>1.38</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>23/11/2023 12:59</t>
+          <t>23/11/2023 12:55</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>3.31</v>
+        <v>4.32</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -16252,15 +16252,15 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>3.59</v>
+        <v>4.97</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>23/11/2023 12:59</t>
+          <t>23/11/2023 12:55</t>
         </is>
       </c>
       <c r="R172" t="n">
-        <v>3.11</v>
+        <v>5.72</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
@@ -16268,16 +16268,16 @@
         </is>
       </c>
       <c r="T172" t="n">
-        <v>2.54</v>
+        <v>7.53</v>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>23/11/2023 12:59</t>
+          <t>23/11/2023 12:55</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-rans-nusantara/GnTQxpBB/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/psm-makassar-persikabo-1973/MPTMwQe5/</t>
         </is>
       </c>
     </row>
@@ -16305,7 +16305,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>PSM Makassar</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="G173" t="n">
@@ -16313,14 +16313,14 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="I173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>1.44</v>
+        <v>2.09</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -16328,15 +16328,15 @@
         </is>
       </c>
       <c r="L173" t="n">
-        <v>1.38</v>
+        <v>2.59</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>23/11/2023 12:55</t>
+          <t>23/11/2023 12:59</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>4.32</v>
+        <v>3.31</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
@@ -16344,15 +16344,15 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>4.97</v>
+        <v>3.59</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>23/11/2023 12:55</t>
+          <t>23/11/2023 12:59</t>
         </is>
       </c>
       <c r="R173" t="n">
-        <v>5.72</v>
+        <v>3.11</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
@@ -16360,16 +16360,16 @@
         </is>
       </c>
       <c r="T173" t="n">
-        <v>7.53</v>
+        <v>2.54</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>23/11/2023 12:55</t>
+          <t>23/11/2023 12:59</t>
         </is>
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/psm-makassar-persikabo-1973/MPTMwQe5/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-rans-nusantara/GnTQxpBB/</t>
         </is>
       </c>
     </row>
@@ -16922,6 +16922,190 @@
       <c r="V179" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persebaya/6uEAxyHS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>45262.375</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Persik Kediri</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Dewa United</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>30/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>02/12/2023 08:57</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>30/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="P180" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>02/12/2023 08:57</t>
+        </is>
+      </c>
+      <c r="R180" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>30/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="T180" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>02/12/2023 08:57</t>
+        </is>
+      </c>
+      <c r="V180" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-dewa-united/OGO5wH1M/</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>45262.375</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Barito Putera</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Borneo</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>30/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>02/12/2023 08:57</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>30/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="P181" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>02/12/2023 08:58</t>
+        </is>
+      </c>
+      <c r="R181" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>30/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="T181" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>02/12/2023 08:58</t>
+        </is>
+      </c>
+      <c r="V181" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-borneo/r15xYfPq/</t>
         </is>
       </c>
     </row>

--- a/2023/indonesia_liga-1_2023-2024.xlsx
+++ b/2023/indonesia_liga-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V181"/>
+  <dimension ref="A1:V205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>2.59</v>
+        <v>3.04</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.86</v>
+        <v>2.73</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>03/07/2023 09:59</t>
+          <t>03/07/2023 09:30</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.17</v>
+        <v>3.37</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.08</v>
+        <v>3.48</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>03/07/2023 09:59</t>
+          <t>03/07/2023 09:30</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.43</v>
+        <v>2.04</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>03/07/2023 09:59</t>
+          <t>03/07/2023 09:30</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-borneo/Yec8hYy9/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persikabo-1973/f5b4gEM2/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>3.04</v>
+        <v>2.59</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.73</v>
+        <v>2.86</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>03/07/2023 09:30</t>
+          <t>03/07/2023 09:59</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.37</v>
+        <v>3.17</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.48</v>
+        <v>3.08</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>03/07/2023 09:30</t>
+          <t>03/07/2023 09:59</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.04</v>
+        <v>2.43</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>03/07/2023 09:30</t>
+          <t>03/07/2023 09:59</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-persikabo-1973/f5b4gEM2/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-borneo/Yec8hYy9/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.34</v>
+        <v>1.32</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4.55</v>
+        <v>1.75</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>09/07/2023 13:59</t>
+          <t>09/07/2023 13:54</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.3</v>
+        <v>5.37</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.38</v>
+        <v>3.97</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>09/07/2023 13:59</t>
+          <t>09/07/2023 13:54</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>1.99</v>
+        <v>6.1</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1.85</v>
+        <v>4.29</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>09/07/2023 13:59</t>
+          <t>09/07/2023 13:54</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persija-jakarta/SWyo6i68/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-rans-nusantara/6Nzk5BLE/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1.32</v>
+        <v>3.34</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.75</v>
+        <v>4.55</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>09/07/2023 13:54</t>
+          <t>09/07/2023 13:59</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>5.37</v>
+        <v>3.3</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.97</v>
+        <v>3.38</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>09/07/2023 13:54</t>
+          <t>09/07/2023 13:59</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>6.1</v>
+        <v>1.99</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>4.29</v>
+        <v>1.85</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>09/07/2023 13:54</t>
+          <t>09/07/2023 13:59</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-rans-nusantara/6Nzk5BLE/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persija-jakarta/SWyo6i68/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>PSM Makassar</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.73</v>
+        <v>1.56</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3.53</v>
+        <v>1.86</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>14/07/2023 09:53</t>
+          <t>14/07/2023 09:58</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.49</v>
+        <v>4.07</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.33</v>
+        <v>3.27</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>14/07/2023 09:53</t>
+          <t>14/07/2023 09:57</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>1.86</v>
+        <v>4.9</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.11</v>
+        <v>3.05</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>14/07/2023 09:53</t>
+          <t>14/07/2023 09:58</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-psm-makassar/QPjj3kjR/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-pss-sleman/nZin4VzL/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>PSM Makassar</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1.56</v>
+        <v>3.73</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,48 +2252,48 @@
         </is>
       </c>
       <c r="L20" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>14/07/2023 09:53</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>12/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>14/07/2023 09:53</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
         <v>1.86</v>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>14/07/2023 09:58</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="O20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>12/07/2023 22:12</t>
         </is>
       </c>
-      <c r="P20" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>14/07/2023 09:57</t>
-        </is>
-      </c>
-      <c r="R20" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>12/07/2023 22:12</t>
-        </is>
-      </c>
       <c r="T20" t="n">
-        <v>3.05</v>
+        <v>2.11</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>14/07/2023 09:58</t>
+          <t>14/07/2023 09:53</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-pss-sleman/nZin4VzL/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-psm-makassar/QPjj3kjR/</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,14 +2973,14 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>1.6</v>
+        <v>2.97</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.58</v>
+        <v>2.09</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>21/07/2023 09:58</t>
+          <t>21/07/2023 09:54</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>4</v>
+        <v>3.28</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>4.19</v>
+        <v>3.44</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>21/07/2023 09:59</t>
+          <t>21/07/2023 09:54</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>4.64</v>
+        <v>2.22</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>5.33</v>
+        <v>3.47</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>21/07/2023 09:59</t>
+          <t>21/07/2023 09:54</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-ps-barito-putera/vTGPHl5K/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-psis-semarang/Qme89QC0/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>2.97</v>
+        <v>1.6</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.09</v>
+        <v>1.58</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>21/07/2023 09:54</t>
+          <t>21/07/2023 09:58</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.28</v>
+        <v>4</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.44</v>
+        <v>4.19</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>21/07/2023 09:54</t>
+          <t>21/07/2023 09:59</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.22</v>
+        <v>4.64</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.47</v>
+        <v>5.33</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>21/07/2023 09:54</t>
+          <t>21/07/2023 09:59</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-psis-semarang/Qme89QC0/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-ps-barito-putera/vTGPHl5K/</t>
         </is>
       </c>
     </row>
@@ -3149,19 +3149,19 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Bali United</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>3</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Persik Kediri</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>2.7</v>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.53</v>
+        <v>4.79</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>21/07/2023 13:57</t>
+          <t>21/07/2023 13:59</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.13</v>
+        <v>3.28</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.69</v>
+        <v>3.86</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>21/07/2023 13:57</t>
+          <t>21/07/2023 13:58</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.55</v>
+        <v>1.69</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>21/07/2023 13:57</t>
+          <t>21/07/2023 13:54</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persik-kediri/YkGTG8KQ/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/arema-fc-bali-united/za2eCSSs/</t>
         </is>
       </c>
     </row>
@@ -3241,19 +3241,19 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>2.7</v>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4.79</v>
+        <v>2.53</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>21/07/2023 13:59</t>
+          <t>21/07/2023 13:57</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.28</v>
+        <v>3.13</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.86</v>
+        <v>3.69</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>21/07/2023 13:58</t>
+          <t>21/07/2023 13:57</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.35</v>
+        <v>2.44</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>1.69</v>
+        <v>2.55</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>21/07/2023 13:54</t>
+          <t>21/07/2023 13:57</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/arema-fc-bali-united/za2eCSSs/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persik-kediri/YkGTG8KQ/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.65</v>
+        <v>2.32</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.61</v>
+        <v>2.79</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.8</v>
+        <v>3.26</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,32 +4292,32 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>4.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
+          <t>30/07/2023 09:58</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>28/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
           <t>30/07/2023 09:55</t>
         </is>
       </c>
-      <c r="R42" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>28/07/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T42" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>30/07/2023 09:51</t>
-        </is>
-      </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-arema-fc/tvOgLNBC/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-pss-sleman/pCUpNqs0/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.32</v>
+        <v>1.65</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.79</v>
+        <v>1.61</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.26</v>
+        <v>3.8</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.5</v>
+        <v>4.15</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>30/07/2023 09:58</t>
+          <t>30/07/2023 09:55</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.75</v>
+        <v>4.48</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.42</v>
+        <v>5.06</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>30/07/2023 09:55</t>
+          <t>30/07/2023 09:51</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-pss-sleman/pCUpNqs0/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-arema-fc/tvOgLNBC/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Persebaya</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1.51</v>
+        <v>2.28</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.61</v>
+        <v>2.23</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>4.07</v>
+        <v>3.27</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>4.32</v>
+        <v>3.53</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>04/08/2023 09:45</t>
+          <t>04/08/2023 09:57</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>5.42</v>
+        <v>2.81</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.92</v>
+        <v>3.07</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persebaya-persikabo-1973/d8JF9oUc/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persis-solo/IN7O7PbA/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Persebaya</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>2.28</v>
+        <v>1.51</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.23</v>
+        <v>1.61</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.27</v>
+        <v>4.07</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,32 +5028,32 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.53</v>
+        <v>4.32</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
+          <t>04/08/2023 09:45</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>02/08/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
           <t>04/08/2023 09:57</t>
         </is>
       </c>
-      <c r="R50" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>02/08/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T50" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>04/08/2023 09:57</t>
-        </is>
-      </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persis-solo/IN7O7PbA/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persebaya-persikabo-1973/d8JF9oUc/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>3.91</v>
+        <v>1.39</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3.19</v>
+        <v>1.52</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>04/08/2023 13:55</t>
+          <t>04/08/2023 13:56</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.52</v>
+        <v>4.98</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>2.99</v>
+        <v>4.68</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>04/08/2023 13:50</t>
+          <t>04/08/2023 13:56</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>1.81</v>
+        <v>5.82</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.44</v>
+        <v>5.33</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>04/08/2023 13:55</t>
+          <t>04/08/2023 13:56</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-persija-jakarta/zaIJ85q4/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-rans-nusantara/WQBS6qEG/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,14 +5181,14 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>1.39</v>
+        <v>3.91</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.52</v>
+        <v>3.19</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>04/08/2023 13:56</t>
+          <t>04/08/2023 13:55</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>4.98</v>
+        <v>3.52</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>4.68</v>
+        <v>2.99</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>04/08/2023 13:56</t>
+          <t>04/08/2023 13:50</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>5.82</v>
+        <v>1.81</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>5.33</v>
+        <v>2.44</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>04/08/2023 13:56</t>
+          <t>04/08/2023 13:55</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-rans-nusantara/WQBS6qEG/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-persija-jakarta/zaIJ85q4/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J74" t="n">
-        <v>2.81</v>
+        <v>1.75</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>3.19</v>
+        <v>1.91</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>18/08/2023 13:59</t>
+          <t>18/08/2023 13:51</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.28</v>
+        <v>3.54</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.29</v>
+        <v>3.35</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>18/08/2023 13:59</t>
+          <t>18/08/2023 13:51</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>2.32</v>
+        <v>4.19</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.28</v>
+        <v>4.25</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>18/08/2023 13:59</t>
+          <t>18/08/2023 13:51</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-borneo/dC1KPcKe/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-pss-sleman/EmCFQw5k/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Borneo</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>2</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>PSS Sleman</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>3</v>
-      </c>
       <c r="J75" t="n">
-        <v>1.75</v>
+        <v>2.81</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.91</v>
+        <v>3.19</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>18/08/2023 13:51</t>
+          <t>18/08/2023 13:59</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.54</v>
+        <v>3.28</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.35</v>
+        <v>3.29</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>18/08/2023 13:51</t>
+          <t>18/08/2023 13:59</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>4.19</v>
+        <v>2.32</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>4.25</v>
+        <v>2.28</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>18/08/2023 13:51</t>
+          <t>18/08/2023 13:59</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-pss-sleman/EmCFQw5k/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-borneo/dC1KPcKe/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>3.11</v>
+        <v>1.85</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.6</v>
+        <v>1.64</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.17</v>
+        <v>3.73</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.11</v>
+        <v>3.9</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.15</v>
+        <v>3.51</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.84</v>
+        <v>5.27</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>25/08/2023 13:59</t>
+          <t>25/08/2023 13:51</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persija-jakarta/IuV1xy41/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persita/l6QcwHle/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1.85</v>
+        <v>3.11</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.64</v>
+        <v>2.6</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.73</v>
+        <v>3.17</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.9</v>
+        <v>3.11</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.51</v>
+        <v>2.15</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>5.27</v>
+        <v>2.84</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>25/08/2023 13:51</t>
+          <t>25/08/2023 13:59</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-persita/l6QcwHle/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-persija-jakarta/IuV1xy41/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Persikabo 1973</t>
+          <t>RANS Nusantara</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,11 +12081,11 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
         <v>2.54</v>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>3.74</v>
+        <v>3.07</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>06/10/2023 09:56</t>
+          <t>06/10/2023 09:52</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.24</v>
+        <v>3.19</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.73</v>
+        <v>3.19</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>06/10/2023 09:58</t>
+          <t>06/10/2023 09:52</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>1.92</v>
+        <v>2.39</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>06/10/2023 09:56</t>
+          <t>06/10/2023 09:52</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persis-solo/OE3fW2x4/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-psis-semarang/j15nYO7i/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>RANS Nusantara</t>
+          <t>Persikabo 1973</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,11 +12173,11 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J128" t="n">
         <v>2.54</v>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>3.07</v>
+        <v>3.74</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>06/10/2023 09:52</t>
+          <t>06/10/2023 09:56</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.19</v>
+        <v>3.24</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.19</v>
+        <v>3.73</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>06/10/2023 09:52</t>
+          <t>06/10/2023 09:58</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>2.39</v>
+        <v>1.92</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>06/10/2023 09:52</t>
+          <t>06/10/2023 09:56</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-psis-semarang/j15nYO7i/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persis-solo/OE3fW2x4/</t>
         </is>
       </c>
     </row>
@@ -13177,22 +13177,22 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>FC Bhayangkara</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J139" t="n">
-        <v>2.53</v>
+        <v>2.52</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         </is>
       </c>
       <c r="L139" t="n">
-        <v>2.9</v>
+        <v>2.28</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.21</v>
+        <v>3.09</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
@@ -13216,15 +13216,15 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.22</v>
+        <v>3.29</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>21/10/2023 09:57</t>
+          <t>21/10/2023 09:59</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>2.53</v>
+        <v>2.63</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
@@ -13232,16 +13232,16 @@
         </is>
       </c>
       <c r="T139" t="n">
-        <v>2.49</v>
+        <v>3.17</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>21/10/2023 09:59</t>
+          <t>21/10/2023 09:55</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-ps-barito-putera/80bvWgrL/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-persik-kediri/nicrVDcR/</t>
         </is>
       </c>
     </row>
@@ -13269,22 +13269,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>FC Bhayangkara</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="I140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>2.52</v>
+        <v>2.53</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>2.28</v>
+        <v>2.9</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.09</v>
+        <v>3.21</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,32 +13308,32 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.29</v>
+        <v>3.22</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
+          <t>21/10/2023 09:57</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>19/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
           <t>21/10/2023 09:59</t>
         </is>
       </c>
-      <c r="R140" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="S140" t="inlineStr">
-        <is>
-          <t>19/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="T140" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="U140" t="inlineStr">
-        <is>
-          <t>21/10/2023 09:55</t>
-        </is>
-      </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-persik-kediri/nicrVDcR/</t>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-ps-barito-putera/80bvWgrL/</t>
         </is>
       </c>
     </row>
@@ -17106,6 +17106,2214 @@
       <c r="V181" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-borneo/r15xYfPq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>45263.375</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>PSIS Semarang</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>PSS Sleman</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>01/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>03/12/2023 08:55</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>01/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P182" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>03/12/2023 08:55</t>
+        </is>
+      </c>
+      <c r="R182" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>01/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T182" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="U182" t="inlineStr">
+        <is>
+          <t>03/12/2023 08:55</t>
+        </is>
+      </c>
+      <c r="V182" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/psis-semarang-pss-sleman/pQP1vcnG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>45263.375</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Persikabo 1973</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>2</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>FC Bhayangkara</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>2</v>
+      </c>
+      <c r="J183" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>01/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>03/12/2023 08:55</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>01/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P183" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>03/12/2023 08:55</t>
+        </is>
+      </c>
+      <c r="R183" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>01/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T183" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>03/12/2023 08:55</t>
+        </is>
+      </c>
+      <c r="V183" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-fc-bhayangkara/GE3pWYgd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>45263.54166666666</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Persija Jakarta</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>1</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Persita</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>1</v>
+      </c>
+      <c r="J184" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>02/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:51</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>02/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P184" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:51</t>
+        </is>
+      </c>
+      <c r="R184" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>02/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T184" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="U184" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:51</t>
+        </is>
+      </c>
+      <c r="V184" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-persita/hWnTfIWd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>45264.375</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Bali United</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>3</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Arema FC</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>2</v>
+      </c>
+      <c r="J185" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>02/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>04/12/2023 08:53</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>02/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P185" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>04/12/2023 08:58</t>
+        </is>
+      </c>
+      <c r="R185" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>02/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T185" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>04/12/2023 08:58</t>
+        </is>
+      </c>
+      <c r="V185" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-arema-fc/WMoXgxn3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45264.54166666666</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Persib Bandung</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>PSM Makassar</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>03/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>04/12/2023 12:56</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>03/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P186" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>04/12/2023 12:56</t>
+        </is>
+      </c>
+      <c r="R186" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>03/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T186" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>04/12/2023 12:57</t>
+        </is>
+      </c>
+      <c r="V186" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-psm-makassar/Qqoygd19/</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45268.375</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Dewa United</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>1</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Bali United</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>06/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>08/12/2023 08:59</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>06/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P187" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>08/12/2023 08:59</t>
+        </is>
+      </c>
+      <c r="R187" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>06/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T187" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>08/12/2023 08:59</t>
+        </is>
+      </c>
+      <c r="V187" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/dewa-united-bali-united/xKluhGGF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45268.54166666666</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>PSM Makassar</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>1</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>FC Bhayangkara</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>07/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>08/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>07/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P188" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>08/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R188" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>07/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T188" t="n">
+        <v>5</v>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>08/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V188" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/psm-makassar-fc-bhayangkara/KrvpizWL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45268.54166666666</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>PSS Sleman</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>1</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>RANS Nusantara</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>07/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>08/12/2023 12:55</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>07/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P189" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>08/12/2023 12:55</t>
+        </is>
+      </c>
+      <c r="R189" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>07/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T189" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>08/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V189" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/pss-sleman-rans-nusantara/bZxljfoS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>45269.375</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Persebaya</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>1</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Persija Jakarta</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>07/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>09/12/2023 08:50</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>07/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P190" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>09/12/2023 08:50</t>
+        </is>
+      </c>
+      <c r="R190" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>07/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T190" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>09/12/2023 08:50</t>
+        </is>
+      </c>
+      <c r="V190" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persebaya-persija-jakarta/jRUFoEgq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>45269.54166666666</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Arema FC</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>3</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Persis Solo</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>08/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:57</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>08/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P191" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:57</t>
+        </is>
+      </c>
+      <c r="R191" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>08/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T191" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:57</t>
+        </is>
+      </c>
+      <c r="V191" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/arema-fc-persis-solo/UHTJpY8k/</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>45269.54166666666</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Borneo</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>2</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>PSIS Semarang</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>08/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:55</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>08/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P192" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R192" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>08/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T192" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V192" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/borneo-psis-semarang/CtJOqhOe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>45270.375</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Madura United</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>4</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Barito Putera</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>08/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>10/12/2023 08:22</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>08/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P193" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>10/12/2023 08:22</t>
+        </is>
+      </c>
+      <c r="R193" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>08/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T193" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>10/12/2023 08:22</t>
+        </is>
+      </c>
+      <c r="V193" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/madura-united-ps-barito-putera/QqNSrCw2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>45270.54166666666</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Persita</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>2</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Persikabo 1973</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>09/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:55</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>09/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P194" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:57</t>
+        </is>
+      </c>
+      <c r="R194" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>09/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T194" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:55</t>
+        </is>
+      </c>
+      <c r="V194" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persita-persikabo-1973/vmBA7eG2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>45270.54166666666</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Persib Bandung</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Persik Kediri</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>2</v>
+      </c>
+      <c r="J195" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>09/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:55</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>09/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P195" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:55</t>
+        </is>
+      </c>
+      <c r="R195" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>09/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T195" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V195" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persib-bandung-persik-kediri/IwAE6FV8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>45273.5</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Persebaya</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
+        <v>1</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Persis Solo</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>31/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>13/12/2023 11:53</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>31/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P196" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>13/12/2023 11:53</t>
+        </is>
+      </c>
+      <c r="R196" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>31/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T196" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>13/12/2023 11:58</t>
+        </is>
+      </c>
+      <c r="V196" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persebaya-persis-solo/WKf4ZA4J/</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>45276.375</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>PSIS Semarang</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>2</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Madura United</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>2</v>
+      </c>
+      <c r="J197" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>14/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>16/12/2023 08:57</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>14/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P197" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>16/12/2023 08:57</t>
+        </is>
+      </c>
+      <c r="R197" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>14/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T197" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>16/12/2023 08:57</t>
+        </is>
+      </c>
+      <c r="V197" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/psis-semarang-madura-united/OjuF4g0L/</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>45276.375</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>RANS Nusantara</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Borneo</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>1</v>
+      </c>
+      <c r="J198" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>14/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>16/12/2023 08:58</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>14/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P198" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>16/12/2023 08:57</t>
+        </is>
+      </c>
+      <c r="R198" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>14/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T198" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>16/12/2023 08:58</t>
+        </is>
+      </c>
+      <c r="V198" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/rans-nusantara-borneo/fZVpaXNr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>45276.54166666666</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Persija Jakarta</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>1</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>PSS Sleman</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>15/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>16/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>15/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P199" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>16/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R199" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>15/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T199" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>16/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V199" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persija-jakarta-pss-sleman/IDvJ3DFR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45277.375</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Persikabo 1973</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
+        <v>1</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Persebaya</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>1</v>
+      </c>
+      <c r="J200" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>15/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>17/12/2023 08:57</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>15/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P200" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>17/12/2023 08:56</t>
+        </is>
+      </c>
+      <c r="R200" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>15/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T200" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>17/12/2023 08:56</t>
+        </is>
+      </c>
+      <c r="V200" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persikabo-1973-persebaya/xbLkbiwk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45277.375</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Persis Solo</t>
+        </is>
+      </c>
+      <c r="G201" t="n">
+        <v>1</v>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Dewa United</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>2</v>
+      </c>
+      <c r="J201" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>15/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>17/12/2023 08:55</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>15/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P201" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>17/12/2023 08:56</t>
+        </is>
+      </c>
+      <c r="R201" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>15/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T201" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>17/12/2023 08:55</t>
+        </is>
+      </c>
+      <c r="V201" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persis-solo-dewa-united/p0tB5ZpF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45277.54166666666</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>FC Bhayangkara</t>
+        </is>
+      </c>
+      <c r="G202" t="n">
+        <v>3</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Persita</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>16/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>16/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P202" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R202" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>16/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T202" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V202" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/fc-bhayangkara-persita/pOOcdV71/</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45277.54166666666</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Barito Putera</t>
+        </is>
+      </c>
+      <c r="G203" t="n">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Arema FC</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>16/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:55</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>16/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P203" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:55</t>
+        </is>
+      </c>
+      <c r="R203" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>16/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T203" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:54</t>
+        </is>
+      </c>
+      <c r="V203" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/ps-barito-putera-arema-fc/GlKgcBhe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45278.375</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Persik Kediri</t>
+        </is>
+      </c>
+      <c r="G204" t="n">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>PSM Makassar</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>16/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>18/12/2023 08:21</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>16/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P204" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>18/12/2023 08:21</t>
+        </is>
+      </c>
+      <c r="R204" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>16/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T204" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="U204" t="inlineStr">
+        <is>
+          <t>18/12/2023 08:21</t>
+        </is>
+      </c>
+      <c r="V204" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/persik-kediri-psm-makassar/OEN1ekN7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>liga-1</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45278.54166666666</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Bali United</t>
+        </is>
+      </c>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Persib Bandung</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>17/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>18/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>17/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P205" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>18/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R205" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>17/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T205" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>18/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V205" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/indonesia/liga-1/bali-united-persib-bandung/QJ1pKYa8/</t>
         </is>
       </c>
     </row>
